--- a/Pokemon/src/pokemon/data/pokemon_actual_values.xlsx
+++ b/Pokemon/src/pokemon/data/pokemon_actual_values.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D05750-3DD9-4B0C-BB76-97B16B9F238C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2803,459 +2802,6 @@
     <t>egggroups</t>
   </si>
   <si>
-    <t>Shield_Dust</t>
-  </si>
-  <si>
-    <t>Shed_Skin</t>
-  </si>
-  <si>
-    <t>Compound_Eyes</t>
-  </si>
-  <si>
-    <t>Keen_Eye,Tangled_Feet</t>
-  </si>
-  <si>
-    <t>Run_Away,Guts</t>
-  </si>
-  <si>
-    <t>Keen_Eye</t>
-  </si>
-  <si>
-    <t>Intimidate,Shed_Skin</t>
-  </si>
-  <si>
-    <t>Sand_Veil</t>
-  </si>
-  <si>
-    <t>Poison_Point,Rivalry</t>
-  </si>
-  <si>
-    <t>Cute_Charm,Magic_Guard</t>
-  </si>
-  <si>
-    <t>Flash_Fire</t>
-  </si>
-  <si>
-    <t>Cute_Charm</t>
-  </si>
-  <si>
-    <t>Inner_Focus</t>
-  </si>
-  <si>
-    <t>Effect_Spore,Dry_Skin</t>
-  </si>
-  <si>
-    <t>Compound_Eyes,Tinted_Lens</t>
-  </si>
-  <si>
-    <t>Shield_Dust,Tinted_Lens</t>
-  </si>
-  <si>
-    <t>Sand_Veil,Arena_Trap</t>
-  </si>
-  <si>
-    <t>Damp,Cloud_Nine</t>
-  </si>
-  <si>
-    <t>Vital_Spirit,Anger_Point</t>
-  </si>
-  <si>
-    <t>Intimidate,Flash_Fire</t>
-  </si>
-  <si>
-    <t>Water_Absorb,Damp</t>
-  </si>
-  <si>
-    <t>Synchronize,Inner_Focus</t>
-  </si>
-  <si>
-    <t>Guts,No_Guard</t>
-  </si>
-  <si>
-    <t>Clear_Body,Liquid_Ooze</t>
-  </si>
-  <si>
-    <t>Rock_Head,Sturdy</t>
-  </si>
-  <si>
-    <t>Run_Away,Flash_Fire</t>
-  </si>
-  <si>
-    <t>Oblivious,Own_Tempo</t>
-  </si>
-  <si>
-    <t>Magnet_Pull,Sturdy</t>
-  </si>
-  <si>
-    <t>Keen_Eye,Inner_Focus</t>
-  </si>
-  <si>
-    <t>Run_Away,Early_Bird</t>
-  </si>
-  <si>
-    <t>Thick_Fat,Hydration</t>
-  </si>
-  <si>
-    <t>Stench,Sticky_Hold</t>
-  </si>
-  <si>
-    <t>Shell_Armor,Skill_Link</t>
-  </si>
-  <si>
-    <t>Hyper_Cutter,Shell_Armor</t>
-  </si>
-  <si>
-    <t>Rock_Head,Lightning_Rod</t>
-  </si>
-  <si>
-    <t>Keen_Eye,Iron_Fist</t>
-  </si>
-  <si>
-    <t>Own_Tempo,Oblivious</t>
-  </si>
-  <si>
-    <t>Lightning_Rod,Rock_Head</t>
-  </si>
-  <si>
-    <t>Natural_Cure,Serene_Grace</t>
-  </si>
-  <si>
-    <t>Chlorophyll,Leaf_Guard</t>
-  </si>
-  <si>
-    <t>Early_Bird,Scrappy</t>
-  </si>
-  <si>
-    <t>Swift_Swim,Sniper</t>
-  </si>
-  <si>
-    <t>Poison_Point,Sniper</t>
-  </si>
-  <si>
-    <t>Swift_Swim,Water_Veil</t>
-  </si>
-  <si>
-    <t>Illuminate,Natural_Cure</t>
-  </si>
-  <si>
-    <t>Flame_Body</t>
-  </si>
-  <si>
-    <t>Hyper_Cutter,Mold_Breaker</t>
-  </si>
-  <si>
-    <t>Intimidate,Anger_Point</t>
-  </si>
-  <si>
-    <t>Swift_Swim</t>
-  </si>
-  <si>
-    <t>Water_Absorb,Shell_Armor</t>
-  </si>
-  <si>
-    <t>Run_Away,Adaptability</t>
-  </si>
-  <si>
-    <t>Water_Absorb</t>
-  </si>
-  <si>
-    <t>Volt_Absorb</t>
-  </si>
-  <si>
-    <t>Swift_Swim,Shell_Armor</t>
-  </si>
-  <si>
-    <t>Swift_Swim,Battle_Armor</t>
-  </si>
-  <si>
-    <t>Rock_Head,Pressure</t>
-  </si>
-  <si>
-    <t>Immunity,Thick_Fat</t>
-  </si>
-  <si>
-    <t>Run_Away,Keen_Eye</t>
-  </si>
-  <si>
-    <t>Insomnia,Keen_Eye</t>
-  </si>
-  <si>
-    <t>Swarm,Early_Bird</t>
-  </si>
-  <si>
-    <t>Volt_Absorb,Illuminate</t>
-  </si>
-  <si>
-    <t>Hustle,Serene_Grace</t>
-  </si>
-  <si>
-    <t>Synchronize,Early_Bird</t>
-  </si>
-  <si>
-    <t>Thick_Fat,Huge_Power</t>
-  </si>
-  <si>
-    <t>Sturdy,Rock_Head</t>
-  </si>
-  <si>
-    <t>Run_Away,Pickup</t>
-  </si>
-  <si>
-    <t>Chlorophyll,Solar_Power</t>
-  </si>
-  <si>
-    <t>Speed_Boost,Compound_Eyes</t>
-  </si>
-  <si>
-    <t>Damp,Water_Absorb</t>
-  </si>
-  <si>
-    <t>Insomnia,Super_Luck</t>
-  </si>
-  <si>
-    <t>Shadow_Tag</t>
-  </si>
-  <si>
-    <t>Inner_Focus,Early_Bird</t>
-  </si>
-  <si>
-    <t>Serene_Grace,Run_Away</t>
-  </si>
-  <si>
-    <t>Hyper_Cutter,Sand_Veil</t>
-  </si>
-  <si>
-    <t>Intimidate,Run_Away</t>
-  </si>
-  <si>
-    <t>Intimidate,Quick_Feet</t>
-  </si>
-  <si>
-    <t>Poison_Point,Swift_Swim</t>
-  </si>
-  <si>
-    <t>Inner_Focus,Keen_Eye</t>
-  </si>
-  <si>
-    <t>Pickup,Quick_Feet</t>
-  </si>
-  <si>
-    <t>Guts,Quick_Feet</t>
-  </si>
-  <si>
-    <t>Magma_Armor,Flame_Body</t>
-  </si>
-  <si>
-    <t>Oblivious,Snow_Cloak</t>
-  </si>
-  <si>
-    <t>Hustle,Natural_Cure</t>
-  </si>
-  <si>
-    <t>Suction_Cups,Sniper</t>
-  </si>
-  <si>
-    <t>Vital_Spirit,Hustle</t>
-  </si>
-  <si>
-    <t>Swift_Swim,Water_Absorb</t>
-  </si>
-  <si>
-    <t>Keen_Eye,Sturdy</t>
-  </si>
-  <si>
-    <t>Early_Bird,Flash_Fire</t>
-  </si>
-  <si>
-    <t>Own_Tempo,Technician</t>
-  </si>
-  <si>
-    <t>Thick_Fat,Scrappy</t>
-  </si>
-  <si>
-    <t>Sand_Stream</t>
-  </si>
-  <si>
-    <t>Natural_Cure</t>
-  </si>
-  <si>
-    <t>Run_Away,Quick_Feet</t>
-  </si>
-  <si>
-    <t>Swift_Swim,Rain_Dish</t>
-  </si>
-  <si>
-    <t>Chlorophyll,Early_Bird</t>
-  </si>
-  <si>
-    <t>Keen_Eye,Hydration</t>
-  </si>
-  <si>
-    <t>Effect_Spore,Poison_Heal</t>
-  </si>
-  <si>
-    <t>Vital_Spirit</t>
-  </si>
-  <si>
-    <t>Speed_Boost</t>
-  </si>
-  <si>
-    <t>Wonder_Guard</t>
-  </si>
-  <si>
-    <t>Thick_Fat,Guts</t>
-  </si>
-  <si>
-    <t>Sturdy,Magnet_Pull</t>
-  </si>
-  <si>
-    <t>Cute_Charm,Normalize</t>
-  </si>
-  <si>
-    <t>Keen_Eye,Stall</t>
-  </si>
-  <si>
-    <t>Hyper_Cutter,Intimidate</t>
-  </si>
-  <si>
-    <t>Pure_Power</t>
-  </si>
-  <si>
-    <t>Static,Lightning_Rod</t>
-  </si>
-  <si>
-    <t>Oblivious,Tinted_Lens</t>
-  </si>
-  <si>
-    <t>Natural_Cure,Poison_Point</t>
-  </si>
-  <si>
-    <t>Liquid_Ooze,Sticky_Hold</t>
-  </si>
-  <si>
-    <t>Rough_Skin</t>
-  </si>
-  <si>
-    <t>Water_Veil,Oblivious</t>
-  </si>
-  <si>
-    <t>Magma_Armor,Solid_Rock</t>
-  </si>
-  <si>
-    <t>White_Smoke</t>
-  </si>
-  <si>
-    <t>Thick_Fat,Own_Tempo</t>
-  </si>
-  <si>
-    <t>Own_Tempo,Tangled_Feet</t>
-  </si>
-  <si>
-    <t>Hyper_Cutter,Arena_Trap</t>
-  </si>
-  <si>
-    <t>Suction_Cups</t>
-  </si>
-  <si>
-    <t>Battle_Armor</t>
-  </si>
-  <si>
-    <t>Swift_Swim,Oblivious</t>
-  </si>
-  <si>
-    <t>Marvel_Scale</t>
-  </si>
-  <si>
-    <t>Color_Change</t>
-  </si>
-  <si>
-    <t>Pressure,Super_Luck</t>
-  </si>
-  <si>
-    <t>Inner_Focus,Ice_Body</t>
-  </si>
-  <si>
-    <t>Thick_Fat,Ice_Body</t>
-  </si>
-  <si>
-    <t>Shell_Armor</t>
-  </si>
-  <si>
-    <t>Swift_Swim,Rock_Head</t>
-  </si>
-  <si>
-    <t>Rock_Head</t>
-  </si>
-  <si>
-    <t>Clear_Body</t>
-  </si>
-  <si>
-    <t>Air_Lock</t>
-  </si>
-  <si>
-    <t>Serene_Grace</t>
-  </si>
-  <si>
-    <t>Mold_Breaker</t>
-  </si>
-  <si>
-    <t>Honey_Gather</t>
-  </si>
-  <si>
-    <t>Flower_Gift</t>
-  </si>
-  <si>
-    <t>Sticky_Hold,Storm_Drain</t>
-  </si>
-  <si>
-    <t>Run_Away,Klutz</t>
-  </si>
-  <si>
-    <t>Cute_Charm,Klutz</t>
-  </si>
-  <si>
-    <t>Limber,Own_Tempo</t>
-  </si>
-  <si>
-    <t>Pickup,Thick_Fat</t>
-  </si>
-  <si>
-    <t>Steadfast,Inner_Focus</t>
-  </si>
-  <si>
-    <t>Battle_Armor,Sniper</t>
-  </si>
-  <si>
-    <t>Anticipation,Dry_Skin</t>
-  </si>
-  <si>
-    <t>Swift_Swim,Storm_Drain</t>
-  </si>
-  <si>
-    <t>Snow_Warning</t>
-  </si>
-  <si>
-    <t>Lightning_Rod,Solid_Rock</t>
-  </si>
-  <si>
-    <t>Motor_Drive</t>
-  </si>
-  <si>
-    <t>Speed_Boost,Tinted_Lens</t>
-  </si>
-  <si>
-    <t>Leaf_Guard</t>
-  </si>
-  <si>
-    <t>Snow_Cloak</t>
-  </si>
-  <si>
-    <t>Slow_Start</t>
-  </si>
-  <si>
-    <t>Bad_Dreams</t>
-  </si>
-  <si>
     <t>Monster,Water_1</t>
   </si>
   <si>
@@ -3326,12 +2872,465 @@
   </si>
   <si>
     <t>FastThenSlow</t>
+  </si>
+  <si>
+    <t>Shield Dust</t>
+  </si>
+  <si>
+    <t>Shed Skin</t>
+  </si>
+  <si>
+    <t>Compound Eyes</t>
+  </si>
+  <si>
+    <t>Keen Eye,Tangled Feet</t>
+  </si>
+  <si>
+    <t>Run Away,Guts</t>
+  </si>
+  <si>
+    <t>Keen Eye</t>
+  </si>
+  <si>
+    <t>Intimidate,Shed Skin</t>
+  </si>
+  <si>
+    <t>Sand Veil</t>
+  </si>
+  <si>
+    <t>Poison Point,Rivalry</t>
+  </si>
+  <si>
+    <t>Cute Charm,Magic Guard</t>
+  </si>
+  <si>
+    <t>Flash Fire</t>
+  </si>
+  <si>
+    <t>Cute Charm</t>
+  </si>
+  <si>
+    <t>Inner Focus</t>
+  </si>
+  <si>
+    <t>Effect Spore,Dry Skin</t>
+  </si>
+  <si>
+    <t>Compound Eyes,Tinted Lens</t>
+  </si>
+  <si>
+    <t>Shield Dust,Tinted Lens</t>
+  </si>
+  <si>
+    <t>Sand Veil,Arena Trap</t>
+  </si>
+  <si>
+    <t>Damp,Cloud Nine</t>
+  </si>
+  <si>
+    <t>Vital Spirit,Anger Point</t>
+  </si>
+  <si>
+    <t>Intimidate,Flash Fire</t>
+  </si>
+  <si>
+    <t>Water Absorb,Damp</t>
+  </si>
+  <si>
+    <t>Synchronize,Inner Focus</t>
+  </si>
+  <si>
+    <t>Guts,No Guard</t>
+  </si>
+  <si>
+    <t>Clear Body,Liquid Ooze</t>
+  </si>
+  <si>
+    <t>Rock Head,Sturdy</t>
+  </si>
+  <si>
+    <t>Run Away,Flash Fire</t>
+  </si>
+  <si>
+    <t>Oblivious,Own Tempo</t>
+  </si>
+  <si>
+    <t>Magnet Pull,Sturdy</t>
+  </si>
+  <si>
+    <t>Keen Eye,Inner Focus</t>
+  </si>
+  <si>
+    <t>Run Away,Early Bird</t>
+  </si>
+  <si>
+    <t>Thick Fat,Hydration</t>
+  </si>
+  <si>
+    <t>Stench,Sticky Hold</t>
+  </si>
+  <si>
+    <t>Shell Armor,Skill Link</t>
+  </si>
+  <si>
+    <t>Hyper Cutter,Shell Armor</t>
+  </si>
+  <si>
+    <t>Rock Head,Lightning Rod</t>
+  </si>
+  <si>
+    <t>Keen Eye,Iron Fist</t>
+  </si>
+  <si>
+    <t>Own Tempo,Oblivious</t>
+  </si>
+  <si>
+    <t>Lightning Rod,Rock Head</t>
+  </si>
+  <si>
+    <t>Natural Cure,Serene Grace</t>
+  </si>
+  <si>
+    <t>Chlorophyll,Leaf Guard</t>
+  </si>
+  <si>
+    <t>Early Bird,Scrappy</t>
+  </si>
+  <si>
+    <t>Swift Swim,Sniper</t>
+  </si>
+  <si>
+    <t>Poison Point,Sniper</t>
+  </si>
+  <si>
+    <t>Swift Swim,Water Veil</t>
+  </si>
+  <si>
+    <t>Illuminate,Natural Cure</t>
+  </si>
+  <si>
+    <t>Flame Body</t>
+  </si>
+  <si>
+    <t>Hyper Cutter,Mold Breaker</t>
+  </si>
+  <si>
+    <t>Intimidate,Anger Point</t>
+  </si>
+  <si>
+    <t>Swift Swim</t>
+  </si>
+  <si>
+    <t>Water Absorb,Shell Armor</t>
+  </si>
+  <si>
+    <t>Run Away,Adaptability</t>
+  </si>
+  <si>
+    <t>Water Absorb</t>
+  </si>
+  <si>
+    <t>Volt Absorb</t>
+  </si>
+  <si>
+    <t>Swift Swim,Shell Armor</t>
+  </si>
+  <si>
+    <t>Swift Swim,Battle Armor</t>
+  </si>
+  <si>
+    <t>Rock Head,Pressure</t>
+  </si>
+  <si>
+    <t>Immunity,Thick Fat</t>
+  </si>
+  <si>
+    <t>Run Away,Keen Eye</t>
+  </si>
+  <si>
+    <t>Insomnia,Keen Eye</t>
+  </si>
+  <si>
+    <t>Swarm,Early Bird</t>
+  </si>
+  <si>
+    <t>Volt Absorb,Illuminate</t>
+  </si>
+  <si>
+    <t>Hustle,Serene Grace</t>
+  </si>
+  <si>
+    <t>Synchronize,Early Bird</t>
+  </si>
+  <si>
+    <t>Thick Fat,Huge Power</t>
+  </si>
+  <si>
+    <t>Sturdy,Rock Head</t>
+  </si>
+  <si>
+    <t>Run Away,Pickup</t>
+  </si>
+  <si>
+    <t>Chlorophyll,Solar Power</t>
+  </si>
+  <si>
+    <t>Speed Boost,Compound Eyes</t>
+  </si>
+  <si>
+    <t>Damp,Water Absorb</t>
+  </si>
+  <si>
+    <t>Insomnia,Super Luck</t>
+  </si>
+  <si>
+    <t>Shadow Tag</t>
+  </si>
+  <si>
+    <t>Inner Focus,Early Bird</t>
+  </si>
+  <si>
+    <t>Serene Grace,Run Away</t>
+  </si>
+  <si>
+    <t>Hyper Cutter,Sand Veil</t>
+  </si>
+  <si>
+    <t>Intimidate,Run Away</t>
+  </si>
+  <si>
+    <t>Intimidate,Quick Feet</t>
+  </si>
+  <si>
+    <t>Poison Point,Swift Swim</t>
+  </si>
+  <si>
+    <t>Inner Focus,Keen Eye</t>
+  </si>
+  <si>
+    <t>Pickup,Quick Feet</t>
+  </si>
+  <si>
+    <t>Guts,Quick Feet</t>
+  </si>
+  <si>
+    <t>Magma Armor,Flame Body</t>
+  </si>
+  <si>
+    <t>Oblivious,Snow Cloak</t>
+  </si>
+  <si>
+    <t>Hustle,Natural Cure</t>
+  </si>
+  <si>
+    <t>Suction Cups,Sniper</t>
+  </si>
+  <si>
+    <t>Vital Spirit,Hustle</t>
+  </si>
+  <si>
+    <t>Swift Swim,Water Absorb</t>
+  </si>
+  <si>
+    <t>Keen Eye,Sturdy</t>
+  </si>
+  <si>
+    <t>Early Bird,Flash Fire</t>
+  </si>
+  <si>
+    <t>Own Tempo,Technician</t>
+  </si>
+  <si>
+    <t>Thick Fat,Scrappy</t>
+  </si>
+  <si>
+    <t>Sand Stream</t>
+  </si>
+  <si>
+    <t>Natural Cure</t>
+  </si>
+  <si>
+    <t>Run Away,Quick Feet</t>
+  </si>
+  <si>
+    <t>Swift Swim,Rain Dish</t>
+  </si>
+  <si>
+    <t>Chlorophyll,Early Bird</t>
+  </si>
+  <si>
+    <t>Keen Eye,Hydration</t>
+  </si>
+  <si>
+    <t>Effect Spore,Poison Heal</t>
+  </si>
+  <si>
+    <t>Vital Spirit</t>
+  </si>
+  <si>
+    <t>Speed Boost</t>
+  </si>
+  <si>
+    <t>Wonder Guard</t>
+  </si>
+  <si>
+    <t>Thick Fat,Guts</t>
+  </si>
+  <si>
+    <t>Sturdy,Magnet Pull</t>
+  </si>
+  <si>
+    <t>Cute Charm,Normalize</t>
+  </si>
+  <si>
+    <t>Keen Eye,Stall</t>
+  </si>
+  <si>
+    <t>Hyper Cutter,Intimidate</t>
+  </si>
+  <si>
+    <t>Pure Power</t>
+  </si>
+  <si>
+    <t>Static,Lightning Rod</t>
+  </si>
+  <si>
+    <t>Oblivious,Tinted Lens</t>
+  </si>
+  <si>
+    <t>Natural Cure,Poison Point</t>
+  </si>
+  <si>
+    <t>Liquid Ooze,Sticky Hold</t>
+  </si>
+  <si>
+    <t>Rough Skin</t>
+  </si>
+  <si>
+    <t>Water Veil,Oblivious</t>
+  </si>
+  <si>
+    <t>Magma Armor,Solid Rock</t>
+  </si>
+  <si>
+    <t>White Smoke</t>
+  </si>
+  <si>
+    <t>Thick Fat,Own Tempo</t>
+  </si>
+  <si>
+    <t>Own Tempo,Tangled Feet</t>
+  </si>
+  <si>
+    <t>Hyper Cutter,Arena Trap</t>
+  </si>
+  <si>
+    <t>Suction Cups</t>
+  </si>
+  <si>
+    <t>Battle Armor</t>
+  </si>
+  <si>
+    <t>Swift Swim,Oblivious</t>
+  </si>
+  <si>
+    <t>Marvel Scale</t>
+  </si>
+  <si>
+    <t>Color Change</t>
+  </si>
+  <si>
+    <t>Pressure,Super Luck</t>
+  </si>
+  <si>
+    <t>Inner Focus,Ice Body</t>
+  </si>
+  <si>
+    <t>Thick Fat,Ice Body</t>
+  </si>
+  <si>
+    <t>Shell Armor</t>
+  </si>
+  <si>
+    <t>Swift Swim,Rock Head</t>
+  </si>
+  <si>
+    <t>Rock Head</t>
+  </si>
+  <si>
+    <t>Clear Body</t>
+  </si>
+  <si>
+    <t>Air Lock</t>
+  </si>
+  <si>
+    <t>Serene Grace</t>
+  </si>
+  <si>
+    <t>Mold Breaker</t>
+  </si>
+  <si>
+    <t>Honey Gather</t>
+  </si>
+  <si>
+    <t>Flower Gift</t>
+  </si>
+  <si>
+    <t>Sticky Hold,Storm Drain</t>
+  </si>
+  <si>
+    <t>Run Away,Klutz</t>
+  </si>
+  <si>
+    <t>Cute Charm,Klutz</t>
+  </si>
+  <si>
+    <t>Limber,Own Tempo</t>
+  </si>
+  <si>
+    <t>Pickup,Thick Fat</t>
+  </si>
+  <si>
+    <t>Steadfast,Inner Focus</t>
+  </si>
+  <si>
+    <t>Battle Armor,Sniper</t>
+  </si>
+  <si>
+    <t>Anticipation,Dry Skin</t>
+  </si>
+  <si>
+    <t>Swift Swim,Storm Drain</t>
+  </si>
+  <si>
+    <t>Snow Warning</t>
+  </si>
+  <si>
+    <t>Lightning Rod,Solid Rock</t>
+  </si>
+  <si>
+    <t>Motor Drive</t>
+  </si>
+  <si>
+    <t>Speed Boost,Tinted Lens</t>
+  </si>
+  <si>
+    <t>Leaf Guard</t>
+  </si>
+  <si>
+    <t>Snow Cloak</t>
+  </si>
+  <si>
+    <t>Slow Start</t>
+  </si>
+  <si>
+    <t>Bad Dreams</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3646,18 +3645,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z494"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3776,7 +3775,7 @@
         <v>45</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J2" s="1">
         <v>64</v>
@@ -3856,7 +3855,7 @@
         <v>45</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J3" s="1">
         <v>142</v>
@@ -3936,7 +3935,7 @@
         <v>45</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J4" s="1">
         <v>236</v>
@@ -4016,7 +4015,7 @@
         <v>45</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J5" s="1">
         <v>62</v>
@@ -4096,7 +4095,7 @@
         <v>45</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J6" s="1">
         <v>142</v>
@@ -4176,7 +4175,7 @@
         <v>45</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J7" s="1">
         <v>240</v>
@@ -4247,7 +4246,7 @@
         <v>857</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>1078</v>
+        <v>927</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>820</v>
@@ -4256,7 +4255,7 @@
         <v>45</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J8" s="1">
         <v>63</v>
@@ -4327,7 +4326,7 @@
         <v>857</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>1078</v>
+        <v>927</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>820</v>
@@ -4336,7 +4335,7 @@
         <v>45</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J9" s="1">
         <v>142</v>
@@ -4407,7 +4406,7 @@
         <v>857</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>1078</v>
+        <v>927</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>820</v>
@@ -4416,7 +4415,7 @@
         <v>45</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J10" s="1">
         <v>239</v>
@@ -4484,7 +4483,7 @@
         <v>819</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>927</v>
+        <v>951</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>833</v>
@@ -4496,7 +4495,7 @@
         <v>255</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J11" s="1">
         <v>39</v>
@@ -4564,7 +4563,7 @@
         <v>819</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>928</v>
+        <v>952</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>833</v>
@@ -4576,7 +4575,7 @@
         <v>120</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J12" s="1">
         <v>72</v>
@@ -4644,7 +4643,7 @@
         <v>834</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>929</v>
+        <v>953</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>833</v>
@@ -4656,7 +4655,7 @@
         <v>45</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J13" s="1">
         <v>178</v>
@@ -4724,7 +4723,7 @@
         <v>844</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>927</v>
+        <v>951</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>833</v>
@@ -4736,7 +4735,7 @@
         <v>255</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J14" s="1">
         <v>39</v>
@@ -4804,7 +4803,7 @@
         <v>844</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>928</v>
+        <v>952</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>833</v>
@@ -4816,7 +4815,7 @@
         <v>120</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J15" s="1">
         <v>72</v>
@@ -4896,7 +4895,7 @@
         <v>45</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J16" s="1">
         <v>178</v>
@@ -4964,7 +4963,7 @@
         <v>834</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>930</v>
+        <v>954</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>834</v>
@@ -4976,7 +4975,7 @@
         <v>255</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J17" s="1">
         <v>50</v>
@@ -5044,7 +5043,7 @@
         <v>834</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>930</v>
+        <v>954</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>834</v>
@@ -5056,7 +5055,7 @@
         <v>120</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J18" s="1">
         <v>122</v>
@@ -5124,7 +5123,7 @@
         <v>834</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>930</v>
+        <v>954</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>834</v>
@@ -5136,7 +5135,7 @@
         <v>45</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J19" s="1">
         <v>216</v>
@@ -5204,7 +5203,7 @@
         <v>854</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>835</v>
@@ -5216,7 +5215,7 @@
         <v>255</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J20" s="1">
         <v>51</v>
@@ -5284,7 +5283,7 @@
         <v>854</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>835</v>
@@ -5296,7 +5295,7 @@
         <v>127</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J21" s="1">
         <v>145</v>
@@ -5364,7 +5363,7 @@
         <v>834</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>932</v>
+        <v>956</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>834</v>
@@ -5376,7 +5375,7 @@
         <v>255</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J22" s="1">
         <v>52</v>
@@ -5444,7 +5443,7 @@
         <v>834</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>932</v>
+        <v>956</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>834</v>
@@ -5456,7 +5455,7 @@
         <v>90</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J23" s="1">
         <v>155</v>
@@ -5524,7 +5523,7 @@
         <v>819</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>933</v>
+        <v>957</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>912</v>
@@ -5536,7 +5535,7 @@
         <v>255</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J24" s="1">
         <v>58</v>
@@ -5604,7 +5603,7 @@
         <v>819</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>933</v>
+        <v>957</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>912</v>
@@ -5616,7 +5615,7 @@
         <v>90</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J25" s="1">
         <v>157</v>
@@ -5696,7 +5695,7 @@
         <v>190</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J26" s="1">
         <v>112</v>
@@ -5776,7 +5775,7 @@
         <v>75</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J27" s="1">
         <v>218</v>
@@ -5844,7 +5843,7 @@
         <v>853</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>934</v>
+        <v>958</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>835</v>
@@ -5856,7 +5855,7 @@
         <v>255</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J28" s="1">
         <v>60</v>
@@ -5924,7 +5923,7 @@
         <v>853</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>934</v>
+        <v>958</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>835</v>
@@ -5936,7 +5935,7 @@
         <v>90</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J29" s="1">
         <v>158</v>
@@ -5995,7 +5994,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1094</v>
+        <v>943</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>844</v>
@@ -6004,7 +6003,7 @@
         <v>819</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>935</v>
+        <v>959</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>914</v>
@@ -6016,7 +6015,7 @@
         <v>235</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J30" s="1">
         <v>55</v>
@@ -6084,7 +6083,7 @@
         <v>819</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>935</v>
+        <v>959</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>836</v>
@@ -6096,7 +6095,7 @@
         <v>120</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J31" s="1">
         <v>128</v>
@@ -6164,7 +6163,7 @@
         <v>848</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>935</v>
+        <v>959</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>836</v>
@@ -6176,7 +6175,7 @@
         <v>45</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J32" s="1">
         <v>227</v>
@@ -6235,7 +6234,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1094</v>
+        <v>943</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>844</v>
@@ -6244,7 +6243,7 @@
         <v>819</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>935</v>
+        <v>959</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>914</v>
@@ -6256,7 +6255,7 @@
         <v>235</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J33" s="1">
         <v>55</v>
@@ -6324,7 +6323,7 @@
         <v>819</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>935</v>
+        <v>959</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>914</v>
@@ -6336,7 +6335,7 @@
         <v>120</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J34" s="1">
         <v>128</v>
@@ -6404,7 +6403,7 @@
         <v>848</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>935</v>
+        <v>959</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>914</v>
@@ -6416,7 +6415,7 @@
         <v>45</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J35" s="1">
         <v>227</v>
@@ -6484,7 +6483,7 @@
         <v>819</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>936</v>
+        <v>960</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>837</v>
@@ -6496,7 +6495,7 @@
         <v>150</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>1098</v>
+        <v>947</v>
       </c>
       <c r="J36" s="1">
         <v>113</v>
@@ -6564,7 +6563,7 @@
         <v>819</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>936</v>
+        <v>960</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>837</v>
@@ -6576,7 +6575,7 @@
         <v>25</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>1098</v>
+        <v>947</v>
       </c>
       <c r="J37" s="1">
         <v>217</v>
@@ -6644,7 +6643,7 @@
         <v>853</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>937</v>
+        <v>961</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>835</v>
@@ -6656,7 +6655,7 @@
         <v>190</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J38" s="1">
         <v>60</v>
@@ -6724,7 +6723,7 @@
         <v>853</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>937</v>
+        <v>961</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>835</v>
@@ -6736,7 +6735,7 @@
         <v>75</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J39" s="1">
         <v>177</v>
@@ -6804,7 +6803,7 @@
         <v>819</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>938</v>
+        <v>962</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>837</v>
@@ -6816,7 +6815,7 @@
         <v>170</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>1098</v>
+        <v>947</v>
       </c>
       <c r="J40" s="1">
         <v>95</v>
@@ -6884,7 +6883,7 @@
         <v>819</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>938</v>
+        <v>962</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>837</v>
@@ -6896,7 +6895,7 @@
         <v>50</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>1098</v>
+        <v>947</v>
       </c>
       <c r="J41" s="1">
         <v>196</v>
@@ -6964,7 +6963,7 @@
         <v>834</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>939</v>
+        <v>963</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>834</v>
@@ -6976,7 +6975,7 @@
         <v>255</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J42" s="1">
         <v>49</v>
@@ -7044,7 +7043,7 @@
         <v>834</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>939</v>
+        <v>963</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>834</v>
@@ -7056,7 +7055,7 @@
         <v>90</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J43" s="1">
         <v>159</v>
@@ -7136,7 +7135,7 @@
         <v>255</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J44" s="1">
         <v>64</v>
@@ -7216,7 +7215,7 @@
         <v>120</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J45" s="1">
         <v>138</v>
@@ -7296,7 +7295,7 @@
         <v>45</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J46" s="1">
         <v>221</v>
@@ -7364,7 +7363,7 @@
         <v>838</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>940</v>
+        <v>964</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>915</v>
@@ -7376,7 +7375,7 @@
         <v>190</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J47" s="1">
         <v>57</v>
@@ -7444,7 +7443,7 @@
         <v>838</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>940</v>
+        <v>964</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>915</v>
@@ -7456,7 +7455,7 @@
         <v>75</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J48" s="1">
         <v>142</v>
@@ -7524,7 +7523,7 @@
         <v>844</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>941</v>
+        <v>965</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>833</v>
@@ -7536,7 +7535,7 @@
         <v>190</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J49" s="1">
         <v>61</v>
@@ -7604,7 +7603,7 @@
         <v>844</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>942</v>
+        <v>966</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>833</v>
@@ -7616,7 +7615,7 @@
         <v>75</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J50" s="1">
         <v>158</v>
@@ -7684,7 +7683,7 @@
         <v>848</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>943</v>
+        <v>967</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>835</v>
@@ -7696,7 +7695,7 @@
         <v>255</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J51" s="1">
         <v>53</v>
@@ -7764,7 +7763,7 @@
         <v>848</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>943</v>
+        <v>967</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>835</v>
@@ -7776,7 +7775,7 @@
         <v>50</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J52" s="1">
         <v>149</v>
@@ -7856,7 +7855,7 @@
         <v>255</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J53" s="1">
         <v>58</v>
@@ -7936,7 +7935,7 @@
         <v>90</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J54" s="1">
         <v>154</v>
@@ -8004,10 +8003,10 @@
         <v>819</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>944</v>
+        <v>968</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>1079</v>
+        <v>928</v>
       </c>
       <c r="G55" s="1">
         <v>50</v>
@@ -8016,7 +8015,7 @@
         <v>190</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J55" s="1">
         <v>64</v>
@@ -8084,10 +8083,10 @@
         <v>819</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>944</v>
+        <v>968</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>1079</v>
+        <v>928</v>
       </c>
       <c r="G56" s="1">
         <v>50</v>
@@ -8096,7 +8095,7 @@
         <v>75</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J56" s="1">
         <v>175</v>
@@ -8164,7 +8163,7 @@
         <v>819</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>945</v>
+        <v>969</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>835</v>
@@ -8176,7 +8175,7 @@
         <v>190</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J57" s="1">
         <v>61</v>
@@ -8244,7 +8243,7 @@
         <v>819</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>945</v>
+        <v>969</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>835</v>
@@ -8256,7 +8255,7 @@
         <v>75</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J58" s="1">
         <v>159</v>
@@ -8324,7 +8323,7 @@
         <v>819</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>946</v>
+        <v>970</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>835</v>
@@ -8336,7 +8335,7 @@
         <v>190</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J59" s="1">
         <v>70</v>
@@ -8404,7 +8403,7 @@
         <v>819</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>946</v>
+        <v>970</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>835</v>
@@ -8416,7 +8415,7 @@
         <v>75</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J60" s="1">
         <v>194</v>
@@ -8484,10 +8483,10 @@
         <v>819</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>947</v>
+        <v>971</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>1080</v>
+        <v>929</v>
       </c>
       <c r="G61" s="1">
         <v>50</v>
@@ -8496,7 +8495,7 @@
         <v>255</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J61" s="1">
         <v>60</v>
@@ -8564,10 +8563,10 @@
         <v>819</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>947</v>
+        <v>971</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>1080</v>
+        <v>929</v>
       </c>
       <c r="G62" s="1">
         <v>50</v>
@@ -8576,7 +8575,7 @@
         <v>120</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J62" s="1">
         <v>135</v>
@@ -8644,10 +8643,10 @@
         <v>847</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>947</v>
+        <v>971</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>1080</v>
+        <v>929</v>
       </c>
       <c r="G63" s="1">
         <v>50</v>
@@ -8656,7 +8655,7 @@
         <v>45</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J63" s="1">
         <v>230</v>
@@ -8724,10 +8723,10 @@
         <v>819</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>948</v>
+        <v>972</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>1095</v>
+        <v>944</v>
       </c>
       <c r="G64" s="1">
         <v>75</v>
@@ -8736,7 +8735,7 @@
         <v>200</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J64" s="1">
         <v>62</v>
@@ -8804,10 +8803,10 @@
         <v>819</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>948</v>
+        <v>972</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>1095</v>
+        <v>944</v>
       </c>
       <c r="G65" s="1">
         <v>75</v>
@@ -8816,7 +8815,7 @@
         <v>100</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J65" s="1">
         <v>140</v>
@@ -8884,10 +8883,10 @@
         <v>819</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>948</v>
+        <v>972</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>1095</v>
+        <v>944</v>
       </c>
       <c r="G66" s="1">
         <v>75</v>
@@ -8896,7 +8895,7 @@
         <v>50</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J66" s="1">
         <v>225</v>
@@ -8964,10 +8963,10 @@
         <v>819</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>1095</v>
+        <v>944</v>
       </c>
       <c r="G67" s="1">
         <v>75</v>
@@ -8976,7 +8975,7 @@
         <v>180</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J67" s="1">
         <v>61</v>
@@ -9044,10 +9043,10 @@
         <v>819</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>1095</v>
+        <v>944</v>
       </c>
       <c r="G68" s="1">
         <v>75</v>
@@ -9056,7 +9055,7 @@
         <v>90</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J68" s="1">
         <v>142</v>
@@ -9124,10 +9123,10 @@
         <v>819</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>1095</v>
+        <v>944</v>
       </c>
       <c r="G69" s="1">
         <v>75</v>
@@ -9136,7 +9135,7 @@
         <v>45</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J69" s="1">
         <v>227</v>
@@ -9216,7 +9215,7 @@
         <v>255</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J70" s="1">
         <v>60</v>
@@ -9296,7 +9295,7 @@
         <v>120</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J71" s="1">
         <v>137</v>
@@ -9376,7 +9375,7 @@
         <v>45</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J72" s="1">
         <v>221</v>
@@ -9444,10 +9443,10 @@
         <v>844</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>950</v>
+        <v>974</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>1081</v>
+        <v>930</v>
       </c>
       <c r="G73" s="1">
         <v>50</v>
@@ -9456,7 +9455,7 @@
         <v>190</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J73" s="1">
         <v>67</v>
@@ -9524,10 +9523,10 @@
         <v>844</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>950</v>
+        <v>974</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>1081</v>
+        <v>930</v>
       </c>
       <c r="G74" s="1">
         <v>50</v>
@@ -9536,7 +9535,7 @@
         <v>60</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J74" s="1">
         <v>180</v>
@@ -9604,7 +9603,7 @@
         <v>848</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>951</v>
+        <v>975</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>839</v>
@@ -9616,7 +9615,7 @@
         <v>255</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J75" s="1">
         <v>60</v>
@@ -9684,7 +9683,7 @@
         <v>848</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>951</v>
+        <v>975</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>839</v>
@@ -9696,7 +9695,7 @@
         <v>120</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J76" s="1">
         <v>137</v>
@@ -9764,7 +9763,7 @@
         <v>848</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>951</v>
+        <v>975</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>839</v>
@@ -9776,7 +9775,7 @@
         <v>45</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J77" s="1">
         <v>223</v>
@@ -9844,7 +9843,7 @@
         <v>819</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>952</v>
+        <v>976</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>835</v>
@@ -9856,7 +9855,7 @@
         <v>190</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J78" s="1">
         <v>82</v>
@@ -9924,7 +9923,7 @@
         <v>819</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>952</v>
+        <v>976</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>835</v>
@@ -9936,7 +9935,7 @@
         <v>60</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J79" s="1">
         <v>175</v>
@@ -10004,10 +10003,10 @@
         <v>852</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>953</v>
+        <v>977</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>1078</v>
+        <v>927</v>
       </c>
       <c r="G80" s="1">
         <v>50</v>
@@ -10016,7 +10015,7 @@
         <v>190</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J80" s="1">
         <v>63</v>
@@ -10084,10 +10083,10 @@
         <v>852</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>953</v>
+        <v>977</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>1078</v>
+        <v>927</v>
       </c>
       <c r="G81" s="1">
         <v>50</v>
@@ -10096,7 +10095,7 @@
         <v>75</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J81" s="1">
         <v>172</v>
@@ -10164,7 +10163,7 @@
         <v>845</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>954</v>
+        <v>978</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>839</v>
@@ -10176,7 +10175,7 @@
         <v>190</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J82" s="1">
         <v>65</v>
@@ -10244,7 +10243,7 @@
         <v>845</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>954</v>
+        <v>978</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>839</v>
@@ -10256,7 +10255,7 @@
         <v>60</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J83" s="1">
         <v>163</v>
@@ -10324,7 +10323,7 @@
         <v>834</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>955</v>
+        <v>979</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>916</v>
@@ -10336,7 +10335,7 @@
         <v>45</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J84" s="1">
         <v>132</v>
@@ -10404,7 +10403,7 @@
         <v>834</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>956</v>
+        <v>980</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>834</v>
@@ -10416,7 +10415,7 @@
         <v>190</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J85" s="1">
         <v>62</v>
@@ -10484,7 +10483,7 @@
         <v>834</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>956</v>
+        <v>980</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>834</v>
@@ -10496,7 +10495,7 @@
         <v>45</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J86" s="1">
         <v>165</v>
@@ -10564,10 +10563,10 @@
         <v>819</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>957</v>
+        <v>981</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>1079</v>
+        <v>928</v>
       </c>
       <c r="G87" s="1">
         <v>50</v>
@@ -10576,7 +10575,7 @@
         <v>190</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J87" s="1">
         <v>65</v>
@@ -10644,10 +10643,10 @@
         <v>853</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>957</v>
+        <v>981</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>1079</v>
+        <v>928</v>
       </c>
       <c r="G88" s="1">
         <v>50</v>
@@ -10656,7 +10655,7 @@
         <v>75</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J88" s="1">
         <v>166</v>
@@ -10724,7 +10723,7 @@
         <v>844</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>958</v>
+        <v>982</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>840</v>
@@ -10736,7 +10735,7 @@
         <v>190</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J89" s="1">
         <v>65</v>
@@ -10804,7 +10803,7 @@
         <v>844</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>958</v>
+        <v>982</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>840</v>
@@ -10816,7 +10815,7 @@
         <v>75</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J90" s="1">
         <v>175</v>
@@ -10884,10 +10883,10 @@
         <v>819</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>959</v>
+        <v>983</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>1081</v>
+        <v>930</v>
       </c>
       <c r="G91" s="1">
         <v>50</v>
@@ -10896,7 +10895,7 @@
         <v>190</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J91" s="1">
         <v>61</v>
@@ -10964,10 +10963,10 @@
         <v>853</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>959</v>
+        <v>983</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>1081</v>
+        <v>930</v>
       </c>
       <c r="G92" s="1">
         <v>50</v>
@@ -10976,7 +10975,7 @@
         <v>60</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J92" s="1">
         <v>184</v>
@@ -11056,7 +11055,7 @@
         <v>190</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J93" s="1">
         <v>62</v>
@@ -11136,7 +11135,7 @@
         <v>90</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J94" s="1">
         <v>142</v>
@@ -11216,7 +11215,7 @@
         <v>45</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J95" s="1">
         <v>225</v>
@@ -11284,7 +11283,7 @@
         <v>848</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>951</v>
+        <v>975</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>839</v>
@@ -11296,7 +11295,7 @@
         <v>45</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J96" s="1">
         <v>77</v>
@@ -11367,7 +11366,7 @@
         <v>864</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>1095</v>
+        <v>944</v>
       </c>
       <c r="G97" s="1">
         <v>50</v>
@@ -11376,7 +11375,7 @@
         <v>190</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J97" s="1">
         <v>66</v>
@@ -11447,7 +11446,7 @@
         <v>864</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>1095</v>
+        <v>944</v>
       </c>
       <c r="G98" s="1">
         <v>50</v>
@@ -11456,7 +11455,7 @@
         <v>75</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J98" s="1">
         <v>169</v>
@@ -11524,10 +11523,10 @@
         <v>819</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>960</v>
+        <v>984</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>1081</v>
+        <v>930</v>
       </c>
       <c r="G99" s="1">
         <v>50</v>
@@ -11536,7 +11535,7 @@
         <v>225</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J99" s="1">
         <v>65</v>
@@ -11604,10 +11603,10 @@
         <v>819</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>960</v>
+        <v>984</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>1081</v>
+        <v>930</v>
       </c>
       <c r="G100" s="1">
         <v>50</v>
@@ -11616,7 +11615,7 @@
         <v>60</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J100" s="1">
         <v>166</v>
@@ -11696,7 +11695,7 @@
         <v>190</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J101" s="1">
         <v>66</v>
@@ -11776,7 +11775,7 @@
         <v>60</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J102" s="1">
         <v>172</v>
@@ -11856,7 +11855,7 @@
         <v>90</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J103" s="1">
         <v>65</v>
@@ -11936,7 +11935,7 @@
         <v>45</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J104" s="1">
         <v>186</v>
@@ -12004,7 +12003,7 @@
         <v>819</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>961</v>
+        <v>985</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>832</v>
@@ -12016,7 +12015,7 @@
         <v>190</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J105" s="1">
         <v>64</v>
@@ -12084,7 +12083,7 @@
         <v>842</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>961</v>
+        <v>985</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>832</v>
@@ -12096,7 +12095,7 @@
         <v>75</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J106" s="1">
         <v>149</v>
@@ -12167,7 +12166,7 @@
         <v>866</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>1095</v>
+        <v>944</v>
       </c>
       <c r="G107" s="1">
         <v>100</v>
@@ -12176,7 +12175,7 @@
         <v>45</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J107" s="1">
         <v>159</v>
@@ -12244,10 +12243,10 @@
         <v>819</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>962</v>
+        <v>986</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>1095</v>
+        <v>944</v>
       </c>
       <c r="G108" s="1">
         <v>100</v>
@@ -12256,7 +12255,7 @@
         <v>45</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J108" s="1">
         <v>159</v>
@@ -12324,7 +12323,7 @@
         <v>819</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>963</v>
+        <v>987</v>
       </c>
       <c r="F109" s="3" t="s">
         <v>832</v>
@@ -12336,7 +12335,7 @@
         <v>45</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J109" s="1">
         <v>77</v>
@@ -12416,7 +12415,7 @@
         <v>190</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J110" s="1">
         <v>68</v>
@@ -12496,7 +12495,7 @@
         <v>60</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J111" s="1">
         <v>172</v>
@@ -12564,7 +12563,7 @@
         <v>849</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>964</v>
+        <v>988</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>914</v>
@@ -12576,7 +12575,7 @@
         <v>120</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J112" s="1">
         <v>69</v>
@@ -12644,7 +12643,7 @@
         <v>849</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>964</v>
+        <v>988</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>914</v>
@@ -12656,7 +12655,7 @@
         <v>60</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J113" s="1">
         <v>170</v>
@@ -12724,7 +12723,7 @@
         <v>819</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>965</v>
+        <v>989</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>837</v>
@@ -12736,7 +12735,7 @@
         <v>30</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>1098</v>
+        <v>947</v>
       </c>
       <c r="J114" s="1">
         <v>395</v>
@@ -12804,7 +12803,7 @@
         <v>819</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>966</v>
+        <v>990</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>838</v>
@@ -12816,7 +12815,7 @@
         <v>45</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J115" s="1">
         <v>87</v>
@@ -12884,7 +12883,7 @@
         <v>819</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>967</v>
+        <v>991</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>832</v>
@@ -12896,7 +12895,7 @@
         <v>45</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J116" s="1">
         <v>172</v>
@@ -12964,10 +12963,10 @@
         <v>819</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>968</v>
+        <v>992</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>1082</v>
+        <v>931</v>
       </c>
       <c r="G117" s="1">
         <v>50</v>
@@ -12976,7 +12975,7 @@
         <v>225</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J117" s="1">
         <v>59</v>
@@ -13044,10 +13043,10 @@
         <v>819</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>969</v>
+        <v>993</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>1082</v>
+        <v>931</v>
       </c>
       <c r="G118" s="1">
         <v>50</v>
@@ -13056,7 +13055,7 @@
         <v>75</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J118" s="1">
         <v>154</v>
@@ -13124,10 +13123,10 @@
         <v>819</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>970</v>
+        <v>994</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>1083</v>
+        <v>932</v>
       </c>
       <c r="G119" s="1">
         <v>50</v>
@@ -13136,7 +13135,7 @@
         <v>225</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J119" s="1">
         <v>64</v>
@@ -13204,10 +13203,10 @@
         <v>819</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>970</v>
+        <v>994</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>1083</v>
+        <v>932</v>
       </c>
       <c r="G120" s="1">
         <v>50</v>
@@ -13216,7 +13215,7 @@
         <v>60</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J120" s="1">
         <v>158</v>
@@ -13284,10 +13283,10 @@
         <v>819</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>971</v>
+        <v>995</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>1081</v>
+        <v>930</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>819</v>
@@ -13296,7 +13295,7 @@
         <v>225</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J121" s="1">
         <v>68</v>
@@ -13364,10 +13363,10 @@
         <v>852</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>971</v>
+        <v>995</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>1081</v>
+        <v>930</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>819</v>
@@ -13376,7 +13375,7 @@
         <v>60</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J122" s="1">
         <v>182</v>
@@ -13447,7 +13446,7 @@
         <v>867</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>1095</v>
+        <v>944</v>
       </c>
       <c r="G123" s="1">
         <v>50</v>
@@ -13456,7 +13455,7 @@
         <v>45</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J123" s="1">
         <v>161</v>
@@ -13536,7 +13535,7 @@
         <v>45</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J124" s="1">
         <v>100</v>
@@ -13607,7 +13606,7 @@
         <v>869</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>1095</v>
+        <v>944</v>
       </c>
       <c r="G125" s="1">
         <v>0</v>
@@ -13616,7 +13615,7 @@
         <v>45</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J125" s="1">
         <v>159</v>
@@ -13687,7 +13686,7 @@
         <v>859</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>1095</v>
+        <v>944</v>
       </c>
       <c r="G126" s="1">
         <v>75</v>
@@ -13696,7 +13695,7 @@
         <v>45</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J126" s="1">
         <v>172</v>
@@ -13764,10 +13763,10 @@
         <v>819</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>972</v>
+        <v>996</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>1095</v>
+        <v>944</v>
       </c>
       <c r="G127" s="1">
         <v>75</v>
@@ -13776,7 +13775,7 @@
         <v>45</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J127" s="1">
         <v>173</v>
@@ -13844,7 +13843,7 @@
         <v>819</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>973</v>
+        <v>997</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>833</v>
@@ -13856,7 +13855,7 @@
         <v>45</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J128" s="1">
         <v>175</v>
@@ -13924,7 +13923,7 @@
         <v>819</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>974</v>
+        <v>998</v>
       </c>
       <c r="F129" s="3" t="s">
         <v>835</v>
@@ -13936,7 +13935,7 @@
         <v>45</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J129" s="1">
         <v>172</v>
@@ -14004,10 +14003,10 @@
         <v>819</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>975</v>
+        <v>999</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>1084</v>
+        <v>933</v>
       </c>
       <c r="G130" s="1">
         <v>50</v>
@@ -14016,7 +14015,7 @@
         <v>255</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J130" s="1">
         <v>40</v>
@@ -14087,7 +14086,7 @@
         <v>870</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>1084</v>
+        <v>933</v>
       </c>
       <c r="G131" s="1">
         <v>50</v>
@@ -14096,7 +14095,7 @@
         <v>45</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J131" s="1">
         <v>189</v>
@@ -14164,10 +14163,10 @@
         <v>853</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>976</v>
+        <v>1000</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>1078</v>
+        <v>927</v>
       </c>
       <c r="G132" s="1">
         <v>50</v>
@@ -14176,7 +14175,7 @@
         <v>45</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J132" s="1">
         <v>187</v>
@@ -14256,7 +14255,7 @@
         <v>35</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J133" s="1">
         <v>101</v>
@@ -14324,7 +14323,7 @@
         <v>819</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>977</v>
+        <v>1001</v>
       </c>
       <c r="F134" s="3" t="s">
         <v>835</v>
@@ -14336,7 +14335,7 @@
         <v>45</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J134" s="1">
         <v>65</v>
@@ -14404,7 +14403,7 @@
         <v>819</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>978</v>
+        <v>1002</v>
       </c>
       <c r="F135" s="3" t="s">
         <v>835</v>
@@ -14416,7 +14415,7 @@
         <v>45</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J135" s="1">
         <v>184</v>
@@ -14484,7 +14483,7 @@
         <v>819</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>979</v>
+        <v>1003</v>
       </c>
       <c r="F136" s="3" t="s">
         <v>835</v>
@@ -14496,7 +14495,7 @@
         <v>45</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J136" s="1">
         <v>184</v>
@@ -14564,7 +14563,7 @@
         <v>819</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>937</v>
+        <v>961</v>
       </c>
       <c r="F137" s="3" t="s">
         <v>835</v>
@@ -14576,7 +14575,7 @@
         <v>45</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J137" s="1">
         <v>184</v>
@@ -14656,7 +14655,7 @@
         <v>45</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J138" s="1">
         <v>79</v>
@@ -14724,10 +14723,10 @@
         <v>843</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>980</v>
+        <v>1004</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>1085</v>
+        <v>934</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>820</v>
@@ -14736,7 +14735,7 @@
         <v>45</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J139" s="1">
         <v>71</v>
@@ -14804,10 +14803,10 @@
         <v>843</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>980</v>
+        <v>1004</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>1085</v>
+        <v>934</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>820</v>
@@ -14816,7 +14815,7 @@
         <v>45</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J140" s="1">
         <v>173</v>
@@ -14884,10 +14883,10 @@
         <v>843</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>981</v>
+        <v>1005</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>1085</v>
+        <v>934</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>820</v>
@@ -14896,7 +14895,7 @@
         <v>45</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J141" s="1">
         <v>71</v>
@@ -14964,10 +14963,10 @@
         <v>843</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>981</v>
+        <v>1005</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>1085</v>
+        <v>934</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>820</v>
@@ -14976,7 +14975,7 @@
         <v>45</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J142" s="1">
         <v>173</v>
@@ -15044,7 +15043,7 @@
         <v>834</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>982</v>
+        <v>1006</v>
       </c>
       <c r="F143" s="3" t="s">
         <v>834</v>
@@ -15056,7 +15055,7 @@
         <v>45</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J143" s="1">
         <v>180</v>
@@ -15124,7 +15123,7 @@
         <v>819</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>983</v>
+        <v>1007</v>
       </c>
       <c r="F144" s="3" t="s">
         <v>832</v>
@@ -15136,7 +15135,7 @@
         <v>25</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J144" s="1">
         <v>189</v>
@@ -15216,7 +15215,7 @@
         <v>3</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J145" s="1">
         <v>261</v>
@@ -15296,7 +15295,7 @@
         <v>3</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J146" s="1">
         <v>261</v>
@@ -15376,7 +15375,7 @@
         <v>3</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J147" s="1">
         <v>261</v>
@@ -15444,10 +15443,10 @@
         <v>819</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>928</v>
+        <v>952</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>1082</v>
+        <v>931</v>
       </c>
       <c r="G148" s="1">
         <v>50</v>
@@ -15456,7 +15455,7 @@
         <v>45</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J148" s="1">
         <v>60</v>
@@ -15524,10 +15523,10 @@
         <v>819</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>928</v>
+        <v>952</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>1082</v>
+        <v>931</v>
       </c>
       <c r="G149" s="1">
         <v>50</v>
@@ -15536,7 +15535,7 @@
         <v>45</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J149" s="1">
         <v>147</v>
@@ -15604,10 +15603,10 @@
         <v>834</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>939</v>
+        <v>963</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>1082</v>
+        <v>931</v>
       </c>
       <c r="G150" s="1">
         <v>50</v>
@@ -15616,7 +15615,7 @@
         <v>45</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J150" s="1">
         <v>270</v>
@@ -15696,7 +15695,7 @@
         <v>3</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J151" s="1">
         <v>306</v>
@@ -15776,7 +15775,7 @@
         <v>45</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J152" s="1">
         <v>270</v>
@@ -15856,7 +15855,7 @@
         <v>45</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J153" s="1">
         <v>64</v>
@@ -15936,7 +15935,7 @@
         <v>45</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J154" s="1">
         <v>142</v>
@@ -16016,7 +16015,7 @@
         <v>45</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J155" s="1">
         <v>236</v>
@@ -16096,7 +16095,7 @@
         <v>45</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J156" s="1">
         <v>62</v>
@@ -16176,7 +16175,7 @@
         <v>45</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J157" s="1">
         <v>142</v>
@@ -16256,7 +16255,7 @@
         <v>45</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J158" s="1">
         <v>240</v>
@@ -16327,7 +16326,7 @@
         <v>857</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>1078</v>
+        <v>927</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>820</v>
@@ -16336,7 +16335,7 @@
         <v>45</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J159" s="1">
         <v>63</v>
@@ -16407,7 +16406,7 @@
         <v>857</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>1078</v>
+        <v>927</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>820</v>
@@ -16416,7 +16415,7 @@
         <v>45</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J160" s="1">
         <v>142</v>
@@ -16487,7 +16486,7 @@
         <v>857</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>1078</v>
+        <v>927</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>820</v>
@@ -16496,7 +16495,7 @@
         <v>45</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J161" s="1">
         <v>239</v>
@@ -16564,7 +16563,7 @@
         <v>819</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>984</v>
+        <v>1008</v>
       </c>
       <c r="F162" s="3" t="s">
         <v>835</v>
@@ -16576,7 +16575,7 @@
         <v>255</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J162" s="1">
         <v>43</v>
@@ -16644,7 +16643,7 @@
         <v>819</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>984</v>
+        <v>1008</v>
       </c>
       <c r="F163" s="3" t="s">
         <v>835</v>
@@ -16656,7 +16655,7 @@
         <v>90</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J163" s="1">
         <v>145</v>
@@ -16724,7 +16723,7 @@
         <v>834</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>985</v>
+        <v>1009</v>
       </c>
       <c r="F164" s="3" t="s">
         <v>834</v>
@@ -16736,7 +16735,7 @@
         <v>255</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J164" s="1">
         <v>52</v>
@@ -16804,7 +16803,7 @@
         <v>834</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>985</v>
+        <v>1009</v>
       </c>
       <c r="F165" s="3" t="s">
         <v>834</v>
@@ -16816,7 +16815,7 @@
         <v>90</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J165" s="1">
         <v>158</v>
@@ -16884,7 +16883,7 @@
         <v>834</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>986</v>
+        <v>1010</v>
       </c>
       <c r="F166" s="3" t="s">
         <v>833</v>
@@ -16896,7 +16895,7 @@
         <v>255</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>1098</v>
+        <v>947</v>
       </c>
       <c r="J166" s="1">
         <v>53</v>
@@ -16964,7 +16963,7 @@
         <v>834</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>986</v>
+        <v>1010</v>
       </c>
       <c r="F167" s="3" t="s">
         <v>833</v>
@@ -16976,7 +16975,7 @@
         <v>90</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>1098</v>
+        <v>947</v>
       </c>
       <c r="J167" s="1">
         <v>137</v>
@@ -17056,7 +17055,7 @@
         <v>255</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>1098</v>
+        <v>947</v>
       </c>
       <c r="J168" s="1">
         <v>50</v>
@@ -17136,7 +17135,7 @@
         <v>90</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>1098</v>
+        <v>947</v>
       </c>
       <c r="J169" s="1">
         <v>140</v>
@@ -17204,7 +17203,7 @@
         <v>834</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>939</v>
+        <v>963</v>
       </c>
       <c r="F170" s="3" t="s">
         <v>834</v>
@@ -17216,7 +17215,7 @@
         <v>90</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J170" s="1">
         <v>241</v>
@@ -17284,10 +17283,10 @@
         <v>851</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>987</v>
+        <v>1011</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>1083</v>
+        <v>932</v>
       </c>
       <c r="G171" s="1">
         <v>50</v>
@@ -17296,7 +17295,7 @@
         <v>190</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J171" s="1">
         <v>66</v>
@@ -17364,10 +17363,10 @@
         <v>851</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>987</v>
+        <v>1011</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>1083</v>
+        <v>932</v>
       </c>
       <c r="G172" s="1">
         <v>50</v>
@@ -17376,7 +17375,7 @@
         <v>75</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J172" s="1">
         <v>161</v>
@@ -17456,7 +17455,7 @@
         <v>190</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J173" s="1">
         <v>41</v>
@@ -17524,7 +17523,7 @@
         <v>819</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>936</v>
+        <v>960</v>
       </c>
       <c r="F174" s="3" t="s">
         <v>836</v>
@@ -17536,7 +17535,7 @@
         <v>150</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>1098</v>
+        <v>947</v>
       </c>
       <c r="J174" s="1">
         <v>44</v>
@@ -17604,7 +17603,7 @@
         <v>819</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>938</v>
+        <v>962</v>
       </c>
       <c r="F175" s="3" t="s">
         <v>836</v>
@@ -17616,7 +17615,7 @@
         <v>170</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>1098</v>
+        <v>947</v>
       </c>
       <c r="J175" s="1">
         <v>42</v>
@@ -17684,7 +17683,7 @@
         <v>819</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>988</v>
+        <v>1012</v>
       </c>
       <c r="F176" s="3" t="s">
         <v>836</v>
@@ -17696,7 +17695,7 @@
         <v>190</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>1098</v>
+        <v>947</v>
       </c>
       <c r="J176" s="1">
         <v>49</v>
@@ -17764,7 +17763,7 @@
         <v>834</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>988</v>
+        <v>1012</v>
       </c>
       <c r="F177" s="3" t="s">
         <v>917</v>
@@ -17776,7 +17775,7 @@
         <v>75</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>1098</v>
+        <v>947</v>
       </c>
       <c r="J177" s="1">
         <v>142</v>
@@ -17844,7 +17843,7 @@
         <v>834</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>989</v>
+        <v>1013</v>
       </c>
       <c r="F178" s="3" t="s">
         <v>834</v>
@@ -17856,7 +17855,7 @@
         <v>190</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J178" s="1">
         <v>64</v>
@@ -17924,7 +17923,7 @@
         <v>834</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>989</v>
+        <v>1013</v>
       </c>
       <c r="F179" s="3" t="s">
         <v>834</v>
@@ -17936,7 +17935,7 @@
         <v>75</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J179" s="1">
         <v>165</v>
@@ -18016,7 +18015,7 @@
         <v>235</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J180" s="1">
         <v>56</v>
@@ -18096,7 +18095,7 @@
         <v>120</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J181" s="1">
         <v>128</v>
@@ -18176,7 +18175,7 @@
         <v>45</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J182" s="1">
         <v>230</v>
@@ -18256,7 +18255,7 @@
         <v>45</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J183" s="1">
         <v>221</v>
@@ -18324,10 +18323,10 @@
         <v>819</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>990</v>
+        <v>1014</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>1086</v>
+        <v>935</v>
       </c>
       <c r="G184" s="1">
         <v>50</v>
@@ -18336,7 +18335,7 @@
         <v>190</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>1098</v>
+        <v>947</v>
       </c>
       <c r="J184" s="1">
         <v>88</v>
@@ -18404,10 +18403,10 @@
         <v>819</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>990</v>
+        <v>1014</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>1086</v>
+        <v>935</v>
       </c>
       <c r="G185" s="1">
         <v>50</v>
@@ -18416,7 +18415,7 @@
         <v>75</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>1098</v>
+        <v>947</v>
       </c>
       <c r="J185" s="1">
         <v>189</v>
@@ -18484,7 +18483,7 @@
         <v>819</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>991</v>
+        <v>1015</v>
       </c>
       <c r="F186" s="3" t="s">
         <v>839</v>
@@ -18496,7 +18495,7 @@
         <v>65</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J186" s="1">
         <v>144</v>
@@ -18564,10 +18563,10 @@
         <v>819</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>947</v>
+        <v>971</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>1080</v>
+        <v>929</v>
       </c>
       <c r="G187" s="1">
         <v>50</v>
@@ -18576,7 +18575,7 @@
         <v>45</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J187" s="1">
         <v>225</v>
@@ -18644,7 +18643,7 @@
         <v>834</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>966</v>
+        <v>990</v>
       </c>
       <c r="F188" s="3" t="s">
         <v>918</v>
@@ -18656,7 +18655,7 @@
         <v>255</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J188" s="1">
         <v>50</v>
@@ -18724,7 +18723,7 @@
         <v>834</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>966</v>
+        <v>990</v>
       </c>
       <c r="F189" s="3" t="s">
         <v>918</v>
@@ -18736,7 +18735,7 @@
         <v>120</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J189" s="1">
         <v>119</v>
@@ -18804,7 +18803,7 @@
         <v>834</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>966</v>
+        <v>990</v>
       </c>
       <c r="F190" s="3" t="s">
         <v>918</v>
@@ -18816,7 +18815,7 @@
         <v>45</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J190" s="1">
         <v>207</v>
@@ -18884,7 +18883,7 @@
         <v>819</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>992</v>
+        <v>1016</v>
       </c>
       <c r="F191" s="3" t="s">
         <v>835</v>
@@ -18896,7 +18895,7 @@
         <v>45</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>1098</v>
+        <v>947</v>
       </c>
       <c r="J191" s="1">
         <v>72</v>
@@ -18964,7 +18963,7 @@
         <v>819</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>993</v>
+        <v>1017</v>
       </c>
       <c r="F192" s="3" t="s">
         <v>838</v>
@@ -18976,7 +18975,7 @@
         <v>235</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J192" s="1">
         <v>36</v>
@@ -19044,7 +19043,7 @@
         <v>819</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>993</v>
+        <v>1017</v>
       </c>
       <c r="F193" s="3" t="s">
         <v>838</v>
@@ -19056,7 +19055,7 @@
         <v>120</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J193" s="1">
         <v>149</v>
@@ -19124,7 +19123,7 @@
         <v>834</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>994</v>
+        <v>1018</v>
       </c>
       <c r="F194" s="3" t="s">
         <v>833</v>
@@ -19136,7 +19135,7 @@
         <v>75</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J194" s="1">
         <v>78</v>
@@ -19204,10 +19203,10 @@
         <v>848</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>995</v>
+        <v>1019</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>1079</v>
+        <v>928</v>
       </c>
       <c r="G195" s="1">
         <v>50</v>
@@ -19216,7 +19215,7 @@
         <v>255</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J195" s="1">
         <v>42</v>
@@ -19284,10 +19283,10 @@
         <v>848</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>995</v>
+        <v>1019</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>1079</v>
+        <v>928</v>
       </c>
       <c r="G196" s="1">
         <v>50</v>
@@ -19296,7 +19295,7 @@
         <v>90</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J196" s="1">
         <v>151</v>
@@ -19376,7 +19375,7 @@
         <v>45</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J197" s="1">
         <v>184</v>
@@ -19456,7 +19455,7 @@
         <v>45</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J198" s="1">
         <v>184</v>
@@ -19524,7 +19523,7 @@
         <v>834</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>996</v>
+        <v>1020</v>
       </c>
       <c r="F199" s="3" t="s">
         <v>834</v>
@@ -19536,7 +19535,7 @@
         <v>30</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J199" s="1">
         <v>81</v>
@@ -19604,10 +19603,10 @@
         <v>852</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>953</v>
+        <v>977</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>1078</v>
+        <v>927</v>
       </c>
       <c r="G200" s="1">
         <v>50</v>
@@ -19616,7 +19615,7 @@
         <v>70</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J200" s="1">
         <v>172</v>
@@ -19696,7 +19695,7 @@
         <v>45</v>
       </c>
       <c r="I201" s="1" t="s">
-        <v>1098</v>
+        <v>947</v>
       </c>
       <c r="J201" s="1">
         <v>87</v>
@@ -19776,7 +19775,7 @@
         <v>225</v>
       </c>
       <c r="I202" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J202" s="1">
         <v>118</v>
@@ -19844,7 +19843,7 @@
         <v>819</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>997</v>
+        <v>1021</v>
       </c>
       <c r="F203" s="3" t="s">
         <v>840</v>
@@ -19856,7 +19855,7 @@
         <v>45</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J203" s="1">
         <v>142</v>
@@ -19924,7 +19923,7 @@
         <v>852</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>998</v>
+        <v>1022</v>
       </c>
       <c r="F204" s="3" t="s">
         <v>835</v>
@@ -19936,7 +19935,7 @@
         <v>60</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J204" s="1">
         <v>159</v>
@@ -20016,7 +20015,7 @@
         <v>190</v>
       </c>
       <c r="I205" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J205" s="1">
         <v>58</v>
@@ -20096,7 +20095,7 @@
         <v>75</v>
       </c>
       <c r="I206" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J206" s="1">
         <v>163</v>
@@ -20164,7 +20163,7 @@
         <v>819</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>999</v>
+        <v>1023</v>
       </c>
       <c r="F207" s="3" t="s">
         <v>835</v>
@@ -20176,7 +20175,7 @@
         <v>190</v>
       </c>
       <c r="I207" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J207" s="1">
         <v>145</v>
@@ -20244,7 +20243,7 @@
         <v>834</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>1000</v>
+        <v>1024</v>
       </c>
       <c r="F208" s="3" t="s">
         <v>833</v>
@@ -20256,7 +20255,7 @@
         <v>60</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J208" s="1">
         <v>86</v>
@@ -20324,7 +20323,7 @@
         <v>848</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>951</v>
+        <v>975</v>
       </c>
       <c r="F209" s="3" t="s">
         <v>839</v>
@@ -20336,7 +20335,7 @@
         <v>25</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J209" s="1">
         <v>179</v>
@@ -20404,7 +20403,7 @@
         <v>819</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>1001</v>
+        <v>1025</v>
       </c>
       <c r="F210" s="3" t="s">
         <v>913</v>
@@ -20416,7 +20415,7 @@
         <v>190</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>1098</v>
+        <v>947</v>
       </c>
       <c r="J210" s="1">
         <v>60</v>
@@ -20484,7 +20483,7 @@
         <v>819</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>1002</v>
+        <v>1026</v>
       </c>
       <c r="F211" s="3" t="s">
         <v>913</v>
@@ -20496,7 +20495,7 @@
         <v>75</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>1098</v>
+        <v>947</v>
       </c>
       <c r="J211" s="1">
         <v>158</v>
@@ -20564,10 +20563,10 @@
         <v>844</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>1003</v>
+        <v>1027</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>1083</v>
+        <v>932</v>
       </c>
       <c r="G212" s="1">
         <v>50</v>
@@ -20576,7 +20575,7 @@
         <v>45</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J212" s="1">
         <v>88</v>
@@ -20656,7 +20655,7 @@
         <v>25</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J213" s="1">
         <v>175</v>
@@ -20736,7 +20735,7 @@
         <v>190</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J214" s="1">
         <v>177</v>
@@ -20816,7 +20815,7 @@
         <v>45</v>
       </c>
       <c r="I215" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J215" s="1">
         <v>175</v>
@@ -20884,7 +20883,7 @@
         <v>853</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>1004</v>
+        <v>1028</v>
       </c>
       <c r="F216" s="3" t="s">
         <v>835</v>
@@ -20896,7 +20895,7 @@
         <v>60</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J216" s="1">
         <v>86</v>
@@ -20964,7 +20963,7 @@
         <v>819</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>1005</v>
+        <v>1029</v>
       </c>
       <c r="F217" s="3" t="s">
         <v>835</v>
@@ -20976,7 +20975,7 @@
         <v>120</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J217" s="1">
         <v>66</v>
@@ -21044,7 +21043,7 @@
         <v>819</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>1006</v>
+        <v>1030</v>
       </c>
       <c r="F218" s="3" t="s">
         <v>835</v>
@@ -21056,7 +21055,7 @@
         <v>60</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J218" s="1">
         <v>175</v>
@@ -21124,7 +21123,7 @@
         <v>819</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>1007</v>
+        <v>1031</v>
       </c>
       <c r="F219" s="3" t="s">
         <v>840</v>
@@ -21136,7 +21135,7 @@
         <v>190</v>
       </c>
       <c r="I219" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J219" s="1">
         <v>50</v>
@@ -21204,7 +21203,7 @@
         <v>849</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>1007</v>
+        <v>1031</v>
       </c>
       <c r="F220" s="3" t="s">
         <v>840</v>
@@ -21216,7 +21215,7 @@
         <v>75</v>
       </c>
       <c r="I220" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J220" s="1">
         <v>151</v>
@@ -21284,7 +21283,7 @@
         <v>848</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>1008</v>
+        <v>1032</v>
       </c>
       <c r="F221" s="3" t="s">
         <v>835</v>
@@ -21296,7 +21295,7 @@
         <v>225</v>
       </c>
       <c r="I221" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J221" s="1">
         <v>50</v>
@@ -21364,7 +21363,7 @@
         <v>848</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>1008</v>
+        <v>1032</v>
       </c>
       <c r="F222" s="3" t="s">
         <v>835</v>
@@ -21376,7 +21375,7 @@
         <v>75</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J222" s="1">
         <v>158</v>
@@ -21444,10 +21443,10 @@
         <v>849</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>1009</v>
+        <v>1033</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>1085</v>
+        <v>934</v>
       </c>
       <c r="G223" s="1">
         <v>25</v>
@@ -21456,7 +21455,7 @@
         <v>60</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>1098</v>
+        <v>947</v>
       </c>
       <c r="J223" s="1">
         <v>144</v>
@@ -21527,7 +21526,7 @@
         <v>879</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>1087</v>
+        <v>936</v>
       </c>
       <c r="G224" s="1">
         <v>50</v>
@@ -21536,7 +21535,7 @@
         <v>190</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J224" s="1">
         <v>60</v>
@@ -21604,10 +21603,10 @@
         <v>819</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>1010</v>
+        <v>1034</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>1087</v>
+        <v>936</v>
       </c>
       <c r="G225" s="1">
         <v>50</v>
@@ -21616,7 +21615,7 @@
         <v>75</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J225" s="1">
         <v>168</v>
@@ -21684,10 +21683,10 @@
         <v>834</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>1011</v>
+        <v>1035</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>1079</v>
+        <v>928</v>
       </c>
       <c r="G226" s="1">
         <v>50</v>
@@ -21696,7 +21695,7 @@
         <v>45</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>1098</v>
+        <v>947</v>
       </c>
       <c r="J226" s="1">
         <v>116</v>
@@ -21764,10 +21763,10 @@
         <v>834</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>1012</v>
+        <v>1036</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>1080</v>
+        <v>929</v>
       </c>
       <c r="G227" s="1">
         <v>50</v>
@@ -21776,7 +21775,7 @@
         <v>25</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J227" s="1">
         <v>170</v>
@@ -21844,7 +21843,7 @@
         <v>834</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>1013</v>
+        <v>1037</v>
       </c>
       <c r="F228" s="3" t="s">
         <v>834</v>
@@ -21856,7 +21855,7 @@
         <v>25</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J228" s="1">
         <v>163</v>
@@ -21924,7 +21923,7 @@
         <v>842</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>1014</v>
+        <v>1038</v>
       </c>
       <c r="F229" s="3" t="s">
         <v>835</v>
@@ -21936,7 +21935,7 @@
         <v>120</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J229" s="1">
         <v>66</v>
@@ -22004,7 +22003,7 @@
         <v>842</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>1014</v>
+        <v>1038</v>
       </c>
       <c r="F230" s="3" t="s">
         <v>835</v>
@@ -22016,7 +22015,7 @@
         <v>45</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J230" s="1">
         <v>175</v>
@@ -22084,10 +22083,10 @@
         <v>841</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>968</v>
+        <v>992</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>1082</v>
+        <v>931</v>
       </c>
       <c r="G231" s="1">
         <v>50</v>
@@ -22096,7 +22095,7 @@
         <v>45</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J231" s="1">
         <v>243</v>
@@ -22176,7 +22175,7 @@
         <v>120</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J232" s="1">
         <v>66</v>
@@ -22256,7 +22255,7 @@
         <v>60</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J233" s="1">
         <v>175</v>
@@ -22336,7 +22335,7 @@
         <v>45</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J234" s="1">
         <v>180</v>
@@ -22416,7 +22415,7 @@
         <v>45</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J235" s="1">
         <v>163</v>
@@ -22484,7 +22483,7 @@
         <v>819</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>1015</v>
+        <v>1039</v>
       </c>
       <c r="F236" s="3" t="s">
         <v>835</v>
@@ -22496,7 +22495,7 @@
         <v>45</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>1098</v>
+        <v>947</v>
       </c>
       <c r="J236" s="1">
         <v>88</v>
@@ -22576,7 +22575,7 @@
         <v>75</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J237" s="1">
         <v>42</v>
@@ -22647,7 +22646,7 @@
         <v>883</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>1095</v>
+        <v>944</v>
       </c>
       <c r="G238" s="1">
         <v>100</v>
@@ -22656,7 +22655,7 @@
         <v>45</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J238" s="1">
         <v>159</v>
@@ -22736,7 +22735,7 @@
         <v>45</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J239" s="1">
         <v>61</v>
@@ -22816,7 +22815,7 @@
         <v>45</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J240" s="1">
         <v>72</v>
@@ -22884,7 +22883,7 @@
         <v>819</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>972</v>
+        <v>996</v>
       </c>
       <c r="F241" s="3" t="s">
         <v>836</v>
@@ -22896,7 +22895,7 @@
         <v>45</v>
       </c>
       <c r="I241" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J241" s="1">
         <v>73</v>
@@ -22964,7 +22963,7 @@
         <v>819</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>1016</v>
+        <v>1040</v>
       </c>
       <c r="F242" s="3" t="s">
         <v>835</v>
@@ -22976,7 +22975,7 @@
         <v>45</v>
       </c>
       <c r="I242" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J242" s="1">
         <v>172</v>
@@ -23044,7 +23043,7 @@
         <v>819</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>965</v>
+        <v>989</v>
       </c>
       <c r="F243" s="3" t="s">
         <v>837</v>
@@ -23056,7 +23055,7 @@
         <v>30</v>
       </c>
       <c r="I243" s="1" t="s">
-        <v>1098</v>
+        <v>947</v>
       </c>
       <c r="J243" s="1">
         <v>608</v>
@@ -23136,7 +23135,7 @@
         <v>3</v>
       </c>
       <c r="I244" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J244" s="1">
         <v>261</v>
@@ -23216,7 +23215,7 @@
         <v>3</v>
       </c>
       <c r="I245" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J245" s="1">
         <v>261</v>
@@ -23296,7 +23295,7 @@
         <v>3</v>
       </c>
       <c r="I246" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J246" s="1">
         <v>261</v>
@@ -23376,7 +23375,7 @@
         <v>45</v>
       </c>
       <c r="I247" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J247" s="1">
         <v>60</v>
@@ -23444,7 +23443,7 @@
         <v>848</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>928</v>
+        <v>952</v>
       </c>
       <c r="F248" s="3" t="s">
         <v>832</v>
@@ -23456,7 +23455,7 @@
         <v>45</v>
       </c>
       <c r="I248" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J248" s="1">
         <v>144</v>
@@ -23524,7 +23523,7 @@
         <v>854</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>1017</v>
+        <v>1041</v>
       </c>
       <c r="F249" s="3" t="s">
         <v>832</v>
@@ -23536,7 +23535,7 @@
         <v>45</v>
       </c>
       <c r="I249" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J249" s="1">
         <v>270</v>
@@ -23616,7 +23615,7 @@
         <v>3</v>
       </c>
       <c r="I250" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J250" s="1">
         <v>306</v>
@@ -23696,7 +23695,7 @@
         <v>3</v>
       </c>
       <c r="I251" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J251" s="1">
         <v>306</v>
@@ -23764,7 +23763,7 @@
         <v>838</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>1018</v>
+        <v>1042</v>
       </c>
       <c r="F252" s="3" t="s">
         <v>836</v>
@@ -23776,7 +23775,7 @@
         <v>45</v>
       </c>
       <c r="I252" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J252" s="1">
         <v>270</v>
@@ -23856,7 +23855,7 @@
         <v>45</v>
       </c>
       <c r="I253" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J253" s="1">
         <v>62</v>
@@ -23936,7 +23935,7 @@
         <v>45</v>
       </c>
       <c r="I254" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J254" s="1">
         <v>142</v>
@@ -24016,7 +24015,7 @@
         <v>45</v>
       </c>
       <c r="I255" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J255" s="1">
         <v>239</v>
@@ -24096,7 +24095,7 @@
         <v>45</v>
       </c>
       <c r="I256" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J256" s="1">
         <v>62</v>
@@ -24176,7 +24175,7 @@
         <v>45</v>
       </c>
       <c r="I257" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J257" s="1">
         <v>142</v>
@@ -24256,7 +24255,7 @@
         <v>45</v>
       </c>
       <c r="I258" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J258" s="1">
         <v>239</v>
@@ -24327,7 +24326,7 @@
         <v>857</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>1078</v>
+        <v>927</v>
       </c>
       <c r="G259" s="1" t="s">
         <v>820</v>
@@ -24336,7 +24335,7 @@
         <v>45</v>
       </c>
       <c r="I259" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J259" s="1">
         <v>62</v>
@@ -24407,7 +24406,7 @@
         <v>857</v>
       </c>
       <c r="F260" s="3" t="s">
-        <v>1078</v>
+        <v>927</v>
       </c>
       <c r="G260" s="1" t="s">
         <v>820</v>
@@ -24416,7 +24415,7 @@
         <v>45</v>
       </c>
       <c r="I260" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J260" s="1">
         <v>142</v>
@@ -24487,7 +24486,7 @@
         <v>857</v>
       </c>
       <c r="F261" s="3" t="s">
-        <v>1078</v>
+        <v>927</v>
       </c>
       <c r="G261" s="1" t="s">
         <v>820</v>
@@ -24496,7 +24495,7 @@
         <v>45</v>
       </c>
       <c r="I261" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J261" s="1">
         <v>241</v>
@@ -24564,7 +24563,7 @@
         <v>819</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>1019</v>
+        <v>1043</v>
       </c>
       <c r="F262" s="3" t="s">
         <v>835</v>
@@ -24576,7 +24575,7 @@
         <v>255</v>
       </c>
       <c r="I262" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J262" s="1">
         <v>56</v>
@@ -24644,7 +24643,7 @@
         <v>819</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>1002</v>
+        <v>1026</v>
       </c>
       <c r="F263" s="3" t="s">
         <v>835</v>
@@ -24656,7 +24655,7 @@
         <v>127</v>
       </c>
       <c r="I263" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J263" s="1">
         <v>147</v>
@@ -24736,7 +24735,7 @@
         <v>255</v>
       </c>
       <c r="I264" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J264" s="1">
         <v>56</v>
@@ -24816,7 +24815,7 @@
         <v>90</v>
       </c>
       <c r="I265" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J265" s="1">
         <v>147</v>
@@ -24884,7 +24883,7 @@
         <v>819</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>927</v>
+        <v>951</v>
       </c>
       <c r="F266" s="3" t="s">
         <v>833</v>
@@ -24896,7 +24895,7 @@
         <v>255</v>
       </c>
       <c r="I266" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J266" s="1">
         <v>56</v>
@@ -24964,7 +24963,7 @@
         <v>819</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>928</v>
+        <v>952</v>
       </c>
       <c r="F267" s="3" t="s">
         <v>833</v>
@@ -24976,7 +24975,7 @@
         <v>120</v>
       </c>
       <c r="I267" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J267" s="1">
         <v>72</v>
@@ -25056,7 +25055,7 @@
         <v>45</v>
       </c>
       <c r="I268" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J268" s="1">
         <v>178</v>
@@ -25124,7 +25123,7 @@
         <v>819</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>928</v>
+        <v>952</v>
       </c>
       <c r="F269" s="3" t="s">
         <v>833</v>
@@ -25136,7 +25135,7 @@
         <v>120</v>
       </c>
       <c r="I269" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J269" s="1">
         <v>72</v>
@@ -25204,7 +25203,7 @@
         <v>844</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>927</v>
+        <v>951</v>
       </c>
       <c r="F270" s="3" t="s">
         <v>833</v>
@@ -25216,7 +25215,7 @@
         <v>45</v>
       </c>
       <c r="I270" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J270" s="1">
         <v>173</v>
@@ -25284,10 +25283,10 @@
         <v>838</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>1020</v>
+        <v>1044</v>
       </c>
       <c r="F271" s="3" t="s">
-        <v>1088</v>
+        <v>937</v>
       </c>
       <c r="G271" s="1">
         <v>50</v>
@@ -25296,7 +25295,7 @@
         <v>255</v>
       </c>
       <c r="I271" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J271" s="1">
         <v>44</v>
@@ -25364,10 +25363,10 @@
         <v>838</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>1020</v>
+        <v>1044</v>
       </c>
       <c r="F272" s="3" t="s">
-        <v>1088</v>
+        <v>937</v>
       </c>
       <c r="G272" s="1">
         <v>50</v>
@@ -25376,7 +25375,7 @@
         <v>120</v>
       </c>
       <c r="I272" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J272" s="1">
         <v>119</v>
@@ -25444,10 +25443,10 @@
         <v>838</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>1020</v>
+        <v>1044</v>
       </c>
       <c r="F273" s="3" t="s">
-        <v>1088</v>
+        <v>937</v>
       </c>
       <c r="G273" s="1">
         <v>50</v>
@@ -25456,7 +25455,7 @@
         <v>45</v>
       </c>
       <c r="I273" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J273" s="1">
         <v>216</v>
@@ -25524,7 +25523,7 @@
         <v>819</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>1021</v>
+        <v>1045</v>
       </c>
       <c r="F274" s="3" t="s">
         <v>919</v>
@@ -25536,7 +25535,7 @@
         <v>255</v>
       </c>
       <c r="I274" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J274" s="1">
         <v>44</v>
@@ -25604,7 +25603,7 @@
         <v>854</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>1021</v>
+        <v>1045</v>
       </c>
       <c r="F275" s="3" t="s">
         <v>919</v>
@@ -25616,7 +25615,7 @@
         <v>120</v>
       </c>
       <c r="I275" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J275" s="1">
         <v>119</v>
@@ -25684,7 +25683,7 @@
         <v>854</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>1021</v>
+        <v>1045</v>
       </c>
       <c r="F276" s="3" t="s">
         <v>919</v>
@@ -25696,7 +25695,7 @@
         <v>45</v>
       </c>
       <c r="I276" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J276" s="1">
         <v>216</v>
@@ -25776,7 +25775,7 @@
         <v>200</v>
       </c>
       <c r="I277" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J277" s="1">
         <v>54</v>
@@ -25856,7 +25855,7 @@
         <v>45</v>
       </c>
       <c r="I278" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J278" s="1">
         <v>159</v>
@@ -25924,10 +25923,10 @@
         <v>834</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>1022</v>
+        <v>1046</v>
       </c>
       <c r="F279" s="3" t="s">
-        <v>1089</v>
+        <v>938</v>
       </c>
       <c r="G279" s="1">
         <v>50</v>
@@ -25936,7 +25935,7 @@
         <v>190</v>
       </c>
       <c r="I279" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J279" s="1">
         <v>54</v>
@@ -26004,10 +26003,10 @@
         <v>834</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>932</v>
+        <v>956</v>
       </c>
       <c r="F280" s="3" t="s">
-        <v>1089</v>
+        <v>938</v>
       </c>
       <c r="G280" s="1">
         <v>50</v>
@@ -26016,7 +26015,7 @@
         <v>45</v>
       </c>
       <c r="I280" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J280" s="1">
         <v>154</v>
@@ -26096,7 +26095,7 @@
         <v>235</v>
       </c>
       <c r="I281" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J281" s="1">
         <v>40</v>
@@ -26176,7 +26175,7 @@
         <v>120</v>
       </c>
       <c r="I282" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J282" s="1">
         <v>97</v>
@@ -26256,7 +26255,7 @@
         <v>45</v>
       </c>
       <c r="I283" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J283" s="1">
         <v>233</v>
@@ -26324,10 +26323,10 @@
         <v>843</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>975</v>
+        <v>999</v>
       </c>
       <c r="F284" s="3" t="s">
-        <v>1090</v>
+        <v>939</v>
       </c>
       <c r="G284" s="1">
         <v>50</v>
@@ -26336,7 +26335,7 @@
         <v>200</v>
       </c>
       <c r="I284" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J284" s="1">
         <v>54</v>
@@ -26407,7 +26406,7 @@
         <v>870</v>
       </c>
       <c r="F285" s="3" t="s">
-        <v>1090</v>
+        <v>939</v>
       </c>
       <c r="G285" s="1">
         <v>50</v>
@@ -26416,7 +26415,7 @@
         <v>75</v>
       </c>
       <c r="I285" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J285" s="1">
         <v>159</v>
@@ -26484,7 +26483,7 @@
         <v>819</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>1023</v>
+        <v>1047</v>
       </c>
       <c r="F286" s="3" t="s">
         <v>918</v>
@@ -26496,7 +26495,7 @@
         <v>255</v>
       </c>
       <c r="I286" s="1" t="s">
-        <v>1101</v>
+        <v>950</v>
       </c>
       <c r="J286" s="1">
         <v>59</v>
@@ -26564,7 +26563,7 @@
         <v>847</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>1023</v>
+        <v>1047</v>
       </c>
       <c r="F287" s="3" t="s">
         <v>918</v>
@@ -26576,7 +26575,7 @@
         <v>90</v>
       </c>
       <c r="I287" s="1" t="s">
-        <v>1101</v>
+        <v>950</v>
       </c>
       <c r="J287" s="1">
         <v>161</v>
@@ -26656,7 +26655,7 @@
         <v>255</v>
       </c>
       <c r="I288" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J288" s="1">
         <v>56</v>
@@ -26724,7 +26723,7 @@
         <v>819</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>1024</v>
+        <v>1048</v>
       </c>
       <c r="F289" s="3" t="s">
         <v>835</v>
@@ -26736,7 +26735,7 @@
         <v>120</v>
       </c>
       <c r="I289" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J289" s="1">
         <v>154</v>
@@ -26816,7 +26815,7 @@
         <v>45</v>
       </c>
       <c r="I290" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J290" s="1">
         <v>252</v>
@@ -26884,7 +26883,7 @@
         <v>848</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>929</v>
+        <v>953</v>
       </c>
       <c r="F291" s="3" t="s">
         <v>833</v>
@@ -26896,7 +26895,7 @@
         <v>255</v>
       </c>
       <c r="I291" s="1" t="s">
-        <v>1100</v>
+        <v>949</v>
       </c>
       <c r="J291" s="1">
         <v>53</v>
@@ -26964,7 +26963,7 @@
         <v>834</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>1025</v>
+        <v>1049</v>
       </c>
       <c r="F292" s="3" t="s">
         <v>833</v>
@@ -26976,7 +26975,7 @@
         <v>120</v>
       </c>
       <c r="I292" s="1" t="s">
-        <v>1100</v>
+        <v>949</v>
       </c>
       <c r="J292" s="1">
         <v>160</v>
@@ -27044,7 +27043,7 @@
         <v>850</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>1026</v>
+        <v>1050</v>
       </c>
       <c r="F293" s="3" t="s">
         <v>839</v>
@@ -27056,7 +27055,7 @@
         <v>45</v>
       </c>
       <c r="I293" s="1" t="s">
-        <v>1100</v>
+        <v>949</v>
       </c>
       <c r="J293" s="1">
         <v>83</v>
@@ -27136,7 +27135,7 @@
         <v>190</v>
       </c>
       <c r="I294" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J294" s="1">
         <v>48</v>
@@ -27216,7 +27215,7 @@
         <v>120</v>
       </c>
       <c r="I295" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J295" s="1">
         <v>126</v>
@@ -27296,7 +27295,7 @@
         <v>45</v>
       </c>
       <c r="I296" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J296" s="1">
         <v>221</v>
@@ -27364,10 +27363,10 @@
         <v>819</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>1027</v>
+        <v>1051</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>1095</v>
+        <v>944</v>
       </c>
       <c r="G297" s="1">
         <v>75</v>
@@ -27376,7 +27375,7 @@
         <v>180</v>
       </c>
       <c r="I297" s="1" t="s">
-        <v>1101</v>
+        <v>950</v>
       </c>
       <c r="J297" s="1">
         <v>47</v>
@@ -27444,10 +27443,10 @@
         <v>819</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>1027</v>
+        <v>1051</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>1095</v>
+        <v>944</v>
       </c>
       <c r="G298" s="1">
         <v>75</v>
@@ -27456,7 +27455,7 @@
         <v>200</v>
       </c>
       <c r="I298" s="1" t="s">
-        <v>1101</v>
+        <v>950</v>
       </c>
       <c r="J298" s="1">
         <v>166</v>
@@ -27524,7 +27523,7 @@
         <v>819</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>990</v>
+        <v>1014</v>
       </c>
       <c r="F299" s="3" t="s">
         <v>836</v>
@@ -27536,7 +27535,7 @@
         <v>150</v>
       </c>
       <c r="I299" s="1" t="s">
-        <v>1098</v>
+        <v>947</v>
       </c>
       <c r="J299" s="1">
         <v>38</v>
@@ -27604,7 +27603,7 @@
         <v>819</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>1028</v>
+        <v>1052</v>
       </c>
       <c r="F300" s="3" t="s">
         <v>839</v>
@@ -27616,7 +27615,7 @@
         <v>255</v>
       </c>
       <c r="I300" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J300" s="1">
         <v>75</v>
@@ -27684,7 +27683,7 @@
         <v>819</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>1029</v>
+        <v>1053</v>
       </c>
       <c r="F301" s="3" t="s">
         <v>913</v>
@@ -27696,7 +27695,7 @@
         <v>255</v>
       </c>
       <c r="I301" s="1" t="s">
-        <v>1098</v>
+        <v>947</v>
       </c>
       <c r="J301" s="1">
         <v>52</v>
@@ -27764,7 +27763,7 @@
         <v>819</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>1029</v>
+        <v>1053</v>
       </c>
       <c r="F302" s="3" t="s">
         <v>913</v>
@@ -27776,7 +27775,7 @@
         <v>60</v>
       </c>
       <c r="I302" s="1" t="s">
-        <v>1098</v>
+        <v>947</v>
       </c>
       <c r="J302" s="1">
         <v>140</v>
@@ -27844,10 +27843,10 @@
         <v>850</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>1030</v>
+        <v>1054</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>1095</v>
+        <v>944</v>
       </c>
       <c r="G303" s="1">
         <v>50</v>
@@ -27856,7 +27855,7 @@
         <v>45</v>
       </c>
       <c r="I303" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J303" s="1">
         <v>133</v>
@@ -27924,7 +27923,7 @@
         <v>819</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>1031</v>
+        <v>1055</v>
       </c>
       <c r="F304" s="3" t="s">
         <v>913</v>
@@ -27936,7 +27935,7 @@
         <v>45</v>
       </c>
       <c r="I304" s="1" t="s">
-        <v>1098</v>
+        <v>947</v>
       </c>
       <c r="J304" s="1">
         <v>133</v>
@@ -28004,7 +28003,7 @@
         <v>849</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>991</v>
+        <v>1015</v>
       </c>
       <c r="F305" s="3" t="s">
         <v>832</v>
@@ -28016,7 +28015,7 @@
         <v>180</v>
       </c>
       <c r="I305" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J305" s="1">
         <v>66</v>
@@ -28084,7 +28083,7 @@
         <v>849</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>991</v>
+        <v>1015</v>
       </c>
       <c r="F306" s="3" t="s">
         <v>832</v>
@@ -28096,7 +28095,7 @@
         <v>90</v>
       </c>
       <c r="I306" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J306" s="1">
         <v>151</v>
@@ -28164,7 +28163,7 @@
         <v>849</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>991</v>
+        <v>1015</v>
       </c>
       <c r="F307" s="3" t="s">
         <v>832</v>
@@ -28176,7 +28175,7 @@
         <v>45</v>
       </c>
       <c r="I307" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J307" s="1">
         <v>239</v>
@@ -28244,10 +28243,10 @@
         <v>852</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>1032</v>
+        <v>1056</v>
       </c>
       <c r="F308" s="3" t="s">
-        <v>1095</v>
+        <v>944</v>
       </c>
       <c r="G308" s="1">
         <v>50</v>
@@ -28256,7 +28255,7 @@
         <v>180</v>
       </c>
       <c r="I308" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J308" s="1">
         <v>56</v>
@@ -28324,10 +28323,10 @@
         <v>852</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>1032</v>
+        <v>1056</v>
       </c>
       <c r="F309" s="3" t="s">
-        <v>1095</v>
+        <v>944</v>
       </c>
       <c r="G309" s="1">
         <v>50</v>
@@ -28336,7 +28335,7 @@
         <v>90</v>
       </c>
       <c r="I309" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J309" s="1">
         <v>144</v>
@@ -28404,7 +28403,7 @@
         <v>819</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>1033</v>
+        <v>1057</v>
       </c>
       <c r="F310" s="3" t="s">
         <v>835</v>
@@ -28416,7 +28415,7 @@
         <v>120</v>
       </c>
       <c r="I310" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J310" s="1">
         <v>59</v>
@@ -28484,7 +28483,7 @@
         <v>819</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>1033</v>
+        <v>1057</v>
       </c>
       <c r="F311" s="3" t="s">
         <v>835</v>
@@ -28496,7 +28495,7 @@
         <v>45</v>
       </c>
       <c r="I311" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J311" s="1">
         <v>166</v>
@@ -28576,7 +28575,7 @@
         <v>200</v>
       </c>
       <c r="I312" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J312" s="1">
         <v>142</v>
@@ -28656,7 +28655,7 @@
         <v>200</v>
       </c>
       <c r="I313" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J313" s="1">
         <v>142</v>
@@ -28736,7 +28735,7 @@
         <v>150</v>
       </c>
       <c r="I314" s="1" t="s">
-        <v>1100</v>
+        <v>949</v>
       </c>
       <c r="J314" s="1">
         <v>151</v>
@@ -28804,7 +28803,7 @@
         <v>819</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>1034</v>
+        <v>1058</v>
       </c>
       <c r="F315" s="3" t="s">
         <v>920</v>
@@ -28816,7 +28815,7 @@
         <v>150</v>
       </c>
       <c r="I315" s="1" t="s">
-        <v>1101</v>
+        <v>950</v>
       </c>
       <c r="J315" s="1">
         <v>151</v>
@@ -28884,7 +28883,7 @@
         <v>844</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>1035</v>
+        <v>1059</v>
       </c>
       <c r="F316" s="3" t="s">
         <v>918</v>
@@ -28896,7 +28895,7 @@
         <v>150</v>
       </c>
       <c r="I316" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J316" s="1">
         <v>140</v>
@@ -28964,7 +28963,7 @@
         <v>819</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>1036</v>
+        <v>1060</v>
       </c>
       <c r="F317" s="3" t="s">
         <v>840</v>
@@ -28976,7 +28975,7 @@
         <v>225</v>
       </c>
       <c r="I317" s="1" t="s">
-        <v>1101</v>
+        <v>950</v>
       </c>
       <c r="J317" s="1">
         <v>60</v>
@@ -29044,7 +29043,7 @@
         <v>819</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>1036</v>
+        <v>1060</v>
       </c>
       <c r="F318" s="3" t="s">
         <v>840</v>
@@ -29056,7 +29055,7 @@
         <v>75</v>
       </c>
       <c r="I318" s="1" t="s">
-        <v>1101</v>
+        <v>950</v>
       </c>
       <c r="J318" s="1">
         <v>163</v>
@@ -29124,10 +29123,10 @@
         <v>854</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>1037</v>
+        <v>1061</v>
       </c>
       <c r="F319" s="3" t="s">
-        <v>1083</v>
+        <v>932</v>
       </c>
       <c r="G319" s="1">
         <v>50</v>
@@ -29136,7 +29135,7 @@
         <v>225</v>
       </c>
       <c r="I319" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J319" s="1">
         <v>61</v>
@@ -29204,10 +29203,10 @@
         <v>854</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>1037</v>
+        <v>1061</v>
       </c>
       <c r="F320" s="3" t="s">
-        <v>1083</v>
+        <v>932</v>
       </c>
       <c r="G320" s="1">
         <v>50</v>
@@ -29216,7 +29215,7 @@
         <v>60</v>
       </c>
       <c r="I320" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J320" s="1">
         <v>161</v>
@@ -29284,10 +29283,10 @@
         <v>819</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>1038</v>
+        <v>1062</v>
       </c>
       <c r="F321" s="3" t="s">
-        <v>1091</v>
+        <v>940</v>
       </c>
       <c r="G321" s="1">
         <v>50</v>
@@ -29296,7 +29295,7 @@
         <v>125</v>
       </c>
       <c r="I321" s="1" t="s">
-        <v>1101</v>
+        <v>950</v>
       </c>
       <c r="J321" s="1">
         <v>80</v>
@@ -29364,10 +29363,10 @@
         <v>819</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>1038</v>
+        <v>1062</v>
       </c>
       <c r="F322" s="3" t="s">
-        <v>1091</v>
+        <v>940</v>
       </c>
       <c r="G322" s="1">
         <v>50</v>
@@ -29376,7 +29375,7 @@
         <v>60</v>
       </c>
       <c r="I322" s="1" t="s">
-        <v>1101</v>
+        <v>950</v>
       </c>
       <c r="J322" s="1">
         <v>175</v>
@@ -29456,7 +29455,7 @@
         <v>255</v>
       </c>
       <c r="I323" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J323" s="1">
         <v>61</v>
@@ -29524,7 +29523,7 @@
         <v>848</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>1039</v>
+        <v>1063</v>
       </c>
       <c r="F324" s="3" t="s">
         <v>835</v>
@@ -29536,7 +29535,7 @@
         <v>150</v>
       </c>
       <c r="I324" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J324" s="1">
         <v>161</v>
@@ -29604,7 +29603,7 @@
         <v>819</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>1040</v>
+        <v>1064</v>
       </c>
       <c r="F325" s="3" t="s">
         <v>835</v>
@@ -29616,7 +29615,7 @@
         <v>90</v>
       </c>
       <c r="I325" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J325" s="1">
         <v>165</v>
@@ -29684,7 +29683,7 @@
         <v>819</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>1041</v>
+        <v>1065</v>
       </c>
       <c r="F326" s="3" t="s">
         <v>835</v>
@@ -29696,7 +29695,7 @@
         <v>255</v>
       </c>
       <c r="I326" s="1" t="s">
-        <v>1098</v>
+        <v>947</v>
       </c>
       <c r="J326" s="1">
         <v>66</v>
@@ -29764,7 +29763,7 @@
         <v>819</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>1041</v>
+        <v>1065</v>
       </c>
       <c r="F327" s="3" t="s">
         <v>835</v>
@@ -29776,7 +29775,7 @@
         <v>60</v>
       </c>
       <c r="I327" s="1" t="s">
-        <v>1098</v>
+        <v>947</v>
       </c>
       <c r="J327" s="1">
         <v>165</v>
@@ -29844,7 +29843,7 @@
         <v>819</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>1042</v>
+        <v>1066</v>
       </c>
       <c r="F328" s="3" t="s">
         <v>921</v>
@@ -29856,7 +29855,7 @@
         <v>255</v>
       </c>
       <c r="I328" s="1" t="s">
-        <v>1098</v>
+        <v>947</v>
       </c>
       <c r="J328" s="1">
         <v>126</v>
@@ -29924,7 +29923,7 @@
         <v>819</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>1043</v>
+        <v>1067</v>
       </c>
       <c r="F329" s="3" t="s">
         <v>833</v>
@@ -29936,7 +29935,7 @@
         <v>255</v>
       </c>
       <c r="I329" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J329" s="1">
         <v>58</v>
@@ -30016,7 +30015,7 @@
         <v>120</v>
       </c>
       <c r="I330" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J330" s="1">
         <v>119</v>
@@ -30096,7 +30095,7 @@
         <v>45</v>
       </c>
       <c r="I331" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J331" s="1">
         <v>234</v>
@@ -30164,7 +30163,7 @@
         <v>819</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>934</v>
+        <v>958</v>
       </c>
       <c r="F332" s="3" t="s">
         <v>922</v>
@@ -30176,7 +30175,7 @@
         <v>190</v>
       </c>
       <c r="I332" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J332" s="1">
         <v>67</v>
@@ -30244,7 +30243,7 @@
         <v>854</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>934</v>
+        <v>958</v>
       </c>
       <c r="F333" s="3" t="s">
         <v>922</v>
@@ -30256,7 +30255,7 @@
         <v>60</v>
       </c>
       <c r="I333" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J333" s="1">
         <v>166</v>
@@ -30324,7 +30323,7 @@
         <v>834</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>1018</v>
+        <v>1042</v>
       </c>
       <c r="F334" s="3" t="s">
         <v>923</v>
@@ -30336,7 +30335,7 @@
         <v>255</v>
       </c>
       <c r="I334" s="1" t="s">
-        <v>1100</v>
+        <v>949</v>
       </c>
       <c r="J334" s="1">
         <v>62</v>
@@ -30404,7 +30403,7 @@
         <v>834</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>1018</v>
+        <v>1042</v>
       </c>
       <c r="F335" s="3" t="s">
         <v>923</v>
@@ -30416,7 +30415,7 @@
         <v>45</v>
       </c>
       <c r="I335" s="1" t="s">
-        <v>1100</v>
+        <v>949</v>
       </c>
       <c r="J335" s="1">
         <v>172</v>
@@ -30496,7 +30495,7 @@
         <v>90</v>
       </c>
       <c r="I336" s="1" t="s">
-        <v>1100</v>
+        <v>949</v>
       </c>
       <c r="J336" s="1">
         <v>160</v>
@@ -30564,7 +30563,7 @@
         <v>819</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>928</v>
+        <v>952</v>
       </c>
       <c r="F337" s="3" t="s">
         <v>912</v>
@@ -30576,7 +30575,7 @@
         <v>90</v>
       </c>
       <c r="I337" s="1" t="s">
-        <v>1101</v>
+        <v>950</v>
       </c>
       <c r="J337" s="1">
         <v>160</v>
@@ -30656,7 +30655,7 @@
         <v>45</v>
       </c>
       <c r="I338" s="1" t="s">
-        <v>1098</v>
+        <v>947</v>
       </c>
       <c r="J338" s="1">
         <v>161</v>
@@ -30736,7 +30735,7 @@
         <v>45</v>
       </c>
       <c r="I339" s="1" t="s">
-        <v>1098</v>
+        <v>947</v>
       </c>
       <c r="J339" s="1">
         <v>161</v>
@@ -30807,7 +30806,7 @@
         <v>894</v>
       </c>
       <c r="F340" s="3" t="s">
-        <v>1083</v>
+        <v>932</v>
       </c>
       <c r="G340" s="1">
         <v>50</v>
@@ -30816,7 +30815,7 @@
         <v>190</v>
       </c>
       <c r="I340" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J340" s="1">
         <v>58</v>
@@ -30887,7 +30886,7 @@
         <v>894</v>
       </c>
       <c r="F341" s="3" t="s">
-        <v>1083</v>
+        <v>932</v>
       </c>
       <c r="G341" s="1">
         <v>50</v>
@@ -30896,7 +30895,7 @@
         <v>75</v>
       </c>
       <c r="I341" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J341" s="1">
         <v>164</v>
@@ -30964,10 +30963,10 @@
         <v>819</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>960</v>
+        <v>984</v>
       </c>
       <c r="F342" s="3" t="s">
-        <v>1085</v>
+        <v>934</v>
       </c>
       <c r="G342" s="1">
         <v>50</v>
@@ -30976,7 +30975,7 @@
         <v>205</v>
       </c>
       <c r="I342" s="1" t="s">
-        <v>1101</v>
+        <v>950</v>
       </c>
       <c r="J342" s="1">
         <v>62</v>
@@ -31044,10 +31043,10 @@
         <v>854</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>960</v>
+        <v>984</v>
       </c>
       <c r="F343" s="3" t="s">
-        <v>1085</v>
+        <v>934</v>
       </c>
       <c r="G343" s="1">
         <v>50</v>
@@ -31056,7 +31055,7 @@
         <v>155</v>
       </c>
       <c r="I343" s="1" t="s">
-        <v>1101</v>
+        <v>950</v>
       </c>
       <c r="J343" s="1">
         <v>164</v>
@@ -31136,7 +31135,7 @@
         <v>255</v>
       </c>
       <c r="I344" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J344" s="1">
         <v>60</v>
@@ -31216,7 +31215,7 @@
         <v>90</v>
       </c>
       <c r="I345" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J345" s="1">
         <v>175</v>
@@ -31284,10 +31283,10 @@
         <v>838</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>1044</v>
+        <v>1068</v>
       </c>
       <c r="F346" s="3" t="s">
-        <v>1081</v>
+        <v>930</v>
       </c>
       <c r="G346" s="1" t="s">
         <v>820</v>
@@ -31296,7 +31295,7 @@
         <v>45</v>
       </c>
       <c r="I346" s="1" t="s">
-        <v>1100</v>
+        <v>949</v>
       </c>
       <c r="J346" s="1">
         <v>71</v>
@@ -31364,10 +31363,10 @@
         <v>838</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>1044</v>
+        <v>1068</v>
       </c>
       <c r="F347" s="3" t="s">
-        <v>1081</v>
+        <v>930</v>
       </c>
       <c r="G347" s="1" t="s">
         <v>820</v>
@@ -31376,7 +31375,7 @@
         <v>45</v>
       </c>
       <c r="I347" s="1" t="s">
-        <v>1100</v>
+        <v>949</v>
       </c>
       <c r="J347" s="1">
         <v>173</v>
@@ -31444,10 +31443,10 @@
         <v>833</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>1045</v>
+        <v>1069</v>
       </c>
       <c r="F348" s="3" t="s">
-        <v>1081</v>
+        <v>930</v>
       </c>
       <c r="G348" s="1" t="s">
         <v>820</v>
@@ -31456,7 +31455,7 @@
         <v>45</v>
       </c>
       <c r="I348" s="1" t="s">
-        <v>1100</v>
+        <v>949</v>
       </c>
       <c r="J348" s="1">
         <v>71</v>
@@ -31524,10 +31523,10 @@
         <v>833</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>1045</v>
+        <v>1069</v>
       </c>
       <c r="F349" s="3" t="s">
-        <v>1081</v>
+        <v>930</v>
       </c>
       <c r="G349" s="1" t="s">
         <v>820</v>
@@ -31536,7 +31535,7 @@
         <v>45</v>
       </c>
       <c r="I349" s="1" t="s">
-        <v>1100</v>
+        <v>949</v>
       </c>
       <c r="J349" s="1">
         <v>173</v>
@@ -31604,10 +31603,10 @@
         <v>819</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>1046</v>
+        <v>1070</v>
       </c>
       <c r="F350" s="3" t="s">
-        <v>1082</v>
+        <v>931</v>
       </c>
       <c r="G350" s="1">
         <v>50</v>
@@ -31616,7 +31615,7 @@
         <v>255</v>
       </c>
       <c r="I350" s="1" t="s">
-        <v>1100</v>
+        <v>949</v>
       </c>
       <c r="J350" s="1">
         <v>40</v>
@@ -31684,10 +31683,10 @@
         <v>819</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>1047</v>
+        <v>1071</v>
       </c>
       <c r="F351" s="3" t="s">
-        <v>1082</v>
+        <v>931</v>
       </c>
       <c r="G351" s="1">
         <v>50</v>
@@ -31696,7 +31695,7 @@
         <v>60</v>
       </c>
       <c r="I351" s="1" t="s">
-        <v>1100</v>
+        <v>949</v>
       </c>
       <c r="J351" s="1">
         <v>189</v>
@@ -31776,7 +31775,7 @@
         <v>45</v>
       </c>
       <c r="I352" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J352" s="1">
         <v>147</v>
@@ -31844,7 +31843,7 @@
         <v>819</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>1048</v>
+        <v>1072</v>
       </c>
       <c r="F353" s="3" t="s">
         <v>835</v>
@@ -31856,7 +31855,7 @@
         <v>200</v>
       </c>
       <c r="I353" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J353" s="1">
         <v>154</v>
@@ -31936,7 +31935,7 @@
         <v>225</v>
       </c>
       <c r="I354" s="1" t="s">
-        <v>1098</v>
+        <v>947</v>
       </c>
       <c r="J354" s="1">
         <v>59</v>
@@ -32016,7 +32015,7 @@
         <v>45</v>
       </c>
       <c r="I355" s="1" t="s">
-        <v>1098</v>
+        <v>947</v>
       </c>
       <c r="J355" s="1">
         <v>159</v>
@@ -32096,7 +32095,7 @@
         <v>190</v>
       </c>
       <c r="I356" s="1" t="s">
-        <v>1098</v>
+        <v>947</v>
       </c>
       <c r="J356" s="1">
         <v>59</v>
@@ -32176,7 +32175,7 @@
         <v>90</v>
       </c>
       <c r="I357" s="1" t="s">
-        <v>1098</v>
+        <v>947</v>
       </c>
       <c r="J357" s="1">
         <v>159</v>
@@ -32244,7 +32243,7 @@
         <v>834</v>
       </c>
       <c r="E358" s="1" t="s">
-        <v>993</v>
+        <v>1017</v>
       </c>
       <c r="F358" s="3" t="s">
         <v>910</v>
@@ -32256,7 +32255,7 @@
         <v>200</v>
       </c>
       <c r="I358" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J358" s="1">
         <v>161</v>
@@ -32336,7 +32335,7 @@
         <v>45</v>
       </c>
       <c r="I359" s="1" t="s">
-        <v>1098</v>
+        <v>947</v>
       </c>
       <c r="J359" s="1">
         <v>159</v>
@@ -32404,7 +32403,7 @@
         <v>819</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>1049</v>
+        <v>1073</v>
       </c>
       <c r="F360" s="3" t="s">
         <v>835</v>
@@ -32416,7 +32415,7 @@
         <v>30</v>
       </c>
       <c r="I360" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J360" s="1">
         <v>163</v>
@@ -32484,7 +32483,7 @@
         <v>819</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>997</v>
+        <v>1021</v>
       </c>
       <c r="F361" s="3" t="s">
         <v>836</v>
@@ -32496,7 +32495,7 @@
         <v>125</v>
       </c>
       <c r="I361" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J361" s="1">
         <v>52</v>
@@ -32564,7 +32563,7 @@
         <v>819</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>1050</v>
+        <v>1074</v>
       </c>
       <c r="F362" s="3" t="s">
         <v>925</v>
@@ -32576,7 +32575,7 @@
         <v>190</v>
       </c>
       <c r="I362" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J362" s="1">
         <v>60</v>
@@ -32644,7 +32643,7 @@
         <v>819</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>1050</v>
+        <v>1074</v>
       </c>
       <c r="F363" s="3" t="s">
         <v>925</v>
@@ -32656,7 +32655,7 @@
         <v>75</v>
       </c>
       <c r="I363" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J363" s="1">
         <v>168</v>
@@ -32724,10 +32723,10 @@
         <v>843</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>1051</v>
+        <v>1075</v>
       </c>
       <c r="F364" s="3" t="s">
-        <v>1079</v>
+        <v>928</v>
       </c>
       <c r="G364" s="1">
         <v>50</v>
@@ -32736,7 +32735,7 @@
         <v>255</v>
       </c>
       <c r="I364" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J364" s="1">
         <v>58</v>
@@ -32804,10 +32803,10 @@
         <v>843</v>
       </c>
       <c r="E365" s="1" t="s">
-        <v>1051</v>
+        <v>1075</v>
       </c>
       <c r="F365" s="3" t="s">
-        <v>1079</v>
+        <v>928</v>
       </c>
       <c r="G365" s="1">
         <v>50</v>
@@ -32816,7 +32815,7 @@
         <v>120</v>
       </c>
       <c r="I365" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J365" s="1">
         <v>144</v>
@@ -32884,10 +32883,10 @@
         <v>843</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>1051</v>
+        <v>1075</v>
       </c>
       <c r="F366" s="3" t="s">
-        <v>1079</v>
+        <v>928</v>
       </c>
       <c r="G366" s="1">
         <v>50</v>
@@ -32896,7 +32895,7 @@
         <v>45</v>
       </c>
       <c r="I366" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J366" s="1">
         <v>239</v>
@@ -32964,10 +32963,10 @@
         <v>819</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>1052</v>
+        <v>1076</v>
       </c>
       <c r="F367" s="3" t="s">
-        <v>1080</v>
+        <v>929</v>
       </c>
       <c r="G367" s="1">
         <v>50</v>
@@ -32976,7 +32975,7 @@
         <v>255</v>
       </c>
       <c r="I367" s="1" t="s">
-        <v>1100</v>
+        <v>949</v>
       </c>
       <c r="J367" s="1">
         <v>69</v>
@@ -33044,10 +33043,10 @@
         <v>819</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>975</v>
+        <v>999</v>
       </c>
       <c r="F368" s="3" t="s">
-        <v>1080</v>
+        <v>929</v>
       </c>
       <c r="G368" s="1">
         <v>50</v>
@@ -33056,7 +33055,7 @@
         <v>60</v>
       </c>
       <c r="I368" s="1" t="s">
-        <v>1100</v>
+        <v>949</v>
       </c>
       <c r="J368" s="1">
         <v>170</v>
@@ -33124,10 +33123,10 @@
         <v>819</v>
       </c>
       <c r="E369" s="1" t="s">
-        <v>975</v>
+        <v>999</v>
       </c>
       <c r="F369" s="3" t="s">
-        <v>1080</v>
+        <v>929</v>
       </c>
       <c r="G369" s="1">
         <v>50</v>
@@ -33136,7 +33135,7 @@
         <v>60</v>
       </c>
       <c r="I369" s="1" t="s">
-        <v>1100</v>
+        <v>949</v>
       </c>
       <c r="J369" s="1">
         <v>170</v>
@@ -33204,10 +33203,10 @@
         <v>849</v>
       </c>
       <c r="E370" s="1" t="s">
-        <v>1053</v>
+        <v>1077</v>
       </c>
       <c r="F370" s="3" t="s">
-        <v>1087</v>
+        <v>936</v>
       </c>
       <c r="G370" s="1" t="s">
         <v>820</v>
@@ -33216,7 +33215,7 @@
         <v>25</v>
       </c>
       <c r="I370" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J370" s="1">
         <v>170</v>
@@ -33284,10 +33283,10 @@
         <v>819</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>975</v>
+        <v>999</v>
       </c>
       <c r="F371" s="3" t="s">
-        <v>1083</v>
+        <v>932</v>
       </c>
       <c r="G371" s="1">
         <v>25</v>
@@ -33296,7 +33295,7 @@
         <v>225</v>
       </c>
       <c r="I371" s="1" t="s">
-        <v>1098</v>
+        <v>947</v>
       </c>
       <c r="J371" s="1">
         <v>116</v>
@@ -33364,7 +33363,7 @@
         <v>819</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>1054</v>
+        <v>1078</v>
       </c>
       <c r="F372" s="3" t="s">
         <v>841</v>
@@ -33376,7 +33375,7 @@
         <v>45</v>
       </c>
       <c r="I372" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J372" s="1">
         <v>60</v>
@@ -33444,7 +33443,7 @@
         <v>819</v>
       </c>
       <c r="E373" s="1" t="s">
-        <v>1054</v>
+        <v>1078</v>
       </c>
       <c r="F373" s="3" t="s">
         <v>841</v>
@@ -33456,7 +33455,7 @@
         <v>45</v>
       </c>
       <c r="I373" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J373" s="1">
         <v>147</v>
@@ -33536,7 +33535,7 @@
         <v>45</v>
       </c>
       <c r="I374" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J374" s="1">
         <v>270</v>
@@ -33604,7 +33603,7 @@
         <v>852</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>1055</v>
+        <v>1079</v>
       </c>
       <c r="F375" s="3" t="s">
         <v>839</v>
@@ -33616,7 +33615,7 @@
         <v>3</v>
       </c>
       <c r="I375" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J375" s="1">
         <v>60</v>
@@ -33684,7 +33683,7 @@
         <v>852</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>1055</v>
+        <v>1079</v>
       </c>
       <c r="F376" s="3" t="s">
         <v>839</v>
@@ -33696,7 +33695,7 @@
         <v>3</v>
       </c>
       <c r="I376" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J376" s="1">
         <v>147</v>
@@ -33764,7 +33763,7 @@
         <v>852</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>1055</v>
+        <v>1079</v>
       </c>
       <c r="F377" s="3" t="s">
         <v>839</v>
@@ -33776,7 +33775,7 @@
         <v>3</v>
       </c>
       <c r="I377" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J377" s="1">
         <v>270</v>
@@ -33844,7 +33843,7 @@
         <v>819</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>1055</v>
+        <v>1079</v>
       </c>
       <c r="F378" s="3" t="s">
         <v>836</v>
@@ -33856,7 +33855,7 @@
         <v>3</v>
       </c>
       <c r="I378" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J378" s="1">
         <v>261</v>
@@ -33924,7 +33923,7 @@
         <v>819</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>1055</v>
+        <v>1079</v>
       </c>
       <c r="F379" s="3" t="s">
         <v>836</v>
@@ -33936,7 +33935,7 @@
         <v>3</v>
       </c>
       <c r="I379" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J379" s="1">
         <v>261</v>
@@ -34004,7 +34003,7 @@
         <v>819</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>1055</v>
+        <v>1079</v>
       </c>
       <c r="F380" s="3" t="s">
         <v>836</v>
@@ -34016,7 +34015,7 @@
         <v>3</v>
       </c>
       <c r="I380" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J380" s="1">
         <v>261</v>
@@ -34096,7 +34095,7 @@
         <v>3</v>
       </c>
       <c r="I381" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J381" s="1">
         <v>270</v>
@@ -34176,7 +34175,7 @@
         <v>3</v>
       </c>
       <c r="I382" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J382" s="1">
         <v>270</v>
@@ -34256,7 +34255,7 @@
         <v>3</v>
       </c>
       <c r="I383" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J383" s="1">
         <v>302</v>
@@ -34336,7 +34335,7 @@
         <v>3</v>
       </c>
       <c r="I384" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J384" s="1">
         <v>302</v>
@@ -34404,7 +34403,7 @@
         <v>834</v>
       </c>
       <c r="E385" s="1" t="s">
-        <v>1056</v>
+        <v>1080</v>
       </c>
       <c r="F385" s="3" t="s">
         <v>836</v>
@@ -34416,7 +34415,7 @@
         <v>45</v>
       </c>
       <c r="I385" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J385" s="1">
         <v>306</v>
@@ -34484,7 +34483,7 @@
         <v>852</v>
       </c>
       <c r="E386" s="1" t="s">
-        <v>1057</v>
+        <v>1081</v>
       </c>
       <c r="F386" s="3" t="s">
         <v>836</v>
@@ -34496,7 +34495,7 @@
         <v>3</v>
       </c>
       <c r="I386" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J386" s="1">
         <v>270</v>
@@ -34576,7 +34575,7 @@
         <v>3</v>
       </c>
       <c r="I387" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J387" s="1">
         <v>270</v>
@@ -34656,7 +34655,7 @@
         <v>45</v>
       </c>
       <c r="I388" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J388" s="1">
         <v>64</v>
@@ -34736,7 +34735,7 @@
         <v>45</v>
       </c>
       <c r="I389" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J389" s="1">
         <v>142</v>
@@ -34816,7 +34815,7 @@
         <v>45</v>
       </c>
       <c r="I390" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J390" s="1">
         <v>236</v>
@@ -34896,7 +34895,7 @@
         <v>45</v>
       </c>
       <c r="I391" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J391" s="1">
         <v>62</v>
@@ -34976,7 +34975,7 @@
         <v>45</v>
       </c>
       <c r="I392" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J392" s="1">
         <v>142</v>
@@ -35056,7 +35055,7 @@
         <v>45</v>
       </c>
       <c r="I393" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J393" s="1">
         <v>240</v>
@@ -35127,7 +35126,7 @@
         <v>857</v>
       </c>
       <c r="F394" s="3" t="s">
-        <v>1079</v>
+        <v>928</v>
       </c>
       <c r="G394" s="1" t="s">
         <v>820</v>
@@ -35136,7 +35135,7 @@
         <v>45</v>
       </c>
       <c r="I394" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J394" s="1">
         <v>63</v>
@@ -35207,7 +35206,7 @@
         <v>857</v>
       </c>
       <c r="F395" s="3" t="s">
-        <v>1079</v>
+        <v>928</v>
       </c>
       <c r="G395" s="1" t="s">
         <v>820</v>
@@ -35216,7 +35215,7 @@
         <v>45</v>
       </c>
       <c r="I395" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J395" s="1">
         <v>142</v>
@@ -35287,7 +35286,7 @@
         <v>857</v>
       </c>
       <c r="F396" s="3" t="s">
-        <v>1079</v>
+        <v>928</v>
       </c>
       <c r="G396" s="1" t="s">
         <v>820</v>
@@ -35296,7 +35295,7 @@
         <v>45</v>
       </c>
       <c r="I396" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J396" s="1">
         <v>239</v>
@@ -35364,7 +35363,7 @@
         <v>834</v>
       </c>
       <c r="E397" s="1" t="s">
-        <v>932</v>
+        <v>956</v>
       </c>
       <c r="F397" s="3" t="s">
         <v>834</v>
@@ -35376,7 +35375,7 @@
         <v>255</v>
       </c>
       <c r="I397" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J397" s="1">
         <v>49</v>
@@ -35456,7 +35455,7 @@
         <v>120</v>
       </c>
       <c r="I398" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J398" s="1">
         <v>119</v>
@@ -35536,7 +35535,7 @@
         <v>45</v>
       </c>
       <c r="I399" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J399" s="1">
         <v>218</v>
@@ -35607,7 +35606,7 @@
         <v>899</v>
       </c>
       <c r="F400" s="3" t="s">
-        <v>1079</v>
+        <v>928</v>
       </c>
       <c r="G400" s="1">
         <v>50</v>
@@ -35616,7 +35615,7 @@
         <v>255</v>
       </c>
       <c r="I400" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J400" s="1">
         <v>50</v>
@@ -35687,7 +35686,7 @@
         <v>899</v>
       </c>
       <c r="F401" s="3" t="s">
-        <v>1079</v>
+        <v>928</v>
       </c>
       <c r="G401" s="1">
         <v>50</v>
@@ -35696,7 +35695,7 @@
         <v>127</v>
       </c>
       <c r="I401" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J401" s="1">
         <v>144</v>
@@ -35764,7 +35763,7 @@
         <v>819</v>
       </c>
       <c r="E402" s="1" t="s">
-        <v>928</v>
+        <v>952</v>
       </c>
       <c r="F402" s="3" t="s">
         <v>833</v>
@@ -35776,7 +35775,7 @@
         <v>255</v>
       </c>
       <c r="I402" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J402" s="1">
         <v>39</v>
@@ -35856,7 +35855,7 @@
         <v>45</v>
       </c>
       <c r="I403" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J403" s="1">
         <v>134</v>
@@ -35936,7 +35935,7 @@
         <v>235</v>
       </c>
       <c r="I404" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J404" s="1">
         <v>53</v>
@@ -36016,7 +36015,7 @@
         <v>120</v>
       </c>
       <c r="I405" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J405" s="1">
         <v>127</v>
@@ -36096,7 +36095,7 @@
         <v>45</v>
       </c>
       <c r="I406" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J406" s="1">
         <v>235</v>
@@ -36164,7 +36163,7 @@
         <v>844</v>
       </c>
       <c r="E407" s="1" t="s">
-        <v>1035</v>
+        <v>1059</v>
       </c>
       <c r="F407" s="3" t="s">
         <v>836</v>
@@ -36176,7 +36175,7 @@
         <v>255</v>
       </c>
       <c r="I407" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J407" s="1">
         <v>56</v>
@@ -36244,7 +36243,7 @@
         <v>844</v>
       </c>
       <c r="E408" s="1" t="s">
-        <v>1035</v>
+        <v>1059</v>
       </c>
       <c r="F408" s="3" t="s">
         <v>918</v>
@@ -36256,7 +36255,7 @@
         <v>75</v>
       </c>
       <c r="I408" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J408" s="1">
         <v>232</v>
@@ -36324,7 +36323,7 @@
         <v>819</v>
       </c>
       <c r="E409" s="1" t="s">
-        <v>1058</v>
+        <v>1082</v>
       </c>
       <c r="F409" s="3" t="s">
         <v>832</v>
@@ -36336,7 +36335,7 @@
         <v>45</v>
       </c>
       <c r="I409" s="1" t="s">
-        <v>1100</v>
+        <v>949</v>
       </c>
       <c r="J409" s="1">
         <v>70</v>
@@ -36404,7 +36403,7 @@
         <v>819</v>
       </c>
       <c r="E410" s="1" t="s">
-        <v>1058</v>
+        <v>1082</v>
       </c>
       <c r="F410" s="3" t="s">
         <v>832</v>
@@ -36416,7 +36415,7 @@
         <v>45</v>
       </c>
       <c r="I410" s="1" t="s">
-        <v>1100</v>
+        <v>949</v>
       </c>
       <c r="J410" s="1">
         <v>173</v>
@@ -36496,7 +36495,7 @@
         <v>45</v>
       </c>
       <c r="I411" s="1" t="s">
-        <v>1100</v>
+        <v>949</v>
       </c>
       <c r="J411" s="1">
         <v>70</v>
@@ -36576,7 +36575,7 @@
         <v>45</v>
       </c>
       <c r="I412" s="1" t="s">
-        <v>1100</v>
+        <v>949</v>
       </c>
       <c r="J412" s="1">
         <v>173</v>
@@ -36644,7 +36643,7 @@
         <v>819</v>
       </c>
       <c r="E413" s="1" t="s">
-        <v>928</v>
+        <v>952</v>
       </c>
       <c r="F413" s="3" t="s">
         <v>833</v>
@@ -36656,7 +36655,7 @@
         <v>120</v>
       </c>
       <c r="I413" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J413" s="1">
         <v>45</v>
@@ -36736,7 +36735,7 @@
         <v>45</v>
       </c>
       <c r="I414" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J414" s="1">
         <v>148</v>
@@ -36816,7 +36815,7 @@
         <v>45</v>
       </c>
       <c r="I415" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J415" s="1">
         <v>148</v>
@@ -36884,7 +36883,7 @@
         <v>834</v>
       </c>
       <c r="E416" s="1" t="s">
-        <v>1059</v>
+        <v>1083</v>
       </c>
       <c r="F416" s="3" t="s">
         <v>833</v>
@@ -36896,7 +36895,7 @@
         <v>120</v>
       </c>
       <c r="I416" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J416" s="1">
         <v>49</v>
@@ -36976,7 +36975,7 @@
         <v>45</v>
       </c>
       <c r="I417" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J417" s="1">
         <v>166</v>
@@ -37044,7 +37043,7 @@
         <v>819</v>
       </c>
       <c r="E418" s="1" t="s">
-        <v>992</v>
+        <v>1016</v>
       </c>
       <c r="F418" s="3" t="s">
         <v>913</v>
@@ -37056,7 +37055,7 @@
         <v>200</v>
       </c>
       <c r="I418" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J418" s="1">
         <v>142</v>
@@ -37124,10 +37123,10 @@
         <v>819</v>
       </c>
       <c r="E419" s="1" t="s">
-        <v>975</v>
+        <v>999</v>
       </c>
       <c r="F419" s="3" t="s">
-        <v>1079</v>
+        <v>928</v>
       </c>
       <c r="G419" s="1">
         <v>50</v>
@@ -37136,7 +37135,7 @@
         <v>190</v>
       </c>
       <c r="I419" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J419" s="1">
         <v>66</v>
@@ -37204,10 +37203,10 @@
         <v>819</v>
       </c>
       <c r="E420" s="1" t="s">
-        <v>975</v>
+        <v>999</v>
       </c>
       <c r="F420" s="3" t="s">
-        <v>1079</v>
+        <v>928</v>
       </c>
       <c r="G420" s="1">
         <v>50</v>
@@ -37216,7 +37215,7 @@
         <v>75</v>
       </c>
       <c r="I420" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J420" s="1">
         <v>173</v>
@@ -37296,7 +37295,7 @@
         <v>190</v>
       </c>
       <c r="I421" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J421" s="1">
         <v>55</v>
@@ -37364,7 +37363,7 @@
         <v>819</v>
       </c>
       <c r="E422" s="1" t="s">
-        <v>1060</v>
+        <v>1084</v>
       </c>
       <c r="F422" s="3" t="s">
         <v>918</v>
@@ -37376,7 +37375,7 @@
         <v>75</v>
       </c>
       <c r="I422" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J422" s="1">
         <v>158</v>
@@ -37444,10 +37443,10 @@
         <v>819</v>
       </c>
       <c r="E423" s="1" t="s">
-        <v>1061</v>
+        <v>1085</v>
       </c>
       <c r="F423" s="3" t="s">
-        <v>1092</v>
+        <v>941</v>
       </c>
       <c r="G423" s="1">
         <v>50</v>
@@ -37456,7 +37455,7 @@
         <v>190</v>
       </c>
       <c r="I423" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J423" s="1">
         <v>65</v>
@@ -37524,10 +37523,10 @@
         <v>848</v>
       </c>
       <c r="E424" s="1" t="s">
-        <v>1061</v>
+        <v>1085</v>
       </c>
       <c r="F424" s="3" t="s">
-        <v>1092</v>
+        <v>941</v>
       </c>
       <c r="G424" s="1">
         <v>50</v>
@@ -37536,7 +37535,7 @@
         <v>75</v>
       </c>
       <c r="I424" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J424" s="1">
         <v>166</v>
@@ -37616,7 +37615,7 @@
         <v>45</v>
       </c>
       <c r="I425" s="1" t="s">
-        <v>1098</v>
+        <v>947</v>
       </c>
       <c r="J425" s="1">
         <v>169</v>
@@ -37696,7 +37695,7 @@
         <v>125</v>
       </c>
       <c r="I426" s="1" t="s">
-        <v>1101</v>
+        <v>950</v>
       </c>
       <c r="J426" s="1">
         <v>70</v>
@@ -37776,7 +37775,7 @@
         <v>60</v>
       </c>
       <c r="I427" s="1" t="s">
-        <v>1101</v>
+        <v>950</v>
       </c>
       <c r="J427" s="1">
         <v>174</v>
@@ -37844,7 +37843,7 @@
         <v>819</v>
       </c>
       <c r="E428" s="1" t="s">
-        <v>1062</v>
+        <v>1086</v>
       </c>
       <c r="F428" s="3" t="s">
         <v>921</v>
@@ -37856,7 +37855,7 @@
         <v>190</v>
       </c>
       <c r="I428" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J428" s="1">
         <v>70</v>
@@ -37924,7 +37923,7 @@
         <v>819</v>
       </c>
       <c r="E429" s="1" t="s">
-        <v>1063</v>
+        <v>1087</v>
       </c>
       <c r="F429" s="3" t="s">
         <v>921</v>
@@ -37936,7 +37935,7 @@
         <v>60</v>
       </c>
       <c r="I429" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J429" s="1">
         <v>168</v>
@@ -38016,7 +38015,7 @@
         <v>45</v>
       </c>
       <c r="I430" s="1" t="s">
-        <v>1098</v>
+        <v>947</v>
       </c>
       <c r="J430" s="1">
         <v>173</v>
@@ -38084,7 +38083,7 @@
         <v>834</v>
       </c>
       <c r="E431" s="1" t="s">
-        <v>996</v>
+        <v>1020</v>
       </c>
       <c r="F431" s="3" t="s">
         <v>834</v>
@@ -38096,7 +38095,7 @@
         <v>30</v>
       </c>
       <c r="I431" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J431" s="1">
         <v>177</v>
@@ -38164,7 +38163,7 @@
         <v>819</v>
       </c>
       <c r="E432" s="1" t="s">
-        <v>1064</v>
+        <v>1088</v>
       </c>
       <c r="F432" s="3" t="s">
         <v>835</v>
@@ -38176,7 +38175,7 @@
         <v>190</v>
       </c>
       <c r="I432" s="1" t="s">
-        <v>1098</v>
+        <v>947</v>
       </c>
       <c r="J432" s="1">
         <v>62</v>
@@ -38244,7 +38243,7 @@
         <v>819</v>
       </c>
       <c r="E433" s="1" t="s">
-        <v>1041</v>
+        <v>1065</v>
       </c>
       <c r="F433" s="3" t="s">
         <v>835</v>
@@ -38256,7 +38255,7 @@
         <v>75</v>
       </c>
       <c r="I433" s="1" t="s">
-        <v>1098</v>
+        <v>947</v>
       </c>
       <c r="J433" s="1">
         <v>158</v>
@@ -38336,7 +38335,7 @@
         <v>120</v>
       </c>
       <c r="I434" s="1" t="s">
-        <v>1098</v>
+        <v>947</v>
       </c>
       <c r="J434" s="1">
         <v>57</v>
@@ -38416,7 +38415,7 @@
         <v>225</v>
       </c>
       <c r="I435" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J435" s="1">
         <v>66</v>
@@ -38496,7 +38495,7 @@
         <v>60</v>
       </c>
       <c r="I436" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J436" s="1">
         <v>168</v>
@@ -38576,7 +38575,7 @@
         <v>255</v>
       </c>
       <c r="I437" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J437" s="1">
         <v>60</v>
@@ -38656,7 +38655,7 @@
         <v>90</v>
       </c>
       <c r="I438" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J438" s="1">
         <v>175</v>
@@ -38724,7 +38723,7 @@
         <v>819</v>
       </c>
       <c r="E439" s="1" t="s">
-        <v>991</v>
+        <v>1015</v>
       </c>
       <c r="F439" s="3" t="s">
         <v>836</v>
@@ -38736,7 +38735,7 @@
         <v>255</v>
       </c>
       <c r="I439" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J439" s="1">
         <v>58</v>
@@ -38816,7 +38815,7 @@
         <v>145</v>
       </c>
       <c r="I440" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J440" s="1">
         <v>62</v>
@@ -38884,7 +38883,7 @@
         <v>819</v>
       </c>
       <c r="E441" s="1" t="s">
-        <v>965</v>
+        <v>989</v>
       </c>
       <c r="F441" s="3" t="s">
         <v>836</v>
@@ -38896,7 +38895,7 @@
         <v>130</v>
       </c>
       <c r="I441" s="1" t="s">
-        <v>1098</v>
+        <v>947</v>
       </c>
       <c r="J441" s="1">
         <v>110</v>
@@ -38964,7 +38963,7 @@
         <v>834</v>
       </c>
       <c r="E442" s="1" t="s">
-        <v>930</v>
+        <v>954</v>
       </c>
       <c r="F442" s="3" t="s">
         <v>834</v>
@@ -38976,7 +38975,7 @@
         <v>30</v>
       </c>
       <c r="I442" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J442" s="1">
         <v>144</v>
@@ -39056,7 +39055,7 @@
         <v>100</v>
       </c>
       <c r="I443" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J443" s="1">
         <v>170</v>
@@ -39124,7 +39123,7 @@
         <v>848</v>
       </c>
       <c r="E444" s="1" t="s">
-        <v>934</v>
+        <v>958</v>
       </c>
       <c r="F444" s="3" t="s">
         <v>911</v>
@@ -39136,7 +39135,7 @@
         <v>45</v>
       </c>
       <c r="I444" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J444" s="1">
         <v>60</v>
@@ -39204,7 +39203,7 @@
         <v>848</v>
       </c>
       <c r="E445" s="1" t="s">
-        <v>934</v>
+        <v>958</v>
       </c>
       <c r="F445" s="3" t="s">
         <v>911</v>
@@ -39216,7 +39215,7 @@
         <v>45</v>
       </c>
       <c r="I445" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J445" s="1">
         <v>144</v>
@@ -39284,7 +39283,7 @@
         <v>848</v>
       </c>
       <c r="E446" s="1" t="s">
-        <v>934</v>
+        <v>958</v>
       </c>
       <c r="F446" s="3" t="s">
         <v>911</v>
@@ -39296,7 +39295,7 @@
         <v>45</v>
       </c>
       <c r="I446" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J446" s="1">
         <v>270</v>
@@ -39364,7 +39363,7 @@
         <v>819</v>
       </c>
       <c r="E447" s="1" t="s">
-        <v>1065</v>
+        <v>1089</v>
       </c>
       <c r="F447" s="3" t="s">
         <v>836</v>
@@ -39376,7 +39375,7 @@
         <v>50</v>
       </c>
       <c r="I447" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J447" s="1">
         <v>78</v>
@@ -39444,7 +39443,7 @@
         <v>819</v>
       </c>
       <c r="E448" s="1" t="s">
-        <v>1066</v>
+        <v>1090</v>
       </c>
       <c r="F448" s="3" t="s">
         <v>836</v>
@@ -39456,7 +39455,7 @@
         <v>75</v>
       </c>
       <c r="I448" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J448" s="1">
         <v>57</v>
@@ -39524,7 +39523,7 @@
         <v>845</v>
       </c>
       <c r="E449" s="1" t="s">
-        <v>1066</v>
+        <v>1090</v>
       </c>
       <c r="F449" s="3" t="s">
         <v>921</v>
@@ -39536,7 +39535,7 @@
         <v>45</v>
       </c>
       <c r="I449" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J449" s="1">
         <v>184</v>
@@ -39604,7 +39603,7 @@
         <v>819</v>
       </c>
       <c r="E450" s="1" t="s">
-        <v>1017</v>
+        <v>1041</v>
       </c>
       <c r="F450" s="3" t="s">
         <v>835</v>
@@ -39616,7 +39615,7 @@
         <v>140</v>
       </c>
       <c r="I450" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J450" s="1">
         <v>66</v>
@@ -39684,7 +39683,7 @@
         <v>819</v>
       </c>
       <c r="E451" s="1" t="s">
-        <v>1017</v>
+        <v>1041</v>
       </c>
       <c r="F451" s="3" t="s">
         <v>835</v>
@@ -39696,7 +39695,7 @@
         <v>60</v>
       </c>
       <c r="I451" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J451" s="1">
         <v>184</v>
@@ -39764,10 +39763,10 @@
         <v>833</v>
       </c>
       <c r="E452" s="1" t="s">
-        <v>1067</v>
+        <v>1091</v>
       </c>
       <c r="F452" s="3" t="s">
-        <v>1093</v>
+        <v>942</v>
       </c>
       <c r="G452" s="1">
         <v>50</v>
@@ -39776,7 +39775,7 @@
         <v>120</v>
       </c>
       <c r="I452" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J452" s="1">
         <v>66</v>
@@ -39844,10 +39843,10 @@
         <v>854</v>
       </c>
       <c r="E453" s="1" t="s">
-        <v>1067</v>
+        <v>1091</v>
       </c>
       <c r="F453" s="3" t="s">
-        <v>1093</v>
+        <v>942</v>
       </c>
       <c r="G453" s="1">
         <v>50</v>
@@ -39856,7 +39855,7 @@
         <v>45</v>
       </c>
       <c r="I453" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J453" s="1">
         <v>175</v>
@@ -39924,10 +39923,10 @@
         <v>847</v>
       </c>
       <c r="E454" s="1" t="s">
-        <v>1068</v>
+        <v>1092</v>
       </c>
       <c r="F454" s="3" t="s">
-        <v>1095</v>
+        <v>944</v>
       </c>
       <c r="G454" s="1">
         <v>50</v>
@@ -39936,7 +39935,7 @@
         <v>140</v>
       </c>
       <c r="I454" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J454" s="1">
         <v>60</v>
@@ -40004,10 +40003,10 @@
         <v>847</v>
       </c>
       <c r="E455" s="1" t="s">
-        <v>1068</v>
+        <v>1092</v>
       </c>
       <c r="F455" s="3" t="s">
-        <v>1095</v>
+        <v>944</v>
       </c>
       <c r="G455" s="1">
         <v>50</v>
@@ -40016,7 +40015,7 @@
         <v>75</v>
       </c>
       <c r="I455" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J455" s="1">
         <v>172</v>
@@ -40096,7 +40095,7 @@
         <v>200</v>
       </c>
       <c r="I456" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J456" s="1">
         <v>159</v>
@@ -40164,10 +40163,10 @@
         <v>819</v>
       </c>
       <c r="E457" s="1" t="s">
-        <v>1069</v>
+        <v>1093</v>
       </c>
       <c r="F457" s="3" t="s">
-        <v>1083</v>
+        <v>932</v>
       </c>
       <c r="G457" s="1">
         <v>50</v>
@@ -40176,7 +40175,7 @@
         <v>190</v>
       </c>
       <c r="I457" s="1" t="s">
-        <v>1100</v>
+        <v>949</v>
       </c>
       <c r="J457" s="1">
         <v>66</v>
@@ -40244,10 +40243,10 @@
         <v>819</v>
       </c>
       <c r="E458" s="1" t="s">
-        <v>1069</v>
+        <v>1093</v>
       </c>
       <c r="F458" s="3" t="s">
-        <v>1083</v>
+        <v>932</v>
       </c>
       <c r="G458" s="1">
         <v>50</v>
@@ -40256,7 +40255,7 @@
         <v>75</v>
       </c>
       <c r="I458" s="1" t="s">
-        <v>1100</v>
+        <v>949</v>
       </c>
       <c r="J458" s="1">
         <v>161</v>
@@ -40324,7 +40323,7 @@
         <v>834</v>
       </c>
       <c r="E459" s="1" t="s">
-        <v>1012</v>
+        <v>1036</v>
       </c>
       <c r="F459" s="3" t="s">
         <v>836</v>
@@ -40336,7 +40335,7 @@
         <v>25</v>
       </c>
       <c r="I459" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J459" s="1">
         <v>69</v>
@@ -40404,7 +40403,7 @@
         <v>853</v>
       </c>
       <c r="E460" s="1" t="s">
-        <v>1070</v>
+        <v>1094</v>
       </c>
       <c r="F460" s="3" t="s">
         <v>910</v>
@@ -40416,7 +40415,7 @@
         <v>120</v>
       </c>
       <c r="I460" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J460" s="1">
         <v>67</v>
@@ -40484,7 +40483,7 @@
         <v>853</v>
       </c>
       <c r="E461" s="1" t="s">
-        <v>1070</v>
+        <v>1094</v>
       </c>
       <c r="F461" s="3" t="s">
         <v>910</v>
@@ -40496,7 +40495,7 @@
         <v>60</v>
       </c>
       <c r="I461" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J461" s="1">
         <v>173</v>
@@ -40576,7 +40575,7 @@
         <v>45</v>
       </c>
       <c r="I462" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J462" s="1">
         <v>179</v>
@@ -40644,7 +40643,7 @@
         <v>845</v>
       </c>
       <c r="E463" s="1" t="s">
-        <v>954</v>
+        <v>978</v>
       </c>
       <c r="F463" s="3" t="s">
         <v>839</v>
@@ -40656,7 +40655,7 @@
         <v>30</v>
       </c>
       <c r="I463" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J463" s="1">
         <v>241</v>
@@ -40724,7 +40723,7 @@
         <v>819</v>
       </c>
       <c r="E464" s="1" t="s">
-        <v>963</v>
+        <v>987</v>
       </c>
       <c r="F464" s="3" t="s">
         <v>832</v>
@@ -40736,7 +40735,7 @@
         <v>30</v>
       </c>
       <c r="I464" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J464" s="1">
         <v>180</v>
@@ -40804,7 +40803,7 @@
         <v>849</v>
       </c>
       <c r="E465" s="1" t="s">
-        <v>1071</v>
+        <v>1095</v>
       </c>
       <c r="F465" s="3" t="s">
         <v>914</v>
@@ -40816,7 +40815,7 @@
         <v>30</v>
       </c>
       <c r="I465" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J465" s="1">
         <v>241</v>
@@ -40884,7 +40883,7 @@
         <v>819</v>
       </c>
       <c r="E466" s="1" t="s">
-        <v>966</v>
+        <v>990</v>
       </c>
       <c r="F466" s="3" t="s">
         <v>838</v>
@@ -40896,7 +40895,7 @@
         <v>30</v>
       </c>
       <c r="I466" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J466" s="1">
         <v>187</v>
@@ -40964,10 +40963,10 @@
         <v>819</v>
       </c>
       <c r="E467" s="1" t="s">
-        <v>1072</v>
+        <v>1096</v>
       </c>
       <c r="F467" s="3" t="s">
-        <v>1095</v>
+        <v>944</v>
       </c>
       <c r="G467" s="1">
         <v>75</v>
@@ -40976,7 +40975,7 @@
         <v>30</v>
       </c>
       <c r="I467" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J467" s="1">
         <v>243</v>
@@ -41044,10 +41043,10 @@
         <v>819</v>
       </c>
       <c r="E468" s="1" t="s">
-        <v>972</v>
+        <v>996</v>
       </c>
       <c r="F468" s="3" t="s">
-        <v>1095</v>
+        <v>944</v>
       </c>
       <c r="G468" s="1">
         <v>75</v>
@@ -41056,7 +41055,7 @@
         <v>30</v>
       </c>
       <c r="I468" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J468" s="1">
         <v>243</v>
@@ -41124,7 +41123,7 @@
         <v>834</v>
       </c>
       <c r="E469" s="1" t="s">
-        <v>988</v>
+        <v>1012</v>
       </c>
       <c r="F469" s="3" t="s">
         <v>917</v>
@@ -41136,7 +41135,7 @@
         <v>30</v>
       </c>
       <c r="I469" s="1" t="s">
-        <v>1098</v>
+        <v>947</v>
       </c>
       <c r="J469" s="1">
         <v>245</v>
@@ -41204,7 +41203,7 @@
         <v>834</v>
       </c>
       <c r="E470" s="1" t="s">
-        <v>1073</v>
+        <v>1097</v>
       </c>
       <c r="F470" s="3" t="s">
         <v>833</v>
@@ -41216,7 +41215,7 @@
         <v>30</v>
       </c>
       <c r="I470" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J470" s="1">
         <v>180</v>
@@ -41284,7 +41283,7 @@
         <v>819</v>
       </c>
       <c r="E471" s="1" t="s">
-        <v>1074</v>
+        <v>1098</v>
       </c>
       <c r="F471" s="3" t="s">
         <v>835</v>
@@ -41296,7 +41295,7 @@
         <v>45</v>
       </c>
       <c r="I471" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J471" s="1">
         <v>184</v>
@@ -41364,7 +41363,7 @@
         <v>819</v>
       </c>
       <c r="E472" s="1" t="s">
-        <v>1075</v>
+        <v>1099</v>
       </c>
       <c r="F472" s="3" t="s">
         <v>835</v>
@@ -41376,7 +41375,7 @@
         <v>45</v>
       </c>
       <c r="I472" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J472" s="1">
         <v>184</v>
@@ -41444,7 +41443,7 @@
         <v>834</v>
       </c>
       <c r="E473" s="1" t="s">
-        <v>1000</v>
+        <v>1024</v>
       </c>
       <c r="F473" s="3" t="s">
         <v>833</v>
@@ -41456,7 +41455,7 @@
         <v>30</v>
       </c>
       <c r="I473" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J473" s="1">
         <v>179</v>
@@ -41524,7 +41523,7 @@
         <v>848</v>
       </c>
       <c r="E474" s="1" t="s">
-        <v>1008</v>
+        <v>1032</v>
       </c>
       <c r="F474" s="3" t="s">
         <v>835</v>
@@ -41536,7 +41535,7 @@
         <v>50</v>
       </c>
       <c r="I474" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J474" s="1">
         <v>239</v>
@@ -41616,7 +41615,7 @@
         <v>30</v>
       </c>
       <c r="I475" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J475" s="1">
         <v>241</v>
@@ -41696,7 +41695,7 @@
         <v>45</v>
       </c>
       <c r="I476" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J476" s="1">
         <v>233</v>
@@ -41764,7 +41763,7 @@
         <v>845</v>
       </c>
       <c r="E477" s="1" t="s">
-        <v>1028</v>
+        <v>1052</v>
       </c>
       <c r="F477" s="3" t="s">
         <v>839</v>
@@ -41776,7 +41775,7 @@
         <v>60</v>
       </c>
       <c r="I477" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J477" s="1">
         <v>184</v>
@@ -41856,7 +41855,7 @@
         <v>45</v>
       </c>
       <c r="I478" s="1" t="s">
-        <v>1098</v>
+        <v>947</v>
       </c>
       <c r="J478" s="1">
         <v>236</v>
@@ -41924,7 +41923,7 @@
         <v>850</v>
       </c>
       <c r="E479" s="1" t="s">
-        <v>1075</v>
+        <v>1099</v>
       </c>
       <c r="F479" s="3" t="s">
         <v>925</v>
@@ -41936,7 +41935,7 @@
         <v>75</v>
       </c>
       <c r="I479" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J479" s="1">
         <v>168</v>
@@ -42016,7 +42015,7 @@
         <v>45</v>
       </c>
       <c r="I480" s="1" t="s">
-        <v>1097</v>
+        <v>946</v>
       </c>
       <c r="J480" s="1">
         <v>154</v>
@@ -42096,7 +42095,7 @@
         <v>3</v>
       </c>
       <c r="I481" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J481" s="1">
         <v>261</v>
@@ -42176,7 +42175,7 @@
         <v>3</v>
       </c>
       <c r="I482" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J482" s="1">
         <v>261</v>
@@ -42256,7 +42255,7 @@
         <v>3</v>
       </c>
       <c r="I483" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J483" s="1">
         <v>261</v>
@@ -42336,7 +42335,7 @@
         <v>3</v>
       </c>
       <c r="I484" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J484" s="1">
         <v>306</v>
@@ -42416,7 +42415,7 @@
         <v>3</v>
       </c>
       <c r="I485" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J485" s="1">
         <v>306</v>
@@ -42484,7 +42483,7 @@
         <v>845</v>
       </c>
       <c r="E486" s="1" t="s">
-        <v>937</v>
+        <v>961</v>
       </c>
       <c r="F486" s="3" t="s">
         <v>836</v>
@@ -42496,7 +42495,7 @@
         <v>3</v>
       </c>
       <c r="I486" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J486" s="1">
         <v>270</v>
@@ -42564,7 +42563,7 @@
         <v>819</v>
       </c>
       <c r="E487" s="1" t="s">
-        <v>1076</v>
+        <v>1100</v>
       </c>
       <c r="F487" s="3" t="s">
         <v>836</v>
@@ -42576,7 +42575,7 @@
         <v>3</v>
       </c>
       <c r="I487" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J487" s="1">
         <v>302</v>
@@ -42656,7 +42655,7 @@
         <v>3</v>
       </c>
       <c r="I488" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J488" s="1">
         <v>306</v>
@@ -42736,7 +42735,7 @@
         <v>3</v>
       </c>
       <c r="I489" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J489" s="1">
         <v>270</v>
@@ -42807,7 +42806,7 @@
         <v>908</v>
       </c>
       <c r="F490" s="3" t="s">
-        <v>1086</v>
+        <v>935</v>
       </c>
       <c r="G490" s="1" t="s">
         <v>819</v>
@@ -42816,7 +42815,7 @@
         <v>30</v>
       </c>
       <c r="I490" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J490" s="1">
         <v>216</v>
@@ -42887,7 +42886,7 @@
         <v>908</v>
       </c>
       <c r="F491" s="3" t="s">
-        <v>1086</v>
+        <v>935</v>
       </c>
       <c r="G491" s="1" t="s">
         <v>819</v>
@@ -42896,7 +42895,7 @@
         <v>3</v>
       </c>
       <c r="I491" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J491" s="1">
         <v>270</v>
@@ -42964,7 +42963,7 @@
         <v>819</v>
       </c>
       <c r="E492" s="1" t="s">
-        <v>1077</v>
+        <v>1101</v>
       </c>
       <c r="F492" s="3" t="s">
         <v>836</v>
@@ -42976,7 +42975,7 @@
         <v>3</v>
       </c>
       <c r="I492" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J492" s="1">
         <v>270</v>
@@ -43044,7 +43043,7 @@
         <v>838</v>
       </c>
       <c r="E493" s="1" t="s">
-        <v>1018</v>
+        <v>1042</v>
       </c>
       <c r="F493" s="3" t="s">
         <v>836</v>
@@ -43056,7 +43055,7 @@
         <v>45</v>
       </c>
       <c r="I493" s="1" t="s">
-        <v>1099</v>
+        <v>948</v>
       </c>
       <c r="J493" s="1">
         <v>270</v>
@@ -43136,7 +43135,7 @@
         <v>3</v>
       </c>
       <c r="I494" s="1" t="s">
-        <v>1096</v>
+        <v>945</v>
       </c>
       <c r="J494" s="1">
         <v>324</v>

--- a/Pokemon/src/pokemon/data/pokemon_actual_values.xlsx
+++ b/Pokemon/src/pokemon/data/pokemon_actual_values.xlsx
@@ -2781,15 +2781,6 @@
     <t>Field,Grass</t>
   </si>
   <si>
-    <t>Bug;Human-Li</t>
-  </si>
-  <si>
-    <t>Field;Human-Li</t>
-  </si>
-  <si>
-    <t>Grass;Human-Li</t>
-  </si>
-  <si>
     <t>Flying,Dragon</t>
   </si>
   <si>
@@ -3325,6 +3316,15 @@
   </si>
   <si>
     <t>Bad Dreams</t>
+  </si>
+  <si>
+    <t>Bug,Human_Like</t>
+  </si>
+  <si>
+    <t>Field,Human_Like</t>
+  </si>
+  <si>
+    <t>Grass,Human_Like</t>
   </si>
 </sst>
 </file>
@@ -3645,7 +3645,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3655,8 +3655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z494"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
+      <selection activeCell="F298" sqref="F298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3686,7 +3686,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>816</v>
@@ -3775,7 +3775,7 @@
         <v>45</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J2" s="1">
         <v>64</v>
@@ -3855,7 +3855,7 @@
         <v>45</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J3" s="1">
         <v>142</v>
@@ -3935,7 +3935,7 @@
         <v>45</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J4" s="1">
         <v>236</v>
@@ -4015,7 +4015,7 @@
         <v>45</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J5" s="1">
         <v>62</v>
@@ -4095,7 +4095,7 @@
         <v>45</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J6" s="1">
         <v>142</v>
@@ -4175,7 +4175,7 @@
         <v>45</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J7" s="1">
         <v>240</v>
@@ -4246,7 +4246,7 @@
         <v>857</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>820</v>
@@ -4255,7 +4255,7 @@
         <v>45</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J8" s="1">
         <v>63</v>
@@ -4326,7 +4326,7 @@
         <v>857</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>820</v>
@@ -4335,7 +4335,7 @@
         <v>45</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J9" s="1">
         <v>142</v>
@@ -4406,7 +4406,7 @@
         <v>857</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>820</v>
@@ -4415,7 +4415,7 @@
         <v>45</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J10" s="1">
         <v>239</v>
@@ -4483,7 +4483,7 @@
         <v>819</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>833</v>
@@ -4495,7 +4495,7 @@
         <v>255</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J11" s="1">
         <v>39</v>
@@ -4563,7 +4563,7 @@
         <v>819</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>833</v>
@@ -4575,7 +4575,7 @@
         <v>120</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J12" s="1">
         <v>72</v>
@@ -4643,7 +4643,7 @@
         <v>834</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>833</v>
@@ -4655,7 +4655,7 @@
         <v>45</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J13" s="1">
         <v>178</v>
@@ -4723,7 +4723,7 @@
         <v>844</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>833</v>
@@ -4735,7 +4735,7 @@
         <v>255</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J14" s="1">
         <v>39</v>
@@ -4803,7 +4803,7 @@
         <v>844</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>833</v>
@@ -4815,7 +4815,7 @@
         <v>120</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J15" s="1">
         <v>72</v>
@@ -4895,7 +4895,7 @@
         <v>45</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J16" s="1">
         <v>178</v>
@@ -4963,7 +4963,7 @@
         <v>834</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>834</v>
@@ -4975,7 +4975,7 @@
         <v>255</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J17" s="1">
         <v>50</v>
@@ -5043,7 +5043,7 @@
         <v>834</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>834</v>
@@ -5055,7 +5055,7 @@
         <v>120</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J18" s="1">
         <v>122</v>
@@ -5123,7 +5123,7 @@
         <v>834</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>834</v>
@@ -5135,7 +5135,7 @@
         <v>45</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J19" s="1">
         <v>216</v>
@@ -5203,7 +5203,7 @@
         <v>854</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>835</v>
@@ -5215,7 +5215,7 @@
         <v>255</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J20" s="1">
         <v>51</v>
@@ -5283,7 +5283,7 @@
         <v>854</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>835</v>
@@ -5295,7 +5295,7 @@
         <v>127</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J21" s="1">
         <v>145</v>
@@ -5363,7 +5363,7 @@
         <v>834</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>834</v>
@@ -5375,7 +5375,7 @@
         <v>255</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J22" s="1">
         <v>52</v>
@@ -5443,7 +5443,7 @@
         <v>834</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>834</v>
@@ -5455,7 +5455,7 @@
         <v>90</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J23" s="1">
         <v>155</v>
@@ -5523,7 +5523,7 @@
         <v>819</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>912</v>
@@ -5535,7 +5535,7 @@
         <v>255</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J24" s="1">
         <v>58</v>
@@ -5603,7 +5603,7 @@
         <v>819</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>912</v>
@@ -5615,7 +5615,7 @@
         <v>90</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J25" s="1">
         <v>157</v>
@@ -5695,7 +5695,7 @@
         <v>190</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J26" s="1">
         <v>112</v>
@@ -5775,7 +5775,7 @@
         <v>75</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J27" s="1">
         <v>218</v>
@@ -5843,7 +5843,7 @@
         <v>853</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>835</v>
@@ -5855,7 +5855,7 @@
         <v>255</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J28" s="1">
         <v>60</v>
@@ -5923,7 +5923,7 @@
         <v>853</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>835</v>
@@ -5935,7 +5935,7 @@
         <v>90</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J29" s="1">
         <v>158</v>
@@ -5994,7 +5994,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>844</v>
@@ -6003,7 +6003,7 @@
         <v>819</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>914</v>
@@ -6015,7 +6015,7 @@
         <v>235</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J30" s="1">
         <v>55</v>
@@ -6083,7 +6083,7 @@
         <v>819</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>836</v>
@@ -6095,7 +6095,7 @@
         <v>120</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J31" s="1">
         <v>128</v>
@@ -6163,7 +6163,7 @@
         <v>848</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>836</v>
@@ -6175,7 +6175,7 @@
         <v>45</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J32" s="1">
         <v>227</v>
@@ -6234,7 +6234,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>844</v>
@@ -6243,7 +6243,7 @@
         <v>819</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>914</v>
@@ -6255,7 +6255,7 @@
         <v>235</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J33" s="1">
         <v>55</v>
@@ -6323,7 +6323,7 @@
         <v>819</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>914</v>
@@ -6335,7 +6335,7 @@
         <v>120</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J34" s="1">
         <v>128</v>
@@ -6403,7 +6403,7 @@
         <v>848</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>914</v>
@@ -6415,7 +6415,7 @@
         <v>45</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J35" s="1">
         <v>227</v>
@@ -6483,7 +6483,7 @@
         <v>819</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>837</v>
@@ -6495,7 +6495,7 @@
         <v>150</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="J36" s="1">
         <v>113</v>
@@ -6563,7 +6563,7 @@
         <v>819</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>837</v>
@@ -6575,7 +6575,7 @@
         <v>25</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="J37" s="1">
         <v>217</v>
@@ -6643,7 +6643,7 @@
         <v>853</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>835</v>
@@ -6655,7 +6655,7 @@
         <v>190</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J38" s="1">
         <v>60</v>
@@ -6723,7 +6723,7 @@
         <v>853</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>835</v>
@@ -6735,7 +6735,7 @@
         <v>75</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J39" s="1">
         <v>177</v>
@@ -6803,7 +6803,7 @@
         <v>819</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>837</v>
@@ -6815,7 +6815,7 @@
         <v>170</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="J40" s="1">
         <v>95</v>
@@ -6883,7 +6883,7 @@
         <v>819</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>837</v>
@@ -6895,7 +6895,7 @@
         <v>50</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="J41" s="1">
         <v>196</v>
@@ -6963,7 +6963,7 @@
         <v>834</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>834</v>
@@ -6975,7 +6975,7 @@
         <v>255</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J42" s="1">
         <v>49</v>
@@ -7043,7 +7043,7 @@
         <v>834</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>834</v>
@@ -7055,7 +7055,7 @@
         <v>90</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J43" s="1">
         <v>159</v>
@@ -7135,7 +7135,7 @@
         <v>255</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J44" s="1">
         <v>64</v>
@@ -7215,7 +7215,7 @@
         <v>120</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J45" s="1">
         <v>138</v>
@@ -7295,7 +7295,7 @@
         <v>45</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J46" s="1">
         <v>221</v>
@@ -7363,7 +7363,7 @@
         <v>838</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>915</v>
@@ -7375,7 +7375,7 @@
         <v>190</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J47" s="1">
         <v>57</v>
@@ -7443,7 +7443,7 @@
         <v>838</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>915</v>
@@ -7455,7 +7455,7 @@
         <v>75</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J48" s="1">
         <v>142</v>
@@ -7523,7 +7523,7 @@
         <v>844</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>833</v>
@@ -7535,7 +7535,7 @@
         <v>190</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J49" s="1">
         <v>61</v>
@@ -7603,7 +7603,7 @@
         <v>844</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>833</v>
@@ -7615,7 +7615,7 @@
         <v>75</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J50" s="1">
         <v>158</v>
@@ -7683,7 +7683,7 @@
         <v>848</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>835</v>
@@ -7695,7 +7695,7 @@
         <v>255</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J51" s="1">
         <v>53</v>
@@ -7763,7 +7763,7 @@
         <v>848</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>835</v>
@@ -7775,7 +7775,7 @@
         <v>50</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J52" s="1">
         <v>149</v>
@@ -7855,7 +7855,7 @@
         <v>255</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J53" s="1">
         <v>58</v>
@@ -7935,7 +7935,7 @@
         <v>90</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J54" s="1">
         <v>154</v>
@@ -8003,10 +8003,10 @@
         <v>819</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="G55" s="1">
         <v>50</v>
@@ -8015,7 +8015,7 @@
         <v>190</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J55" s="1">
         <v>64</v>
@@ -8083,10 +8083,10 @@
         <v>819</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="G56" s="1">
         <v>50</v>
@@ -8095,7 +8095,7 @@
         <v>75</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J56" s="1">
         <v>175</v>
@@ -8163,7 +8163,7 @@
         <v>819</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>835</v>
@@ -8175,7 +8175,7 @@
         <v>190</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J57" s="1">
         <v>61</v>
@@ -8243,7 +8243,7 @@
         <v>819</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>835</v>
@@ -8255,7 +8255,7 @@
         <v>75</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J58" s="1">
         <v>159</v>
@@ -8323,7 +8323,7 @@
         <v>819</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>835</v>
@@ -8335,7 +8335,7 @@
         <v>190</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J59" s="1">
         <v>70</v>
@@ -8403,7 +8403,7 @@
         <v>819</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>835</v>
@@ -8415,7 +8415,7 @@
         <v>75</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J60" s="1">
         <v>194</v>
@@ -8483,10 +8483,10 @@
         <v>819</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="G61" s="1">
         <v>50</v>
@@ -8495,7 +8495,7 @@
         <v>255</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J61" s="1">
         <v>60</v>
@@ -8563,10 +8563,10 @@
         <v>819</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="G62" s="1">
         <v>50</v>
@@ -8575,7 +8575,7 @@
         <v>120</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J62" s="1">
         <v>135</v>
@@ -8643,10 +8643,10 @@
         <v>847</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="G63" s="1">
         <v>50</v>
@@ -8655,7 +8655,7 @@
         <v>45</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J63" s="1">
         <v>230</v>
@@ -8723,10 +8723,10 @@
         <v>819</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="G64" s="1">
         <v>75</v>
@@ -8735,7 +8735,7 @@
         <v>200</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J64" s="1">
         <v>62</v>
@@ -8803,10 +8803,10 @@
         <v>819</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="G65" s="1">
         <v>75</v>
@@ -8815,7 +8815,7 @@
         <v>100</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J65" s="1">
         <v>140</v>
@@ -8883,10 +8883,10 @@
         <v>819</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="G66" s="1">
         <v>75</v>
@@ -8895,7 +8895,7 @@
         <v>50</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J66" s="1">
         <v>225</v>
@@ -8963,10 +8963,10 @@
         <v>819</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="G67" s="1">
         <v>75</v>
@@ -8975,7 +8975,7 @@
         <v>180</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J67" s="1">
         <v>61</v>
@@ -9043,10 +9043,10 @@
         <v>819</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="G68" s="1">
         <v>75</v>
@@ -9055,7 +9055,7 @@
         <v>90</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J68" s="1">
         <v>142</v>
@@ -9123,10 +9123,10 @@
         <v>819</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="G69" s="1">
         <v>75</v>
@@ -9135,7 +9135,7 @@
         <v>45</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J69" s="1">
         <v>227</v>
@@ -9215,7 +9215,7 @@
         <v>255</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J70" s="1">
         <v>60</v>
@@ -9295,7 +9295,7 @@
         <v>120</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J71" s="1">
         <v>137</v>
@@ -9375,7 +9375,7 @@
         <v>45</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J72" s="1">
         <v>221</v>
@@ -9443,10 +9443,10 @@
         <v>844</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="G73" s="1">
         <v>50</v>
@@ -9455,7 +9455,7 @@
         <v>190</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J73" s="1">
         <v>67</v>
@@ -9523,10 +9523,10 @@
         <v>844</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="G74" s="1">
         <v>50</v>
@@ -9535,7 +9535,7 @@
         <v>60</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J74" s="1">
         <v>180</v>
@@ -9603,7 +9603,7 @@
         <v>848</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>839</v>
@@ -9615,7 +9615,7 @@
         <v>255</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J75" s="1">
         <v>60</v>
@@ -9683,7 +9683,7 @@
         <v>848</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>839</v>
@@ -9695,7 +9695,7 @@
         <v>120</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J76" s="1">
         <v>137</v>
@@ -9763,7 +9763,7 @@
         <v>848</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>839</v>
@@ -9775,7 +9775,7 @@
         <v>45</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J77" s="1">
         <v>223</v>
@@ -9843,7 +9843,7 @@
         <v>819</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>835</v>
@@ -9855,7 +9855,7 @@
         <v>190</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J78" s="1">
         <v>82</v>
@@ -9923,7 +9923,7 @@
         <v>819</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>835</v>
@@ -9935,7 +9935,7 @@
         <v>60</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J79" s="1">
         <v>175</v>
@@ -10003,10 +10003,10 @@
         <v>852</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="G80" s="1">
         <v>50</v>
@@ -10015,7 +10015,7 @@
         <v>190</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J80" s="1">
         <v>63</v>
@@ -10083,10 +10083,10 @@
         <v>852</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="G81" s="1">
         <v>50</v>
@@ -10095,7 +10095,7 @@
         <v>75</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J81" s="1">
         <v>172</v>
@@ -10163,7 +10163,7 @@
         <v>845</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>839</v>
@@ -10175,7 +10175,7 @@
         <v>190</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J82" s="1">
         <v>65</v>
@@ -10243,7 +10243,7 @@
         <v>845</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>839</v>
@@ -10255,7 +10255,7 @@
         <v>60</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J83" s="1">
         <v>163</v>
@@ -10323,7 +10323,7 @@
         <v>834</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>916</v>
@@ -10335,7 +10335,7 @@
         <v>45</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J84" s="1">
         <v>132</v>
@@ -10403,7 +10403,7 @@
         <v>834</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>834</v>
@@ -10415,7 +10415,7 @@
         <v>190</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J85" s="1">
         <v>62</v>
@@ -10483,7 +10483,7 @@
         <v>834</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>834</v>
@@ -10495,7 +10495,7 @@
         <v>45</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J86" s="1">
         <v>165</v>
@@ -10563,10 +10563,10 @@
         <v>819</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="G87" s="1">
         <v>50</v>
@@ -10575,7 +10575,7 @@
         <v>190</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J87" s="1">
         <v>65</v>
@@ -10643,10 +10643,10 @@
         <v>853</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="G88" s="1">
         <v>50</v>
@@ -10655,7 +10655,7 @@
         <v>75</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J88" s="1">
         <v>166</v>
@@ -10723,7 +10723,7 @@
         <v>844</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>840</v>
@@ -10735,7 +10735,7 @@
         <v>190</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J89" s="1">
         <v>65</v>
@@ -10803,7 +10803,7 @@
         <v>844</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>840</v>
@@ -10815,7 +10815,7 @@
         <v>75</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J90" s="1">
         <v>175</v>
@@ -10883,10 +10883,10 @@
         <v>819</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="G91" s="1">
         <v>50</v>
@@ -10895,7 +10895,7 @@
         <v>190</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J91" s="1">
         <v>61</v>
@@ -10963,10 +10963,10 @@
         <v>853</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="G92" s="1">
         <v>50</v>
@@ -10975,7 +10975,7 @@
         <v>60</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J92" s="1">
         <v>184</v>
@@ -11055,7 +11055,7 @@
         <v>190</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J93" s="1">
         <v>62</v>
@@ -11135,7 +11135,7 @@
         <v>90</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J94" s="1">
         <v>142</v>
@@ -11215,7 +11215,7 @@
         <v>45</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J95" s="1">
         <v>225</v>
@@ -11283,7 +11283,7 @@
         <v>848</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>839</v>
@@ -11295,7 +11295,7 @@
         <v>45</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J96" s="1">
         <v>77</v>
@@ -11366,7 +11366,7 @@
         <v>864</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="G97" s="1">
         <v>50</v>
@@ -11375,7 +11375,7 @@
         <v>190</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J97" s="1">
         <v>66</v>
@@ -11446,7 +11446,7 @@
         <v>864</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="G98" s="1">
         <v>50</v>
@@ -11455,7 +11455,7 @@
         <v>75</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J98" s="1">
         <v>169</v>
@@ -11523,10 +11523,10 @@
         <v>819</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="G99" s="1">
         <v>50</v>
@@ -11535,7 +11535,7 @@
         <v>225</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J99" s="1">
         <v>65</v>
@@ -11603,10 +11603,10 @@
         <v>819</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="G100" s="1">
         <v>50</v>
@@ -11615,7 +11615,7 @@
         <v>60</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J100" s="1">
         <v>166</v>
@@ -11695,7 +11695,7 @@
         <v>190</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J101" s="1">
         <v>66</v>
@@ -11775,7 +11775,7 @@
         <v>60</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J102" s="1">
         <v>172</v>
@@ -11855,7 +11855,7 @@
         <v>90</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J103" s="1">
         <v>65</v>
@@ -11935,7 +11935,7 @@
         <v>45</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J104" s="1">
         <v>186</v>
@@ -12003,7 +12003,7 @@
         <v>819</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>832</v>
@@ -12015,7 +12015,7 @@
         <v>190</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J105" s="1">
         <v>64</v>
@@ -12083,7 +12083,7 @@
         <v>842</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>832</v>
@@ -12095,7 +12095,7 @@
         <v>75</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J106" s="1">
         <v>149</v>
@@ -12166,7 +12166,7 @@
         <v>866</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="G107" s="1">
         <v>100</v>
@@ -12175,7 +12175,7 @@
         <v>45</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J107" s="1">
         <v>159</v>
@@ -12243,10 +12243,10 @@
         <v>819</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="G108" s="1">
         <v>100</v>
@@ -12255,7 +12255,7 @@
         <v>45</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J108" s="1">
         <v>159</v>
@@ -12323,7 +12323,7 @@
         <v>819</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="F109" s="3" t="s">
         <v>832</v>
@@ -12335,7 +12335,7 @@
         <v>45</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J109" s="1">
         <v>77</v>
@@ -12415,7 +12415,7 @@
         <v>190</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J110" s="1">
         <v>68</v>
@@ -12495,7 +12495,7 @@
         <v>60</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J111" s="1">
         <v>172</v>
@@ -12563,7 +12563,7 @@
         <v>849</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>914</v>
@@ -12575,7 +12575,7 @@
         <v>120</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J112" s="1">
         <v>69</v>
@@ -12643,7 +12643,7 @@
         <v>849</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>914</v>
@@ -12655,7 +12655,7 @@
         <v>60</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J113" s="1">
         <v>170</v>
@@ -12723,7 +12723,7 @@
         <v>819</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>837</v>
@@ -12735,7 +12735,7 @@
         <v>30</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="J114" s="1">
         <v>395</v>
@@ -12803,7 +12803,7 @@
         <v>819</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>838</v>
@@ -12815,7 +12815,7 @@
         <v>45</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J115" s="1">
         <v>87</v>
@@ -12883,7 +12883,7 @@
         <v>819</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>832</v>
@@ -12895,7 +12895,7 @@
         <v>45</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J116" s="1">
         <v>172</v>
@@ -12963,10 +12963,10 @@
         <v>819</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="G117" s="1">
         <v>50</v>
@@ -12975,7 +12975,7 @@
         <v>225</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J117" s="1">
         <v>59</v>
@@ -13043,10 +13043,10 @@
         <v>819</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="G118" s="1">
         <v>50</v>
@@ -13055,7 +13055,7 @@
         <v>75</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J118" s="1">
         <v>154</v>
@@ -13123,10 +13123,10 @@
         <v>819</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="G119" s="1">
         <v>50</v>
@@ -13135,7 +13135,7 @@
         <v>225</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J119" s="1">
         <v>64</v>
@@ -13203,10 +13203,10 @@
         <v>819</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="G120" s="1">
         <v>50</v>
@@ -13215,7 +13215,7 @@
         <v>60</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J120" s="1">
         <v>158</v>
@@ -13283,10 +13283,10 @@
         <v>819</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>819</v>
@@ -13295,7 +13295,7 @@
         <v>225</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J121" s="1">
         <v>68</v>
@@ -13363,10 +13363,10 @@
         <v>852</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>819</v>
@@ -13375,7 +13375,7 @@
         <v>60</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J122" s="1">
         <v>182</v>
@@ -13446,7 +13446,7 @@
         <v>867</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="G123" s="1">
         <v>50</v>
@@ -13455,7 +13455,7 @@
         <v>45</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J123" s="1">
         <v>161</v>
@@ -13535,7 +13535,7 @@
         <v>45</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J124" s="1">
         <v>100</v>
@@ -13606,7 +13606,7 @@
         <v>869</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="G125" s="1">
         <v>0</v>
@@ -13615,7 +13615,7 @@
         <v>45</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J125" s="1">
         <v>159</v>
@@ -13686,7 +13686,7 @@
         <v>859</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="G126" s="1">
         <v>75</v>
@@ -13695,7 +13695,7 @@
         <v>45</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J126" s="1">
         <v>172</v>
@@ -13763,10 +13763,10 @@
         <v>819</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="G127" s="1">
         <v>75</v>
@@ -13775,7 +13775,7 @@
         <v>45</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J127" s="1">
         <v>173</v>
@@ -13843,7 +13843,7 @@
         <v>819</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>833</v>
@@ -13855,7 +13855,7 @@
         <v>45</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J128" s="1">
         <v>175</v>
@@ -13923,7 +13923,7 @@
         <v>819</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="F129" s="3" t="s">
         <v>835</v>
@@ -13935,7 +13935,7 @@
         <v>45</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J129" s="1">
         <v>172</v>
@@ -14003,10 +14003,10 @@
         <v>819</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="G130" s="1">
         <v>50</v>
@@ -14015,7 +14015,7 @@
         <v>255</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J130" s="1">
         <v>40</v>
@@ -14086,7 +14086,7 @@
         <v>870</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="G131" s="1">
         <v>50</v>
@@ -14095,7 +14095,7 @@
         <v>45</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J131" s="1">
         <v>189</v>
@@ -14163,10 +14163,10 @@
         <v>853</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="G132" s="1">
         <v>50</v>
@@ -14175,7 +14175,7 @@
         <v>45</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J132" s="1">
         <v>187</v>
@@ -14255,7 +14255,7 @@
         <v>35</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J133" s="1">
         <v>101</v>
@@ -14323,7 +14323,7 @@
         <v>819</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="F134" s="3" t="s">
         <v>835</v>
@@ -14335,7 +14335,7 @@
         <v>45</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J134" s="1">
         <v>65</v>
@@ -14403,7 +14403,7 @@
         <v>819</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="F135" s="3" t="s">
         <v>835</v>
@@ -14415,7 +14415,7 @@
         <v>45</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J135" s="1">
         <v>184</v>
@@ -14483,7 +14483,7 @@
         <v>819</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="F136" s="3" t="s">
         <v>835</v>
@@ -14495,7 +14495,7 @@
         <v>45</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J136" s="1">
         <v>184</v>
@@ -14563,7 +14563,7 @@
         <v>819</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="F137" s="3" t="s">
         <v>835</v>
@@ -14575,7 +14575,7 @@
         <v>45</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J137" s="1">
         <v>184</v>
@@ -14655,7 +14655,7 @@
         <v>45</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J138" s="1">
         <v>79</v>
@@ -14723,10 +14723,10 @@
         <v>843</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>820</v>
@@ -14735,7 +14735,7 @@
         <v>45</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J139" s="1">
         <v>71</v>
@@ -14803,10 +14803,10 @@
         <v>843</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>820</v>
@@ -14815,7 +14815,7 @@
         <v>45</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J140" s="1">
         <v>173</v>
@@ -14883,10 +14883,10 @@
         <v>843</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>820</v>
@@ -14895,7 +14895,7 @@
         <v>45</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J141" s="1">
         <v>71</v>
@@ -14963,10 +14963,10 @@
         <v>843</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>820</v>
@@ -14975,7 +14975,7 @@
         <v>45</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J142" s="1">
         <v>173</v>
@@ -15043,7 +15043,7 @@
         <v>834</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="F143" s="3" t="s">
         <v>834</v>
@@ -15055,7 +15055,7 @@
         <v>45</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J143" s="1">
         <v>180</v>
@@ -15123,7 +15123,7 @@
         <v>819</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="F144" s="3" t="s">
         <v>832</v>
@@ -15135,7 +15135,7 @@
         <v>25</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J144" s="1">
         <v>189</v>
@@ -15215,7 +15215,7 @@
         <v>3</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J145" s="1">
         <v>261</v>
@@ -15295,7 +15295,7 @@
         <v>3</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J146" s="1">
         <v>261</v>
@@ -15375,7 +15375,7 @@
         <v>3</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J147" s="1">
         <v>261</v>
@@ -15443,10 +15443,10 @@
         <v>819</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="G148" s="1">
         <v>50</v>
@@ -15455,7 +15455,7 @@
         <v>45</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J148" s="1">
         <v>60</v>
@@ -15523,10 +15523,10 @@
         <v>819</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="G149" s="1">
         <v>50</v>
@@ -15535,7 +15535,7 @@
         <v>45</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J149" s="1">
         <v>147</v>
@@ -15603,10 +15603,10 @@
         <v>834</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="G150" s="1">
         <v>50</v>
@@ -15615,7 +15615,7 @@
         <v>45</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J150" s="1">
         <v>270</v>
@@ -15695,7 +15695,7 @@
         <v>3</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J151" s="1">
         <v>306</v>
@@ -15775,7 +15775,7 @@
         <v>45</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J152" s="1">
         <v>270</v>
@@ -15855,7 +15855,7 @@
         <v>45</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J153" s="1">
         <v>64</v>
@@ -15935,7 +15935,7 @@
         <v>45</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J154" s="1">
         <v>142</v>
@@ -16015,7 +16015,7 @@
         <v>45</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J155" s="1">
         <v>236</v>
@@ -16095,7 +16095,7 @@
         <v>45</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J156" s="1">
         <v>62</v>
@@ -16175,7 +16175,7 @@
         <v>45</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J157" s="1">
         <v>142</v>
@@ -16255,7 +16255,7 @@
         <v>45</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J158" s="1">
         <v>240</v>
@@ -16326,7 +16326,7 @@
         <v>857</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>820</v>
@@ -16335,7 +16335,7 @@
         <v>45</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J159" s="1">
         <v>63</v>
@@ -16406,7 +16406,7 @@
         <v>857</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>820</v>
@@ -16415,7 +16415,7 @@
         <v>45</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J160" s="1">
         <v>142</v>
@@ -16486,7 +16486,7 @@
         <v>857</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>820</v>
@@ -16495,7 +16495,7 @@
         <v>45</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J161" s="1">
         <v>239</v>
@@ -16563,7 +16563,7 @@
         <v>819</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="F162" s="3" t="s">
         <v>835</v>
@@ -16575,7 +16575,7 @@
         <v>255</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J162" s="1">
         <v>43</v>
@@ -16643,7 +16643,7 @@
         <v>819</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="F163" s="3" t="s">
         <v>835</v>
@@ -16655,7 +16655,7 @@
         <v>90</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J163" s="1">
         <v>145</v>
@@ -16723,7 +16723,7 @@
         <v>834</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F164" s="3" t="s">
         <v>834</v>
@@ -16735,7 +16735,7 @@
         <v>255</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J164" s="1">
         <v>52</v>
@@ -16803,7 +16803,7 @@
         <v>834</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F165" s="3" t="s">
         <v>834</v>
@@ -16815,7 +16815,7 @@
         <v>90</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J165" s="1">
         <v>158</v>
@@ -16883,7 +16883,7 @@
         <v>834</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="F166" s="3" t="s">
         <v>833</v>
@@ -16895,7 +16895,7 @@
         <v>255</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="J166" s="1">
         <v>53</v>
@@ -16963,7 +16963,7 @@
         <v>834</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="F167" s="3" t="s">
         <v>833</v>
@@ -16975,7 +16975,7 @@
         <v>90</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="J167" s="1">
         <v>137</v>
@@ -17055,7 +17055,7 @@
         <v>255</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="J168" s="1">
         <v>50</v>
@@ -17135,7 +17135,7 @@
         <v>90</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="J169" s="1">
         <v>140</v>
@@ -17203,7 +17203,7 @@
         <v>834</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="F170" s="3" t="s">
         <v>834</v>
@@ -17215,7 +17215,7 @@
         <v>90</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J170" s="1">
         <v>241</v>
@@ -17283,10 +17283,10 @@
         <v>851</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="G171" s="1">
         <v>50</v>
@@ -17295,7 +17295,7 @@
         <v>190</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J171" s="1">
         <v>66</v>
@@ -17363,10 +17363,10 @@
         <v>851</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="G172" s="1">
         <v>50</v>
@@ -17375,7 +17375,7 @@
         <v>75</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J172" s="1">
         <v>161</v>
@@ -17455,7 +17455,7 @@
         <v>190</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J173" s="1">
         <v>41</v>
@@ -17523,7 +17523,7 @@
         <v>819</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="F174" s="3" t="s">
         <v>836</v>
@@ -17535,7 +17535,7 @@
         <v>150</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="J174" s="1">
         <v>44</v>
@@ -17603,7 +17603,7 @@
         <v>819</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="F175" s="3" t="s">
         <v>836</v>
@@ -17615,7 +17615,7 @@
         <v>170</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="J175" s="1">
         <v>42</v>
@@ -17683,7 +17683,7 @@
         <v>819</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="F176" s="3" t="s">
         <v>836</v>
@@ -17695,7 +17695,7 @@
         <v>190</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="J176" s="1">
         <v>49</v>
@@ -17763,7 +17763,7 @@
         <v>834</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="F177" s="3" t="s">
         <v>917</v>
@@ -17775,7 +17775,7 @@
         <v>75</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="J177" s="1">
         <v>142</v>
@@ -17843,7 +17843,7 @@
         <v>834</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="F178" s="3" t="s">
         <v>834</v>
@@ -17855,7 +17855,7 @@
         <v>190</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J178" s="1">
         <v>64</v>
@@ -17923,7 +17923,7 @@
         <v>834</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="F179" s="3" t="s">
         <v>834</v>
@@ -17935,7 +17935,7 @@
         <v>75</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J179" s="1">
         <v>165</v>
@@ -18015,7 +18015,7 @@
         <v>235</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J180" s="1">
         <v>56</v>
@@ -18095,7 +18095,7 @@
         <v>120</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J181" s="1">
         <v>128</v>
@@ -18175,7 +18175,7 @@
         <v>45</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J182" s="1">
         <v>230</v>
@@ -18255,7 +18255,7 @@
         <v>45</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J183" s="1">
         <v>221</v>
@@ -18323,10 +18323,10 @@
         <v>819</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="G184" s="1">
         <v>50</v>
@@ -18335,7 +18335,7 @@
         <v>190</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="J184" s="1">
         <v>88</v>
@@ -18403,10 +18403,10 @@
         <v>819</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="G185" s="1">
         <v>50</v>
@@ -18415,7 +18415,7 @@
         <v>75</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="J185" s="1">
         <v>189</v>
@@ -18483,7 +18483,7 @@
         <v>819</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="F186" s="3" t="s">
         <v>839</v>
@@ -18495,7 +18495,7 @@
         <v>65</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J186" s="1">
         <v>144</v>
@@ -18563,10 +18563,10 @@
         <v>819</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="G187" s="1">
         <v>50</v>
@@ -18575,7 +18575,7 @@
         <v>45</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J187" s="1">
         <v>225</v>
@@ -18643,7 +18643,7 @@
         <v>834</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="F188" s="3" t="s">
         <v>918</v>
@@ -18655,7 +18655,7 @@
         <v>255</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J188" s="1">
         <v>50</v>
@@ -18723,7 +18723,7 @@
         <v>834</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="F189" s="3" t="s">
         <v>918</v>
@@ -18735,7 +18735,7 @@
         <v>120</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J189" s="1">
         <v>119</v>
@@ -18803,7 +18803,7 @@
         <v>834</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="F190" s="3" t="s">
         <v>918</v>
@@ -18815,7 +18815,7 @@
         <v>45</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J190" s="1">
         <v>207</v>
@@ -18883,7 +18883,7 @@
         <v>819</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="F191" s="3" t="s">
         <v>835</v>
@@ -18895,7 +18895,7 @@
         <v>45</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="J191" s="1">
         <v>72</v>
@@ -18963,7 +18963,7 @@
         <v>819</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="F192" s="3" t="s">
         <v>838</v>
@@ -18975,7 +18975,7 @@
         <v>235</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J192" s="1">
         <v>36</v>
@@ -19043,7 +19043,7 @@
         <v>819</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="F193" s="3" t="s">
         <v>838</v>
@@ -19055,7 +19055,7 @@
         <v>120</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J193" s="1">
         <v>149</v>
@@ -19123,7 +19123,7 @@
         <v>834</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="F194" s="3" t="s">
         <v>833</v>
@@ -19135,7 +19135,7 @@
         <v>75</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J194" s="1">
         <v>78</v>
@@ -19203,10 +19203,10 @@
         <v>848</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="G195" s="1">
         <v>50</v>
@@ -19215,7 +19215,7 @@
         <v>255</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J195" s="1">
         <v>42</v>
@@ -19283,10 +19283,10 @@
         <v>848</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="G196" s="1">
         <v>50</v>
@@ -19295,7 +19295,7 @@
         <v>90</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J196" s="1">
         <v>151</v>
@@ -19375,7 +19375,7 @@
         <v>45</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J197" s="1">
         <v>184</v>
@@ -19455,7 +19455,7 @@
         <v>45</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J198" s="1">
         <v>184</v>
@@ -19523,7 +19523,7 @@
         <v>834</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="F199" s="3" t="s">
         <v>834</v>
@@ -19535,7 +19535,7 @@
         <v>30</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J199" s="1">
         <v>81</v>
@@ -19603,10 +19603,10 @@
         <v>852</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="G200" s="1">
         <v>50</v>
@@ -19615,7 +19615,7 @@
         <v>70</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J200" s="1">
         <v>172</v>
@@ -19695,7 +19695,7 @@
         <v>45</v>
       </c>
       <c r="I201" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="J201" s="1">
         <v>87</v>
@@ -19775,7 +19775,7 @@
         <v>225</v>
       </c>
       <c r="I202" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J202" s="1">
         <v>118</v>
@@ -19843,7 +19843,7 @@
         <v>819</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="F203" s="3" t="s">
         <v>840</v>
@@ -19855,7 +19855,7 @@
         <v>45</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J203" s="1">
         <v>142</v>
@@ -19923,7 +19923,7 @@
         <v>852</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="F204" s="3" t="s">
         <v>835</v>
@@ -19935,7 +19935,7 @@
         <v>60</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J204" s="1">
         <v>159</v>
@@ -20015,7 +20015,7 @@
         <v>190</v>
       </c>
       <c r="I205" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J205" s="1">
         <v>58</v>
@@ -20095,7 +20095,7 @@
         <v>75</v>
       </c>
       <c r="I206" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J206" s="1">
         <v>163</v>
@@ -20163,7 +20163,7 @@
         <v>819</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="F207" s="3" t="s">
         <v>835</v>
@@ -20175,7 +20175,7 @@
         <v>190</v>
       </c>
       <c r="I207" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J207" s="1">
         <v>145</v>
@@ -20243,7 +20243,7 @@
         <v>834</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="F208" s="3" t="s">
         <v>833</v>
@@ -20255,7 +20255,7 @@
         <v>60</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J208" s="1">
         <v>86</v>
@@ -20323,7 +20323,7 @@
         <v>848</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="F209" s="3" t="s">
         <v>839</v>
@@ -20335,7 +20335,7 @@
         <v>25</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J209" s="1">
         <v>179</v>
@@ -20403,7 +20403,7 @@
         <v>819</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="F210" s="3" t="s">
         <v>913</v>
@@ -20415,7 +20415,7 @@
         <v>190</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="J210" s="1">
         <v>60</v>
@@ -20483,7 +20483,7 @@
         <v>819</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="F211" s="3" t="s">
         <v>913</v>
@@ -20495,7 +20495,7 @@
         <v>75</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="J211" s="1">
         <v>158</v>
@@ -20563,10 +20563,10 @@
         <v>844</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="G212" s="1">
         <v>50</v>
@@ -20575,7 +20575,7 @@
         <v>45</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J212" s="1">
         <v>88</v>
@@ -20655,7 +20655,7 @@
         <v>25</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J213" s="1">
         <v>175</v>
@@ -20735,7 +20735,7 @@
         <v>190</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J214" s="1">
         <v>177</v>
@@ -20815,7 +20815,7 @@
         <v>45</v>
       </c>
       <c r="I215" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J215" s="1">
         <v>175</v>
@@ -20883,7 +20883,7 @@
         <v>853</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="F216" s="3" t="s">
         <v>835</v>
@@ -20895,7 +20895,7 @@
         <v>60</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J216" s="1">
         <v>86</v>
@@ -20963,7 +20963,7 @@
         <v>819</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="F217" s="3" t="s">
         <v>835</v>
@@ -20975,7 +20975,7 @@
         <v>120</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J217" s="1">
         <v>66</v>
@@ -21043,7 +21043,7 @@
         <v>819</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="F218" s="3" t="s">
         <v>835</v>
@@ -21055,7 +21055,7 @@
         <v>60</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J218" s="1">
         <v>175</v>
@@ -21123,7 +21123,7 @@
         <v>819</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="F219" s="3" t="s">
         <v>840</v>
@@ -21135,7 +21135,7 @@
         <v>190</v>
       </c>
       <c r="I219" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J219" s="1">
         <v>50</v>
@@ -21203,7 +21203,7 @@
         <v>849</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="F220" s="3" t="s">
         <v>840</v>
@@ -21215,7 +21215,7 @@
         <v>75</v>
       </c>
       <c r="I220" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J220" s="1">
         <v>151</v>
@@ -21283,7 +21283,7 @@
         <v>848</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="F221" s="3" t="s">
         <v>835</v>
@@ -21295,7 +21295,7 @@
         <v>225</v>
       </c>
       <c r="I221" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J221" s="1">
         <v>50</v>
@@ -21363,7 +21363,7 @@
         <v>848</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="F222" s="3" t="s">
         <v>835</v>
@@ -21375,7 +21375,7 @@
         <v>75</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J222" s="1">
         <v>158</v>
@@ -21443,10 +21443,10 @@
         <v>849</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="G223" s="1">
         <v>25</v>
@@ -21455,7 +21455,7 @@
         <v>60</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="J223" s="1">
         <v>144</v>
@@ -21526,7 +21526,7 @@
         <v>879</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="G224" s="1">
         <v>50</v>
@@ -21535,7 +21535,7 @@
         <v>190</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J224" s="1">
         <v>60</v>
@@ -21603,10 +21603,10 @@
         <v>819</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="G225" s="1">
         <v>50</v>
@@ -21615,7 +21615,7 @@
         <v>75</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J225" s="1">
         <v>168</v>
@@ -21683,10 +21683,10 @@
         <v>834</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="G226" s="1">
         <v>50</v>
@@ -21695,7 +21695,7 @@
         <v>45</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="J226" s="1">
         <v>116</v>
@@ -21763,10 +21763,10 @@
         <v>834</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="G227" s="1">
         <v>50</v>
@@ -21775,7 +21775,7 @@
         <v>25</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J227" s="1">
         <v>170</v>
@@ -21843,7 +21843,7 @@
         <v>834</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="F228" s="3" t="s">
         <v>834</v>
@@ -21855,7 +21855,7 @@
         <v>25</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J228" s="1">
         <v>163</v>
@@ -21923,7 +21923,7 @@
         <v>842</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="F229" s="3" t="s">
         <v>835</v>
@@ -21935,7 +21935,7 @@
         <v>120</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J229" s="1">
         <v>66</v>
@@ -22003,7 +22003,7 @@
         <v>842</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="F230" s="3" t="s">
         <v>835</v>
@@ -22015,7 +22015,7 @@
         <v>45</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J230" s="1">
         <v>175</v>
@@ -22083,10 +22083,10 @@
         <v>841</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="G231" s="1">
         <v>50</v>
@@ -22095,7 +22095,7 @@
         <v>45</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J231" s="1">
         <v>243</v>
@@ -22175,7 +22175,7 @@
         <v>120</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J232" s="1">
         <v>66</v>
@@ -22255,7 +22255,7 @@
         <v>60</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J233" s="1">
         <v>175</v>
@@ -22335,7 +22335,7 @@
         <v>45</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J234" s="1">
         <v>180</v>
@@ -22415,7 +22415,7 @@
         <v>45</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J235" s="1">
         <v>163</v>
@@ -22483,7 +22483,7 @@
         <v>819</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="F236" s="3" t="s">
         <v>835</v>
@@ -22495,7 +22495,7 @@
         <v>45</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="J236" s="1">
         <v>88</v>
@@ -22575,7 +22575,7 @@
         <v>75</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J237" s="1">
         <v>42</v>
@@ -22646,7 +22646,7 @@
         <v>883</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="G238" s="1">
         <v>100</v>
@@ -22655,7 +22655,7 @@
         <v>45</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J238" s="1">
         <v>159</v>
@@ -22735,7 +22735,7 @@
         <v>45</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J239" s="1">
         <v>61</v>
@@ -22815,7 +22815,7 @@
         <v>45</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J240" s="1">
         <v>72</v>
@@ -22883,7 +22883,7 @@
         <v>819</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="F241" s="3" t="s">
         <v>836</v>
@@ -22895,7 +22895,7 @@
         <v>45</v>
       </c>
       <c r="I241" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J241" s="1">
         <v>73</v>
@@ -22963,7 +22963,7 @@
         <v>819</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="F242" s="3" t="s">
         <v>835</v>
@@ -22975,7 +22975,7 @@
         <v>45</v>
       </c>
       <c r="I242" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J242" s="1">
         <v>172</v>
@@ -23043,7 +23043,7 @@
         <v>819</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="F243" s="3" t="s">
         <v>837</v>
@@ -23055,7 +23055,7 @@
         <v>30</v>
       </c>
       <c r="I243" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="J243" s="1">
         <v>608</v>
@@ -23135,7 +23135,7 @@
         <v>3</v>
       </c>
       <c r="I244" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J244" s="1">
         <v>261</v>
@@ -23215,7 +23215,7 @@
         <v>3</v>
       </c>
       <c r="I245" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J245" s="1">
         <v>261</v>
@@ -23295,7 +23295,7 @@
         <v>3</v>
       </c>
       <c r="I246" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J246" s="1">
         <v>261</v>
@@ -23375,7 +23375,7 @@
         <v>45</v>
       </c>
       <c r="I247" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J247" s="1">
         <v>60</v>
@@ -23443,7 +23443,7 @@
         <v>848</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="F248" s="3" t="s">
         <v>832</v>
@@ -23455,7 +23455,7 @@
         <v>45</v>
       </c>
       <c r="I248" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J248" s="1">
         <v>144</v>
@@ -23523,7 +23523,7 @@
         <v>854</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="F249" s="3" t="s">
         <v>832</v>
@@ -23535,7 +23535,7 @@
         <v>45</v>
       </c>
       <c r="I249" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J249" s="1">
         <v>270</v>
@@ -23615,7 +23615,7 @@
         <v>3</v>
       </c>
       <c r="I250" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J250" s="1">
         <v>306</v>
@@ -23695,7 +23695,7 @@
         <v>3</v>
       </c>
       <c r="I251" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J251" s="1">
         <v>306</v>
@@ -23763,7 +23763,7 @@
         <v>838</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="F252" s="3" t="s">
         <v>836</v>
@@ -23775,7 +23775,7 @@
         <v>45</v>
       </c>
       <c r="I252" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J252" s="1">
         <v>270</v>
@@ -23855,7 +23855,7 @@
         <v>45</v>
       </c>
       <c r="I253" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J253" s="1">
         <v>62</v>
@@ -23935,7 +23935,7 @@
         <v>45</v>
       </c>
       <c r="I254" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J254" s="1">
         <v>142</v>
@@ -24015,7 +24015,7 @@
         <v>45</v>
       </c>
       <c r="I255" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J255" s="1">
         <v>239</v>
@@ -24095,7 +24095,7 @@
         <v>45</v>
       </c>
       <c r="I256" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J256" s="1">
         <v>62</v>
@@ -24175,7 +24175,7 @@
         <v>45</v>
       </c>
       <c r="I257" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J257" s="1">
         <v>142</v>
@@ -24255,7 +24255,7 @@
         <v>45</v>
       </c>
       <c r="I258" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J258" s="1">
         <v>239</v>
@@ -24326,7 +24326,7 @@
         <v>857</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="G259" s="1" t="s">
         <v>820</v>
@@ -24335,7 +24335,7 @@
         <v>45</v>
       </c>
       <c r="I259" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J259" s="1">
         <v>62</v>
@@ -24406,7 +24406,7 @@
         <v>857</v>
       </c>
       <c r="F260" s="3" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="G260" s="1" t="s">
         <v>820</v>
@@ -24415,7 +24415,7 @@
         <v>45</v>
       </c>
       <c r="I260" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J260" s="1">
         <v>142</v>
@@ -24486,7 +24486,7 @@
         <v>857</v>
       </c>
       <c r="F261" s="3" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="G261" s="1" t="s">
         <v>820</v>
@@ -24495,7 +24495,7 @@
         <v>45</v>
       </c>
       <c r="I261" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J261" s="1">
         <v>241</v>
@@ -24563,7 +24563,7 @@
         <v>819</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="F262" s="3" t="s">
         <v>835</v>
@@ -24575,7 +24575,7 @@
         <v>255</v>
       </c>
       <c r="I262" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J262" s="1">
         <v>56</v>
@@ -24643,7 +24643,7 @@
         <v>819</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="F263" s="3" t="s">
         <v>835</v>
@@ -24655,7 +24655,7 @@
         <v>127</v>
       </c>
       <c r="I263" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J263" s="1">
         <v>147</v>
@@ -24735,7 +24735,7 @@
         <v>255</v>
       </c>
       <c r="I264" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J264" s="1">
         <v>56</v>
@@ -24815,7 +24815,7 @@
         <v>90</v>
       </c>
       <c r="I265" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J265" s="1">
         <v>147</v>
@@ -24883,7 +24883,7 @@
         <v>819</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="F266" s="3" t="s">
         <v>833</v>
@@ -24895,7 +24895,7 @@
         <v>255</v>
       </c>
       <c r="I266" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J266" s="1">
         <v>56</v>
@@ -24963,7 +24963,7 @@
         <v>819</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="F267" s="3" t="s">
         <v>833</v>
@@ -24975,7 +24975,7 @@
         <v>120</v>
       </c>
       <c r="I267" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J267" s="1">
         <v>72</v>
@@ -25055,7 +25055,7 @@
         <v>45</v>
       </c>
       <c r="I268" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J268" s="1">
         <v>178</v>
@@ -25123,7 +25123,7 @@
         <v>819</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="F269" s="3" t="s">
         <v>833</v>
@@ -25135,7 +25135,7 @@
         <v>120</v>
       </c>
       <c r="I269" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J269" s="1">
         <v>72</v>
@@ -25203,7 +25203,7 @@
         <v>844</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="F270" s="3" t="s">
         <v>833</v>
@@ -25215,7 +25215,7 @@
         <v>45</v>
       </c>
       <c r="I270" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J270" s="1">
         <v>173</v>
@@ -25283,10 +25283,10 @@
         <v>838</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="F271" s="3" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="G271" s="1">
         <v>50</v>
@@ -25295,7 +25295,7 @@
         <v>255</v>
       </c>
       <c r="I271" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J271" s="1">
         <v>44</v>
@@ -25363,10 +25363,10 @@
         <v>838</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="F272" s="3" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="G272" s="1">
         <v>50</v>
@@ -25375,7 +25375,7 @@
         <v>120</v>
       </c>
       <c r="I272" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J272" s="1">
         <v>119</v>
@@ -25443,10 +25443,10 @@
         <v>838</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="F273" s="3" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="G273" s="1">
         <v>50</v>
@@ -25455,7 +25455,7 @@
         <v>45</v>
       </c>
       <c r="I273" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J273" s="1">
         <v>216</v>
@@ -25523,7 +25523,7 @@
         <v>819</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="F274" s="3" t="s">
         <v>919</v>
@@ -25535,7 +25535,7 @@
         <v>255</v>
       </c>
       <c r="I274" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J274" s="1">
         <v>44</v>
@@ -25603,7 +25603,7 @@
         <v>854</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="F275" s="3" t="s">
         <v>919</v>
@@ -25615,7 +25615,7 @@
         <v>120</v>
       </c>
       <c r="I275" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J275" s="1">
         <v>119</v>
@@ -25683,7 +25683,7 @@
         <v>854</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="F276" s="3" t="s">
         <v>919</v>
@@ -25695,7 +25695,7 @@
         <v>45</v>
       </c>
       <c r="I276" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J276" s="1">
         <v>216</v>
@@ -25775,7 +25775,7 @@
         <v>200</v>
       </c>
       <c r="I277" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J277" s="1">
         <v>54</v>
@@ -25855,7 +25855,7 @@
         <v>45</v>
       </c>
       <c r="I278" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J278" s="1">
         <v>159</v>
@@ -25923,10 +25923,10 @@
         <v>834</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="F279" s="3" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="G279" s="1">
         <v>50</v>
@@ -25935,7 +25935,7 @@
         <v>190</v>
       </c>
       <c r="I279" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J279" s="1">
         <v>54</v>
@@ -26003,10 +26003,10 @@
         <v>834</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="F280" s="3" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="G280" s="1">
         <v>50</v>
@@ -26015,7 +26015,7 @@
         <v>45</v>
       </c>
       <c r="I280" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J280" s="1">
         <v>154</v>
@@ -26095,7 +26095,7 @@
         <v>235</v>
       </c>
       <c r="I281" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J281" s="1">
         <v>40</v>
@@ -26175,7 +26175,7 @@
         <v>120</v>
       </c>
       <c r="I282" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J282" s="1">
         <v>97</v>
@@ -26255,7 +26255,7 @@
         <v>45</v>
       </c>
       <c r="I283" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J283" s="1">
         <v>233</v>
@@ -26323,10 +26323,10 @@
         <v>843</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="F284" s="3" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="G284" s="1">
         <v>50</v>
@@ -26335,7 +26335,7 @@
         <v>200</v>
       </c>
       <c r="I284" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J284" s="1">
         <v>54</v>
@@ -26406,7 +26406,7 @@
         <v>870</v>
       </c>
       <c r="F285" s="3" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="G285" s="1">
         <v>50</v>
@@ -26415,7 +26415,7 @@
         <v>75</v>
       </c>
       <c r="I285" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J285" s="1">
         <v>159</v>
@@ -26483,7 +26483,7 @@
         <v>819</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="F286" s="3" t="s">
         <v>918</v>
@@ -26495,7 +26495,7 @@
         <v>255</v>
       </c>
       <c r="I286" s="1" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="J286" s="1">
         <v>59</v>
@@ -26563,7 +26563,7 @@
         <v>847</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="F287" s="3" t="s">
         <v>918</v>
@@ -26575,7 +26575,7 @@
         <v>90</v>
       </c>
       <c r="I287" s="1" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="J287" s="1">
         <v>161</v>
@@ -26655,7 +26655,7 @@
         <v>255</v>
       </c>
       <c r="I288" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J288" s="1">
         <v>56</v>
@@ -26723,7 +26723,7 @@
         <v>819</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="F289" s="3" t="s">
         <v>835</v>
@@ -26735,7 +26735,7 @@
         <v>120</v>
       </c>
       <c r="I289" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J289" s="1">
         <v>154</v>
@@ -26815,7 +26815,7 @@
         <v>45</v>
       </c>
       <c r="I290" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J290" s="1">
         <v>252</v>
@@ -26883,7 +26883,7 @@
         <v>848</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="F291" s="3" t="s">
         <v>833</v>
@@ -26895,7 +26895,7 @@
         <v>255</v>
       </c>
       <c r="I291" s="1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="J291" s="1">
         <v>53</v>
@@ -26963,7 +26963,7 @@
         <v>834</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="F292" s="3" t="s">
         <v>833</v>
@@ -26975,7 +26975,7 @@
         <v>120</v>
       </c>
       <c r="I292" s="1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="J292" s="1">
         <v>160</v>
@@ -27043,7 +27043,7 @@
         <v>850</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="F293" s="3" t="s">
         <v>839</v>
@@ -27055,7 +27055,7 @@
         <v>45</v>
       </c>
       <c r="I293" s="1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="J293" s="1">
         <v>83</v>
@@ -27135,7 +27135,7 @@
         <v>190</v>
       </c>
       <c r="I294" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J294" s="1">
         <v>48</v>
@@ -27215,7 +27215,7 @@
         <v>120</v>
       </c>
       <c r="I295" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J295" s="1">
         <v>126</v>
@@ -27295,7 +27295,7 @@
         <v>45</v>
       </c>
       <c r="I296" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J296" s="1">
         <v>221</v>
@@ -27363,10 +27363,10 @@
         <v>819</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="G297" s="1">
         <v>75</v>
@@ -27375,7 +27375,7 @@
         <v>180</v>
       </c>
       <c r="I297" s="1" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="J297" s="1">
         <v>47</v>
@@ -27443,10 +27443,10 @@
         <v>819</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="G298" s="1">
         <v>75</v>
@@ -27455,7 +27455,7 @@
         <v>200</v>
       </c>
       <c r="I298" s="1" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="J298" s="1">
         <v>166</v>
@@ -27523,7 +27523,7 @@
         <v>819</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="F299" s="3" t="s">
         <v>836</v>
@@ -27535,7 +27535,7 @@
         <v>150</v>
       </c>
       <c r="I299" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="J299" s="1">
         <v>38</v>
@@ -27603,7 +27603,7 @@
         <v>819</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="F300" s="3" t="s">
         <v>839</v>
@@ -27615,7 +27615,7 @@
         <v>255</v>
       </c>
       <c r="I300" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J300" s="1">
         <v>75</v>
@@ -27683,7 +27683,7 @@
         <v>819</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="F301" s="3" t="s">
         <v>913</v>
@@ -27695,7 +27695,7 @@
         <v>255</v>
       </c>
       <c r="I301" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="J301" s="1">
         <v>52</v>
@@ -27763,7 +27763,7 @@
         <v>819</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="F302" s="3" t="s">
         <v>913</v>
@@ -27775,7 +27775,7 @@
         <v>60</v>
       </c>
       <c r="I302" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="J302" s="1">
         <v>140</v>
@@ -27843,10 +27843,10 @@
         <v>850</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="G303" s="1">
         <v>50</v>
@@ -27855,7 +27855,7 @@
         <v>45</v>
       </c>
       <c r="I303" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J303" s="1">
         <v>133</v>
@@ -27923,7 +27923,7 @@
         <v>819</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="F304" s="3" t="s">
         <v>913</v>
@@ -27935,7 +27935,7 @@
         <v>45</v>
       </c>
       <c r="I304" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="J304" s="1">
         <v>133</v>
@@ -28003,7 +28003,7 @@
         <v>849</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="F305" s="3" t="s">
         <v>832</v>
@@ -28015,7 +28015,7 @@
         <v>180</v>
       </c>
       <c r="I305" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J305" s="1">
         <v>66</v>
@@ -28083,7 +28083,7 @@
         <v>849</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="F306" s="3" t="s">
         <v>832</v>
@@ -28095,7 +28095,7 @@
         <v>90</v>
       </c>
       <c r="I306" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J306" s="1">
         <v>151</v>
@@ -28163,7 +28163,7 @@
         <v>849</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="F307" s="3" t="s">
         <v>832</v>
@@ -28175,7 +28175,7 @@
         <v>45</v>
       </c>
       <c r="I307" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J307" s="1">
         <v>239</v>
@@ -28243,10 +28243,10 @@
         <v>852</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="F308" s="3" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="G308" s="1">
         <v>50</v>
@@ -28255,7 +28255,7 @@
         <v>180</v>
       </c>
       <c r="I308" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J308" s="1">
         <v>56</v>
@@ -28323,10 +28323,10 @@
         <v>852</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="F309" s="3" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="G309" s="1">
         <v>50</v>
@@ -28335,7 +28335,7 @@
         <v>90</v>
       </c>
       <c r="I309" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J309" s="1">
         <v>144</v>
@@ -28403,7 +28403,7 @@
         <v>819</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="F310" s="3" t="s">
         <v>835</v>
@@ -28415,7 +28415,7 @@
         <v>120</v>
       </c>
       <c r="I310" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J310" s="1">
         <v>59</v>
@@ -28483,7 +28483,7 @@
         <v>819</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="F311" s="3" t="s">
         <v>835</v>
@@ -28495,7 +28495,7 @@
         <v>45</v>
       </c>
       <c r="I311" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J311" s="1">
         <v>166</v>
@@ -28575,7 +28575,7 @@
         <v>200</v>
       </c>
       <c r="I312" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J312" s="1">
         <v>142</v>
@@ -28655,7 +28655,7 @@
         <v>200</v>
       </c>
       <c r="I313" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J313" s="1">
         <v>142</v>
@@ -28726,7 +28726,7 @@
         <v>891</v>
       </c>
       <c r="F314" s="3" t="s">
-        <v>920</v>
+        <v>1099</v>
       </c>
       <c r="G314" s="1">
         <v>100</v>
@@ -28735,7 +28735,7 @@
         <v>150</v>
       </c>
       <c r="I314" s="1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="J314" s="1">
         <v>151</v>
@@ -28803,10 +28803,10 @@
         <v>819</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="F315" s="3" t="s">
-        <v>920</v>
+        <v>1099</v>
       </c>
       <c r="G315" s="1">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>150</v>
       </c>
       <c r="I315" s="1" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="J315" s="1">
         <v>151</v>
@@ -28883,7 +28883,7 @@
         <v>844</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="F316" s="3" t="s">
         <v>918</v>
@@ -28895,7 +28895,7 @@
         <v>150</v>
       </c>
       <c r="I316" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J316" s="1">
         <v>140</v>
@@ -28963,7 +28963,7 @@
         <v>819</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="F317" s="3" t="s">
         <v>840</v>
@@ -28975,7 +28975,7 @@
         <v>225</v>
       </c>
       <c r="I317" s="1" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="J317" s="1">
         <v>60</v>
@@ -29043,7 +29043,7 @@
         <v>819</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="F318" s="3" t="s">
         <v>840</v>
@@ -29055,7 +29055,7 @@
         <v>75</v>
       </c>
       <c r="I318" s="1" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="J318" s="1">
         <v>163</v>
@@ -29123,10 +29123,10 @@
         <v>854</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="F319" s="3" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="G319" s="1">
         <v>50</v>
@@ -29135,7 +29135,7 @@
         <v>225</v>
       </c>
       <c r="I319" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J319" s="1">
         <v>61</v>
@@ -29203,10 +29203,10 @@
         <v>854</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="F320" s="3" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="G320" s="1">
         <v>50</v>
@@ -29215,7 +29215,7 @@
         <v>60</v>
       </c>
       <c r="I320" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J320" s="1">
         <v>161</v>
@@ -29283,10 +29283,10 @@
         <v>819</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="F321" s="3" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="G321" s="1">
         <v>50</v>
@@ -29295,7 +29295,7 @@
         <v>125</v>
       </c>
       <c r="I321" s="1" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="J321" s="1">
         <v>80</v>
@@ -29363,10 +29363,10 @@
         <v>819</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="F322" s="3" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="G322" s="1">
         <v>50</v>
@@ -29375,7 +29375,7 @@
         <v>60</v>
       </c>
       <c r="I322" s="1" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="J322" s="1">
         <v>175</v>
@@ -29455,7 +29455,7 @@
         <v>255</v>
       </c>
       <c r="I323" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J323" s="1">
         <v>61</v>
@@ -29523,7 +29523,7 @@
         <v>848</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="F324" s="3" t="s">
         <v>835</v>
@@ -29535,7 +29535,7 @@
         <v>150</v>
       </c>
       <c r="I324" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J324" s="1">
         <v>161</v>
@@ -29603,7 +29603,7 @@
         <v>819</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="F325" s="3" t="s">
         <v>835</v>
@@ -29615,7 +29615,7 @@
         <v>90</v>
       </c>
       <c r="I325" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J325" s="1">
         <v>165</v>
@@ -29683,7 +29683,7 @@
         <v>819</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="F326" s="3" t="s">
         <v>835</v>
@@ -29695,7 +29695,7 @@
         <v>255</v>
       </c>
       <c r="I326" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="J326" s="1">
         <v>66</v>
@@ -29763,7 +29763,7 @@
         <v>819</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="F327" s="3" t="s">
         <v>835</v>
@@ -29775,7 +29775,7 @@
         <v>60</v>
       </c>
       <c r="I327" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="J327" s="1">
         <v>165</v>
@@ -29843,10 +29843,10 @@
         <v>819</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="F328" s="3" t="s">
-        <v>921</v>
+        <v>1100</v>
       </c>
       <c r="G328" s="1">
         <v>50</v>
@@ -29855,7 +29855,7 @@
         <v>255</v>
       </c>
       <c r="I328" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="J328" s="1">
         <v>126</v>
@@ -29923,7 +29923,7 @@
         <v>819</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="F329" s="3" t="s">
         <v>833</v>
@@ -29935,7 +29935,7 @@
         <v>255</v>
       </c>
       <c r="I329" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J329" s="1">
         <v>58</v>
@@ -30015,7 +30015,7 @@
         <v>120</v>
       </c>
       <c r="I330" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J330" s="1">
         <v>119</v>
@@ -30095,7 +30095,7 @@
         <v>45</v>
       </c>
       <c r="I331" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J331" s="1">
         <v>234</v>
@@ -30163,10 +30163,10 @@
         <v>819</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="F332" s="3" t="s">
-        <v>922</v>
+        <v>1101</v>
       </c>
       <c r="G332" s="1">
         <v>50</v>
@@ -30175,7 +30175,7 @@
         <v>190</v>
       </c>
       <c r="I332" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J332" s="1">
         <v>67</v>
@@ -30243,10 +30243,10 @@
         <v>854</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="F333" s="3" t="s">
-        <v>922</v>
+        <v>1101</v>
       </c>
       <c r="G333" s="1">
         <v>50</v>
@@ -30255,7 +30255,7 @@
         <v>60</v>
       </c>
       <c r="I333" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J333" s="1">
         <v>166</v>
@@ -30323,10 +30323,10 @@
         <v>834</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="F334" s="3" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="G334" s="1">
         <v>50</v>
@@ -30335,7 +30335,7 @@
         <v>255</v>
       </c>
       <c r="I334" s="1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="J334" s="1">
         <v>62</v>
@@ -30403,10 +30403,10 @@
         <v>834</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="F335" s="3" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="G335" s="1">
         <v>50</v>
@@ -30415,7 +30415,7 @@
         <v>45</v>
       </c>
       <c r="I335" s="1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="J335" s="1">
         <v>172</v>
@@ -30495,7 +30495,7 @@
         <v>90</v>
       </c>
       <c r="I336" s="1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="J336" s="1">
         <v>160</v>
@@ -30563,7 +30563,7 @@
         <v>819</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="F337" s="3" t="s">
         <v>912</v>
@@ -30575,7 +30575,7 @@
         <v>90</v>
       </c>
       <c r="I337" s="1" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="J337" s="1">
         <v>160</v>
@@ -30655,7 +30655,7 @@
         <v>45</v>
       </c>
       <c r="I338" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="J338" s="1">
         <v>161</v>
@@ -30735,7 +30735,7 @@
         <v>45</v>
       </c>
       <c r="I339" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="J339" s="1">
         <v>161</v>
@@ -30806,7 +30806,7 @@
         <v>894</v>
       </c>
       <c r="F340" s="3" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="G340" s="1">
         <v>50</v>
@@ -30815,7 +30815,7 @@
         <v>190</v>
       </c>
       <c r="I340" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J340" s="1">
         <v>58</v>
@@ -30886,7 +30886,7 @@
         <v>894</v>
       </c>
       <c r="F341" s="3" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="G341" s="1">
         <v>50</v>
@@ -30895,7 +30895,7 @@
         <v>75</v>
       </c>
       <c r="I341" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J341" s="1">
         <v>164</v>
@@ -30963,10 +30963,10 @@
         <v>819</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="F342" s="3" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="G342" s="1">
         <v>50</v>
@@ -30975,7 +30975,7 @@
         <v>205</v>
       </c>
       <c r="I342" s="1" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="J342" s="1">
         <v>62</v>
@@ -31043,10 +31043,10 @@
         <v>854</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="F343" s="3" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="G343" s="1">
         <v>50</v>
@@ -31055,7 +31055,7 @@
         <v>155</v>
       </c>
       <c r="I343" s="1" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="J343" s="1">
         <v>164</v>
@@ -31135,7 +31135,7 @@
         <v>255</v>
       </c>
       <c r="I344" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J344" s="1">
         <v>60</v>
@@ -31215,7 +31215,7 @@
         <v>90</v>
       </c>
       <c r="I345" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J345" s="1">
         <v>175</v>
@@ -31283,10 +31283,10 @@
         <v>838</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="F346" s="3" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="G346" s="1" t="s">
         <v>820</v>
@@ -31295,7 +31295,7 @@
         <v>45</v>
       </c>
       <c r="I346" s="1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="J346" s="1">
         <v>71</v>
@@ -31363,10 +31363,10 @@
         <v>838</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="F347" s="3" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="G347" s="1" t="s">
         <v>820</v>
@@ -31375,7 +31375,7 @@
         <v>45</v>
       </c>
       <c r="I347" s="1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="J347" s="1">
         <v>173</v>
@@ -31443,10 +31443,10 @@
         <v>833</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="F348" s="3" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="G348" s="1" t="s">
         <v>820</v>
@@ -31455,7 +31455,7 @@
         <v>45</v>
       </c>
       <c r="I348" s="1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="J348" s="1">
         <v>71</v>
@@ -31523,10 +31523,10 @@
         <v>833</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="F349" s="3" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="G349" s="1" t="s">
         <v>820</v>
@@ -31535,7 +31535,7 @@
         <v>45</v>
       </c>
       <c r="I349" s="1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="J349" s="1">
         <v>173</v>
@@ -31603,10 +31603,10 @@
         <v>819</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="F350" s="3" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="G350" s="1">
         <v>50</v>
@@ -31615,7 +31615,7 @@
         <v>255</v>
       </c>
       <c r="I350" s="1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="J350" s="1">
         <v>40</v>
@@ -31683,10 +31683,10 @@
         <v>819</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="F351" s="3" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="G351" s="1">
         <v>50</v>
@@ -31695,7 +31695,7 @@
         <v>60</v>
       </c>
       <c r="I351" s="1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="J351" s="1">
         <v>189</v>
@@ -31766,7 +31766,7 @@
         <v>895</v>
       </c>
       <c r="F352" s="3" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="G352" s="1">
         <v>50</v>
@@ -31775,7 +31775,7 @@
         <v>45</v>
       </c>
       <c r="I352" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J352" s="1">
         <v>147</v>
@@ -31843,7 +31843,7 @@
         <v>819</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="F353" s="3" t="s">
         <v>835</v>
@@ -31855,7 +31855,7 @@
         <v>200</v>
       </c>
       <c r="I353" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J353" s="1">
         <v>154</v>
@@ -31935,7 +31935,7 @@
         <v>225</v>
       </c>
       <c r="I354" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="J354" s="1">
         <v>59</v>
@@ -32015,7 +32015,7 @@
         <v>45</v>
       </c>
       <c r="I355" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="J355" s="1">
         <v>159</v>
@@ -32095,7 +32095,7 @@
         <v>190</v>
       </c>
       <c r="I356" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="J356" s="1">
         <v>59</v>
@@ -32175,7 +32175,7 @@
         <v>90</v>
       </c>
       <c r="I357" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="J357" s="1">
         <v>159</v>
@@ -32243,7 +32243,7 @@
         <v>834</v>
       </c>
       <c r="E358" s="1" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="F358" s="3" t="s">
         <v>910</v>
@@ -32255,7 +32255,7 @@
         <v>200</v>
       </c>
       <c r="I358" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J358" s="1">
         <v>161</v>
@@ -32335,7 +32335,7 @@
         <v>45</v>
       </c>
       <c r="I359" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="J359" s="1">
         <v>159</v>
@@ -32403,7 +32403,7 @@
         <v>819</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="F360" s="3" t="s">
         <v>835</v>
@@ -32415,7 +32415,7 @@
         <v>30</v>
       </c>
       <c r="I360" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J360" s="1">
         <v>163</v>
@@ -32483,7 +32483,7 @@
         <v>819</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="F361" s="3" t="s">
         <v>836</v>
@@ -32495,7 +32495,7 @@
         <v>125</v>
       </c>
       <c r="I361" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J361" s="1">
         <v>52</v>
@@ -32563,10 +32563,10 @@
         <v>819</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="F362" s="3" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="G362" s="1">
         <v>50</v>
@@ -32575,7 +32575,7 @@
         <v>190</v>
       </c>
       <c r="I362" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J362" s="1">
         <v>60</v>
@@ -32643,10 +32643,10 @@
         <v>819</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="F363" s="3" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="G363" s="1">
         <v>50</v>
@@ -32655,7 +32655,7 @@
         <v>75</v>
       </c>
       <c r="I363" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J363" s="1">
         <v>168</v>
@@ -32723,10 +32723,10 @@
         <v>843</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="F364" s="3" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="G364" s="1">
         <v>50</v>
@@ -32735,7 +32735,7 @@
         <v>255</v>
       </c>
       <c r="I364" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J364" s="1">
         <v>58</v>
@@ -32803,10 +32803,10 @@
         <v>843</v>
       </c>
       <c r="E365" s="1" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="F365" s="3" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="G365" s="1">
         <v>50</v>
@@ -32815,7 +32815,7 @@
         <v>120</v>
       </c>
       <c r="I365" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J365" s="1">
         <v>144</v>
@@ -32883,10 +32883,10 @@
         <v>843</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="F366" s="3" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="G366" s="1">
         <v>50</v>
@@ -32895,7 +32895,7 @@
         <v>45</v>
       </c>
       <c r="I366" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J366" s="1">
         <v>239</v>
@@ -32963,10 +32963,10 @@
         <v>819</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="F367" s="3" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="G367" s="1">
         <v>50</v>
@@ -32975,7 +32975,7 @@
         <v>255</v>
       </c>
       <c r="I367" s="1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="J367" s="1">
         <v>69</v>
@@ -33043,10 +33043,10 @@
         <v>819</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="F368" s="3" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="G368" s="1">
         <v>50</v>
@@ -33055,7 +33055,7 @@
         <v>60</v>
       </c>
       <c r="I368" s="1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="J368" s="1">
         <v>170</v>
@@ -33123,10 +33123,10 @@
         <v>819</v>
       </c>
       <c r="E369" s="1" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="F369" s="3" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="G369" s="1">
         <v>50</v>
@@ -33135,7 +33135,7 @@
         <v>60</v>
       </c>
       <c r="I369" s="1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="J369" s="1">
         <v>170</v>
@@ -33203,10 +33203,10 @@
         <v>849</v>
       </c>
       <c r="E370" s="1" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="F370" s="3" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="G370" s="1" t="s">
         <v>820</v>
@@ -33215,7 +33215,7 @@
         <v>25</v>
       </c>
       <c r="I370" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J370" s="1">
         <v>170</v>
@@ -33283,10 +33283,10 @@
         <v>819</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="F371" s="3" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="G371" s="1">
         <v>25</v>
@@ -33295,7 +33295,7 @@
         <v>225</v>
       </c>
       <c r="I371" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="J371" s="1">
         <v>116</v>
@@ -33363,7 +33363,7 @@
         <v>819</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="F372" s="3" t="s">
         <v>841</v>
@@ -33375,7 +33375,7 @@
         <v>45</v>
       </c>
       <c r="I372" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J372" s="1">
         <v>60</v>
@@ -33443,7 +33443,7 @@
         <v>819</v>
       </c>
       <c r="E373" s="1" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="F373" s="3" t="s">
         <v>841</v>
@@ -33455,7 +33455,7 @@
         <v>45</v>
       </c>
       <c r="I373" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J373" s="1">
         <v>147</v>
@@ -33535,7 +33535,7 @@
         <v>45</v>
       </c>
       <c r="I374" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J374" s="1">
         <v>270</v>
@@ -33603,7 +33603,7 @@
         <v>852</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="F375" s="3" t="s">
         <v>839</v>
@@ -33615,7 +33615,7 @@
         <v>3</v>
       </c>
       <c r="I375" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J375" s="1">
         <v>60</v>
@@ -33683,7 +33683,7 @@
         <v>852</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="F376" s="3" t="s">
         <v>839</v>
@@ -33695,7 +33695,7 @@
         <v>3</v>
       </c>
       <c r="I376" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J376" s="1">
         <v>147</v>
@@ -33763,7 +33763,7 @@
         <v>852</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="F377" s="3" t="s">
         <v>839</v>
@@ -33775,7 +33775,7 @@
         <v>3</v>
       </c>
       <c r="I377" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J377" s="1">
         <v>270</v>
@@ -33843,7 +33843,7 @@
         <v>819</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="F378" s="3" t="s">
         <v>836</v>
@@ -33855,7 +33855,7 @@
         <v>3</v>
       </c>
       <c r="I378" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J378" s="1">
         <v>261</v>
@@ -33923,7 +33923,7 @@
         <v>819</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="F379" s="3" t="s">
         <v>836</v>
@@ -33935,7 +33935,7 @@
         <v>3</v>
       </c>
       <c r="I379" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J379" s="1">
         <v>261</v>
@@ -34003,7 +34003,7 @@
         <v>819</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="F380" s="3" t="s">
         <v>836</v>
@@ -34015,7 +34015,7 @@
         <v>3</v>
       </c>
       <c r="I380" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J380" s="1">
         <v>261</v>
@@ -34095,7 +34095,7 @@
         <v>3</v>
       </c>
       <c r="I381" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J381" s="1">
         <v>270</v>
@@ -34175,7 +34175,7 @@
         <v>3</v>
       </c>
       <c r="I382" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J382" s="1">
         <v>270</v>
@@ -34255,7 +34255,7 @@
         <v>3</v>
       </c>
       <c r="I383" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J383" s="1">
         <v>302</v>
@@ -34335,7 +34335,7 @@
         <v>3</v>
       </c>
       <c r="I384" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J384" s="1">
         <v>302</v>
@@ -34403,7 +34403,7 @@
         <v>834</v>
       </c>
       <c r="E385" s="1" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="F385" s="3" t="s">
         <v>836</v>
@@ -34415,7 +34415,7 @@
         <v>45</v>
       </c>
       <c r="I385" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J385" s="1">
         <v>306</v>
@@ -34483,7 +34483,7 @@
         <v>852</v>
       </c>
       <c r="E386" s="1" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="F386" s="3" t="s">
         <v>836</v>
@@ -34495,7 +34495,7 @@
         <v>3</v>
       </c>
       <c r="I386" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J386" s="1">
         <v>270</v>
@@ -34575,7 +34575,7 @@
         <v>3</v>
       </c>
       <c r="I387" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J387" s="1">
         <v>270</v>
@@ -34655,7 +34655,7 @@
         <v>45</v>
       </c>
       <c r="I388" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J388" s="1">
         <v>64</v>
@@ -34735,7 +34735,7 @@
         <v>45</v>
       </c>
       <c r="I389" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J389" s="1">
         <v>142</v>
@@ -34815,7 +34815,7 @@
         <v>45</v>
       </c>
       <c r="I390" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J390" s="1">
         <v>236</v>
@@ -34886,7 +34886,7 @@
         <v>856</v>
       </c>
       <c r="F391" s="3" t="s">
-        <v>921</v>
+        <v>1100</v>
       </c>
       <c r="G391" s="1" t="s">
         <v>820</v>
@@ -34895,7 +34895,7 @@
         <v>45</v>
       </c>
       <c r="I391" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J391" s="1">
         <v>62</v>
@@ -34966,7 +34966,7 @@
         <v>856</v>
       </c>
       <c r="F392" s="3" t="s">
-        <v>921</v>
+        <v>1100</v>
       </c>
       <c r="G392" s="1" t="s">
         <v>820</v>
@@ -34975,7 +34975,7 @@
         <v>45</v>
       </c>
       <c r="I392" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J392" s="1">
         <v>142</v>
@@ -35046,7 +35046,7 @@
         <v>856</v>
       </c>
       <c r="F393" s="3" t="s">
-        <v>921</v>
+        <v>1100</v>
       </c>
       <c r="G393" s="1" t="s">
         <v>820</v>
@@ -35055,7 +35055,7 @@
         <v>45</v>
       </c>
       <c r="I393" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J393" s="1">
         <v>240</v>
@@ -35126,7 +35126,7 @@
         <v>857</v>
       </c>
       <c r="F394" s="3" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="G394" s="1" t="s">
         <v>820</v>
@@ -35135,7 +35135,7 @@
         <v>45</v>
       </c>
       <c r="I394" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J394" s="1">
         <v>63</v>
@@ -35206,7 +35206,7 @@
         <v>857</v>
       </c>
       <c r="F395" s="3" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="G395" s="1" t="s">
         <v>820</v>
@@ -35215,7 +35215,7 @@
         <v>45</v>
       </c>
       <c r="I395" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J395" s="1">
         <v>142</v>
@@ -35286,7 +35286,7 @@
         <v>857</v>
       </c>
       <c r="F396" s="3" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="G396" s="1" t="s">
         <v>820</v>
@@ -35295,7 +35295,7 @@
         <v>45</v>
       </c>
       <c r="I396" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J396" s="1">
         <v>239</v>
@@ -35363,7 +35363,7 @@
         <v>834</v>
       </c>
       <c r="E397" s="1" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="F397" s="3" t="s">
         <v>834</v>
@@ -35375,7 +35375,7 @@
         <v>255</v>
       </c>
       <c r="I397" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J397" s="1">
         <v>49</v>
@@ -35455,7 +35455,7 @@
         <v>120</v>
       </c>
       <c r="I398" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J398" s="1">
         <v>119</v>
@@ -35535,7 +35535,7 @@
         <v>45</v>
       </c>
       <c r="I399" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J399" s="1">
         <v>218</v>
@@ -35606,7 +35606,7 @@
         <v>899</v>
       </c>
       <c r="F400" s="3" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="G400" s="1">
         <v>50</v>
@@ -35615,7 +35615,7 @@
         <v>255</v>
       </c>
       <c r="I400" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J400" s="1">
         <v>50</v>
@@ -35686,7 +35686,7 @@
         <v>899</v>
       </c>
       <c r="F401" s="3" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="G401" s="1">
         <v>50</v>
@@ -35695,7 +35695,7 @@
         <v>127</v>
       </c>
       <c r="I401" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J401" s="1">
         <v>144</v>
@@ -35763,7 +35763,7 @@
         <v>819</v>
       </c>
       <c r="E402" s="1" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="F402" s="3" t="s">
         <v>833</v>
@@ -35775,7 +35775,7 @@
         <v>255</v>
       </c>
       <c r="I402" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J402" s="1">
         <v>39</v>
@@ -35855,7 +35855,7 @@
         <v>45</v>
       </c>
       <c r="I403" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J403" s="1">
         <v>134</v>
@@ -35935,7 +35935,7 @@
         <v>235</v>
       </c>
       <c r="I404" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J404" s="1">
         <v>53</v>
@@ -36015,7 +36015,7 @@
         <v>120</v>
       </c>
       <c r="I405" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J405" s="1">
         <v>127</v>
@@ -36095,7 +36095,7 @@
         <v>45</v>
       </c>
       <c r="I406" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J406" s="1">
         <v>235</v>
@@ -36163,7 +36163,7 @@
         <v>844</v>
       </c>
       <c r="E407" s="1" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="F407" s="3" t="s">
         <v>836</v>
@@ -36175,7 +36175,7 @@
         <v>255</v>
       </c>
       <c r="I407" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J407" s="1">
         <v>56</v>
@@ -36243,7 +36243,7 @@
         <v>844</v>
       </c>
       <c r="E408" s="1" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="F408" s="3" t="s">
         <v>918</v>
@@ -36255,7 +36255,7 @@
         <v>75</v>
       </c>
       <c r="I408" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J408" s="1">
         <v>232</v>
@@ -36323,7 +36323,7 @@
         <v>819</v>
       </c>
       <c r="E409" s="1" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="F409" s="3" t="s">
         <v>832</v>
@@ -36335,7 +36335,7 @@
         <v>45</v>
       </c>
       <c r="I409" s="1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="J409" s="1">
         <v>70</v>
@@ -36403,7 +36403,7 @@
         <v>819</v>
       </c>
       <c r="E410" s="1" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="F410" s="3" t="s">
         <v>832</v>
@@ -36415,7 +36415,7 @@
         <v>45</v>
       </c>
       <c r="I410" s="1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="J410" s="1">
         <v>173</v>
@@ -36495,7 +36495,7 @@
         <v>45</v>
       </c>
       <c r="I411" s="1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="J411" s="1">
         <v>70</v>
@@ -36575,7 +36575,7 @@
         <v>45</v>
       </c>
       <c r="I412" s="1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="J412" s="1">
         <v>173</v>
@@ -36643,7 +36643,7 @@
         <v>819</v>
       </c>
       <c r="E413" s="1" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="F413" s="3" t="s">
         <v>833</v>
@@ -36655,7 +36655,7 @@
         <v>120</v>
       </c>
       <c r="I413" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J413" s="1">
         <v>45</v>
@@ -36735,7 +36735,7 @@
         <v>45</v>
       </c>
       <c r="I414" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J414" s="1">
         <v>148</v>
@@ -36815,7 +36815,7 @@
         <v>45</v>
       </c>
       <c r="I415" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J415" s="1">
         <v>148</v>
@@ -36883,7 +36883,7 @@
         <v>834</v>
       </c>
       <c r="E416" s="1" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="F416" s="3" t="s">
         <v>833</v>
@@ -36895,7 +36895,7 @@
         <v>120</v>
       </c>
       <c r="I416" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J416" s="1">
         <v>49</v>
@@ -36975,7 +36975,7 @@
         <v>45</v>
       </c>
       <c r="I417" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J417" s="1">
         <v>166</v>
@@ -37043,7 +37043,7 @@
         <v>819</v>
       </c>
       <c r="E418" s="1" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="F418" s="3" t="s">
         <v>913</v>
@@ -37055,7 +37055,7 @@
         <v>200</v>
       </c>
       <c r="I418" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J418" s="1">
         <v>142</v>
@@ -37123,10 +37123,10 @@
         <v>819</v>
       </c>
       <c r="E419" s="1" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="F419" s="3" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="G419" s="1">
         <v>50</v>
@@ -37135,7 +37135,7 @@
         <v>190</v>
       </c>
       <c r="I419" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J419" s="1">
         <v>66</v>
@@ -37203,10 +37203,10 @@
         <v>819</v>
       </c>
       <c r="E420" s="1" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="F420" s="3" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="G420" s="1">
         <v>50</v>
@@ -37215,7 +37215,7 @@
         <v>75</v>
       </c>
       <c r="I420" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J420" s="1">
         <v>173</v>
@@ -37295,7 +37295,7 @@
         <v>190</v>
       </c>
       <c r="I421" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J421" s="1">
         <v>55</v>
@@ -37363,7 +37363,7 @@
         <v>819</v>
       </c>
       <c r="E422" s="1" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="F422" s="3" t="s">
         <v>918</v>
@@ -37375,7 +37375,7 @@
         <v>75</v>
       </c>
       <c r="I422" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J422" s="1">
         <v>158</v>
@@ -37443,10 +37443,10 @@
         <v>819</v>
       </c>
       <c r="E423" s="1" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="F423" s="3" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="G423" s="1">
         <v>50</v>
@@ -37455,7 +37455,7 @@
         <v>190</v>
       </c>
       <c r="I423" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J423" s="1">
         <v>65</v>
@@ -37523,10 +37523,10 @@
         <v>848</v>
       </c>
       <c r="E424" s="1" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="F424" s="3" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="G424" s="1">
         <v>50</v>
@@ -37535,7 +37535,7 @@
         <v>75</v>
       </c>
       <c r="I424" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J424" s="1">
         <v>166</v>
@@ -37615,7 +37615,7 @@
         <v>45</v>
       </c>
       <c r="I425" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="J425" s="1">
         <v>169</v>
@@ -37695,7 +37695,7 @@
         <v>125</v>
       </c>
       <c r="I426" s="1" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="J426" s="1">
         <v>70</v>
@@ -37775,7 +37775,7 @@
         <v>60</v>
       </c>
       <c r="I427" s="1" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="J427" s="1">
         <v>174</v>
@@ -37843,10 +37843,10 @@
         <v>819</v>
       </c>
       <c r="E428" s="1" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="F428" s="3" t="s">
-        <v>921</v>
+        <v>1100</v>
       </c>
       <c r="G428" s="1">
         <v>50</v>
@@ -37855,7 +37855,7 @@
         <v>190</v>
       </c>
       <c r="I428" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J428" s="1">
         <v>70</v>
@@ -37923,10 +37923,10 @@
         <v>819</v>
       </c>
       <c r="E429" s="1" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="F429" s="3" t="s">
-        <v>921</v>
+        <v>1100</v>
       </c>
       <c r="G429" s="1">
         <v>50</v>
@@ -37935,7 +37935,7 @@
         <v>60</v>
       </c>
       <c r="I429" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J429" s="1">
         <v>168</v>
@@ -38015,7 +38015,7 @@
         <v>45</v>
       </c>
       <c r="I430" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="J430" s="1">
         <v>173</v>
@@ -38083,7 +38083,7 @@
         <v>834</v>
       </c>
       <c r="E431" s="1" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="F431" s="3" t="s">
         <v>834</v>
@@ -38095,7 +38095,7 @@
         <v>30</v>
       </c>
       <c r="I431" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J431" s="1">
         <v>177</v>
@@ -38163,7 +38163,7 @@
         <v>819</v>
       </c>
       <c r="E432" s="1" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="F432" s="3" t="s">
         <v>835</v>
@@ -38175,7 +38175,7 @@
         <v>190</v>
       </c>
       <c r="I432" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="J432" s="1">
         <v>62</v>
@@ -38243,7 +38243,7 @@
         <v>819</v>
       </c>
       <c r="E433" s="1" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="F433" s="3" t="s">
         <v>835</v>
@@ -38255,7 +38255,7 @@
         <v>75</v>
       </c>
       <c r="I433" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="J433" s="1">
         <v>158</v>
@@ -38335,7 +38335,7 @@
         <v>120</v>
       </c>
       <c r="I434" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="J434" s="1">
         <v>57</v>
@@ -38415,7 +38415,7 @@
         <v>225</v>
       </c>
       <c r="I435" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J435" s="1">
         <v>66</v>
@@ -38495,7 +38495,7 @@
         <v>60</v>
       </c>
       <c r="I436" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J436" s="1">
         <v>168</v>
@@ -38575,7 +38575,7 @@
         <v>255</v>
       </c>
       <c r="I437" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J437" s="1">
         <v>60</v>
@@ -38655,7 +38655,7 @@
         <v>90</v>
       </c>
       <c r="I438" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J438" s="1">
         <v>175</v>
@@ -38723,7 +38723,7 @@
         <v>819</v>
       </c>
       <c r="E439" s="1" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="F439" s="3" t="s">
         <v>836</v>
@@ -38735,7 +38735,7 @@
         <v>255</v>
       </c>
       <c r="I439" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J439" s="1">
         <v>58</v>
@@ -38815,7 +38815,7 @@
         <v>145</v>
       </c>
       <c r="I440" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J440" s="1">
         <v>62</v>
@@ -38883,7 +38883,7 @@
         <v>819</v>
       </c>
       <c r="E441" s="1" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="F441" s="3" t="s">
         <v>836</v>
@@ -38895,7 +38895,7 @@
         <v>130</v>
       </c>
       <c r="I441" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="J441" s="1">
         <v>110</v>
@@ -38963,7 +38963,7 @@
         <v>834</v>
       </c>
       <c r="E442" s="1" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="F442" s="3" t="s">
         <v>834</v>
@@ -38975,7 +38975,7 @@
         <v>30</v>
       </c>
       <c r="I442" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J442" s="1">
         <v>144</v>
@@ -39055,7 +39055,7 @@
         <v>100</v>
       </c>
       <c r="I443" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J443" s="1">
         <v>170</v>
@@ -39123,7 +39123,7 @@
         <v>848</v>
       </c>
       <c r="E444" s="1" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="F444" s="3" t="s">
         <v>911</v>
@@ -39135,7 +39135,7 @@
         <v>45</v>
       </c>
       <c r="I444" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J444" s="1">
         <v>60</v>
@@ -39203,7 +39203,7 @@
         <v>848</v>
       </c>
       <c r="E445" s="1" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="F445" s="3" t="s">
         <v>911</v>
@@ -39215,7 +39215,7 @@
         <v>45</v>
       </c>
       <c r="I445" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J445" s="1">
         <v>144</v>
@@ -39283,7 +39283,7 @@
         <v>848</v>
       </c>
       <c r="E446" s="1" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="F446" s="3" t="s">
         <v>911</v>
@@ -39295,7 +39295,7 @@
         <v>45</v>
       </c>
       <c r="I446" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J446" s="1">
         <v>270</v>
@@ -39363,7 +39363,7 @@
         <v>819</v>
       </c>
       <c r="E447" s="1" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="F447" s="3" t="s">
         <v>836</v>
@@ -39375,7 +39375,7 @@
         <v>50</v>
       </c>
       <c r="I447" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J447" s="1">
         <v>78</v>
@@ -39443,7 +39443,7 @@
         <v>819</v>
       </c>
       <c r="E448" s="1" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F448" s="3" t="s">
         <v>836</v>
@@ -39455,7 +39455,7 @@
         <v>75</v>
       </c>
       <c r="I448" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J448" s="1">
         <v>57</v>
@@ -39523,10 +39523,10 @@
         <v>845</v>
       </c>
       <c r="E449" s="1" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F449" s="3" t="s">
-        <v>921</v>
+        <v>1100</v>
       </c>
       <c r="G449" s="1" t="s">
         <v>820</v>
@@ -39535,7 +39535,7 @@
         <v>45</v>
       </c>
       <c r="I449" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J449" s="1">
         <v>184</v>
@@ -39603,7 +39603,7 @@
         <v>819</v>
       </c>
       <c r="E450" s="1" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="F450" s="3" t="s">
         <v>835</v>
@@ -39615,7 +39615,7 @@
         <v>140</v>
       </c>
       <c r="I450" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J450" s="1">
         <v>66</v>
@@ -39683,7 +39683,7 @@
         <v>819</v>
       </c>
       <c r="E451" s="1" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="F451" s="3" t="s">
         <v>835</v>
@@ -39695,7 +39695,7 @@
         <v>60</v>
       </c>
       <c r="I451" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J451" s="1">
         <v>184</v>
@@ -39763,10 +39763,10 @@
         <v>833</v>
       </c>
       <c r="E452" s="1" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="F452" s="3" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="G452" s="1">
         <v>50</v>
@@ -39775,7 +39775,7 @@
         <v>120</v>
       </c>
       <c r="I452" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J452" s="1">
         <v>66</v>
@@ -39843,10 +39843,10 @@
         <v>854</v>
       </c>
       <c r="E453" s="1" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="F453" s="3" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="G453" s="1">
         <v>50</v>
@@ -39855,7 +39855,7 @@
         <v>45</v>
       </c>
       <c r="I453" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J453" s="1">
         <v>175</v>
@@ -39923,10 +39923,10 @@
         <v>847</v>
       </c>
       <c r="E454" s="1" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F454" s="3" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="G454" s="1">
         <v>50</v>
@@ -39935,7 +39935,7 @@
         <v>140</v>
       </c>
       <c r="I454" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J454" s="1">
         <v>60</v>
@@ -40003,10 +40003,10 @@
         <v>847</v>
       </c>
       <c r="E455" s="1" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F455" s="3" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="G455" s="1">
         <v>50</v>
@@ -40015,7 +40015,7 @@
         <v>75</v>
       </c>
       <c r="I455" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J455" s="1">
         <v>172</v>
@@ -40095,7 +40095,7 @@
         <v>200</v>
       </c>
       <c r="I456" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J456" s="1">
         <v>159</v>
@@ -40163,10 +40163,10 @@
         <v>819</v>
       </c>
       <c r="E457" s="1" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F457" s="3" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="G457" s="1">
         <v>50</v>
@@ -40175,7 +40175,7 @@
         <v>190</v>
       </c>
       <c r="I457" s="1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="J457" s="1">
         <v>66</v>
@@ -40243,10 +40243,10 @@
         <v>819</v>
       </c>
       <c r="E458" s="1" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F458" s="3" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="G458" s="1">
         <v>50</v>
@@ -40255,7 +40255,7 @@
         <v>75</v>
       </c>
       <c r="I458" s="1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="J458" s="1">
         <v>161</v>
@@ -40323,7 +40323,7 @@
         <v>834</v>
       </c>
       <c r="E459" s="1" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="F459" s="3" t="s">
         <v>836</v>
@@ -40335,7 +40335,7 @@
         <v>25</v>
       </c>
       <c r="I459" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J459" s="1">
         <v>69</v>
@@ -40403,7 +40403,7 @@
         <v>853</v>
       </c>
       <c r="E460" s="1" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="F460" s="3" t="s">
         <v>910</v>
@@ -40415,7 +40415,7 @@
         <v>120</v>
       </c>
       <c r="I460" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J460" s="1">
         <v>67</v>
@@ -40483,7 +40483,7 @@
         <v>853</v>
       </c>
       <c r="E461" s="1" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="F461" s="3" t="s">
         <v>910</v>
@@ -40495,7 +40495,7 @@
         <v>60</v>
       </c>
       <c r="I461" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J461" s="1">
         <v>173</v>
@@ -40575,7 +40575,7 @@
         <v>45</v>
       </c>
       <c r="I462" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J462" s="1">
         <v>179</v>
@@ -40643,7 +40643,7 @@
         <v>845</v>
       </c>
       <c r="E463" s="1" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="F463" s="3" t="s">
         <v>839</v>
@@ -40655,7 +40655,7 @@
         <v>30</v>
       </c>
       <c r="I463" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J463" s="1">
         <v>241</v>
@@ -40723,7 +40723,7 @@
         <v>819</v>
       </c>
       <c r="E464" s="1" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="F464" s="3" t="s">
         <v>832</v>
@@ -40735,7 +40735,7 @@
         <v>30</v>
       </c>
       <c r="I464" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J464" s="1">
         <v>180</v>
@@ -40803,7 +40803,7 @@
         <v>849</v>
       </c>
       <c r="E465" s="1" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="F465" s="3" t="s">
         <v>914</v>
@@ -40815,7 +40815,7 @@
         <v>30</v>
       </c>
       <c r="I465" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J465" s="1">
         <v>241</v>
@@ -40883,7 +40883,7 @@
         <v>819</v>
       </c>
       <c r="E466" s="1" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="F466" s="3" t="s">
         <v>838</v>
@@ -40895,7 +40895,7 @@
         <v>30</v>
       </c>
       <c r="I466" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J466" s="1">
         <v>187</v>
@@ -40963,10 +40963,10 @@
         <v>819</v>
       </c>
       <c r="E467" s="1" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="F467" s="3" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="G467" s="1">
         <v>75</v>
@@ -40975,7 +40975,7 @@
         <v>30</v>
       </c>
       <c r="I467" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J467" s="1">
         <v>243</v>
@@ -41043,10 +41043,10 @@
         <v>819</v>
       </c>
       <c r="E468" s="1" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="F468" s="3" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="G468" s="1">
         <v>75</v>
@@ -41055,7 +41055,7 @@
         <v>30</v>
       </c>
       <c r="I468" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J468" s="1">
         <v>243</v>
@@ -41123,7 +41123,7 @@
         <v>834</v>
       </c>
       <c r="E469" s="1" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="F469" s="3" t="s">
         <v>917</v>
@@ -41135,7 +41135,7 @@
         <v>30</v>
       </c>
       <c r="I469" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="J469" s="1">
         <v>245</v>
@@ -41203,7 +41203,7 @@
         <v>834</v>
       </c>
       <c r="E470" s="1" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="F470" s="3" t="s">
         <v>833</v>
@@ -41215,7 +41215,7 @@
         <v>30</v>
       </c>
       <c r="I470" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J470" s="1">
         <v>180</v>
@@ -41283,7 +41283,7 @@
         <v>819</v>
       </c>
       <c r="E471" s="1" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="F471" s="3" t="s">
         <v>835</v>
@@ -41295,7 +41295,7 @@
         <v>45</v>
       </c>
       <c r="I471" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J471" s="1">
         <v>184</v>
@@ -41363,7 +41363,7 @@
         <v>819</v>
       </c>
       <c r="E472" s="1" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="F472" s="3" t="s">
         <v>835</v>
@@ -41375,7 +41375,7 @@
         <v>45</v>
       </c>
       <c r="I472" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J472" s="1">
         <v>184</v>
@@ -41443,7 +41443,7 @@
         <v>834</v>
       </c>
       <c r="E473" s="1" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="F473" s="3" t="s">
         <v>833</v>
@@ -41455,7 +41455,7 @@
         <v>30</v>
       </c>
       <c r="I473" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J473" s="1">
         <v>179</v>
@@ -41523,7 +41523,7 @@
         <v>848</v>
       </c>
       <c r="E474" s="1" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="F474" s="3" t="s">
         <v>835</v>
@@ -41535,7 +41535,7 @@
         <v>50</v>
       </c>
       <c r="I474" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J474" s="1">
         <v>239</v>
@@ -41615,7 +41615,7 @@
         <v>30</v>
       </c>
       <c r="I475" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J475" s="1">
         <v>241</v>
@@ -41695,7 +41695,7 @@
         <v>45</v>
       </c>
       <c r="I476" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J476" s="1">
         <v>233</v>
@@ -41763,7 +41763,7 @@
         <v>845</v>
       </c>
       <c r="E477" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="F477" s="3" t="s">
         <v>839</v>
@@ -41775,7 +41775,7 @@
         <v>60</v>
       </c>
       <c r="I477" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J477" s="1">
         <v>184</v>
@@ -41855,7 +41855,7 @@
         <v>45</v>
       </c>
       <c r="I478" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="J478" s="1">
         <v>236</v>
@@ -41923,10 +41923,10 @@
         <v>850</v>
       </c>
       <c r="E479" s="1" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="F479" s="3" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="G479" s="1">
         <v>0</v>
@@ -41935,7 +41935,7 @@
         <v>75</v>
       </c>
       <c r="I479" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J479" s="1">
         <v>168</v>
@@ -42015,7 +42015,7 @@
         <v>45</v>
       </c>
       <c r="I480" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J480" s="1">
         <v>154</v>
@@ -42095,7 +42095,7 @@
         <v>3</v>
       </c>
       <c r="I481" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J481" s="1">
         <v>261</v>
@@ -42175,7 +42175,7 @@
         <v>3</v>
       </c>
       <c r="I482" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J482" s="1">
         <v>261</v>
@@ -42255,7 +42255,7 @@
         <v>3</v>
       </c>
       <c r="I483" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J483" s="1">
         <v>261</v>
@@ -42335,7 +42335,7 @@
         <v>3</v>
       </c>
       <c r="I484" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J484" s="1">
         <v>306</v>
@@ -42415,7 +42415,7 @@
         <v>3</v>
       </c>
       <c r="I485" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J485" s="1">
         <v>306</v>
@@ -42483,7 +42483,7 @@
         <v>845</v>
       </c>
       <c r="E486" s="1" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="F486" s="3" t="s">
         <v>836</v>
@@ -42495,7 +42495,7 @@
         <v>3</v>
       </c>
       <c r="I486" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J486" s="1">
         <v>270</v>
@@ -42563,7 +42563,7 @@
         <v>819</v>
       </c>
       <c r="E487" s="1" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="F487" s="3" t="s">
         <v>836</v>
@@ -42575,7 +42575,7 @@
         <v>3</v>
       </c>
       <c r="I487" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J487" s="1">
         <v>302</v>
@@ -42655,7 +42655,7 @@
         <v>3</v>
       </c>
       <c r="I488" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J488" s="1">
         <v>306</v>
@@ -42735,7 +42735,7 @@
         <v>3</v>
       </c>
       <c r="I489" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J489" s="1">
         <v>270</v>
@@ -42806,7 +42806,7 @@
         <v>908</v>
       </c>
       <c r="F490" s="3" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="G490" s="1" t="s">
         <v>819</v>
@@ -42815,7 +42815,7 @@
         <v>30</v>
       </c>
       <c r="I490" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J490" s="1">
         <v>216</v>
@@ -42886,7 +42886,7 @@
         <v>908</v>
       </c>
       <c r="F491" s="3" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="G491" s="1" t="s">
         <v>819</v>
@@ -42895,7 +42895,7 @@
         <v>3</v>
       </c>
       <c r="I491" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J491" s="1">
         <v>270</v>
@@ -42963,7 +42963,7 @@
         <v>819</v>
       </c>
       <c r="E492" s="1" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="F492" s="3" t="s">
         <v>836</v>
@@ -42975,7 +42975,7 @@
         <v>3</v>
       </c>
       <c r="I492" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J492" s="1">
         <v>270</v>
@@ -43043,7 +43043,7 @@
         <v>838</v>
       </c>
       <c r="E493" s="1" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="F493" s="3" t="s">
         <v>836</v>
@@ -43055,7 +43055,7 @@
         <v>45</v>
       </c>
       <c r="I493" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J493" s="1">
         <v>270</v>
@@ -43135,7 +43135,7 @@
         <v>3</v>
       </c>
       <c r="I494" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J494" s="1">
         <v>324</v>

--- a/Pokemon/src/pokemon/data/pokemon_actual_values.xlsx
+++ b/Pokemon/src/pokemon/data/pokemon_actual_values.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9758B168-D488-4F8E-A368-3B545DCB4D4F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -3330,7 +3331,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3645,18 +3646,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z494"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
-      <selection activeCell="F298" sqref="F298"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3956,16 +3957,16 @@
         <v>80</v>
       </c>
       <c r="P4" s="1">
+        <v>82</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>83</v>
+      </c>
+      <c r="R4" s="1">
         <v>100</v>
       </c>
-      <c r="Q4" s="1">
-        <v>123</v>
-      </c>
-      <c r="R4" s="1">
-        <v>122</v>
-      </c>
       <c r="S4" s="1">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="T4" s="1">
         <v>80</v>
@@ -4196,16 +4197,16 @@
         <v>78</v>
       </c>
       <c r="P7" s="1">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="Q7" s="1">
         <v>78</v>
       </c>
       <c r="R7" s="1">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="S7" s="1">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="T7" s="1">
         <v>100</v>
@@ -4436,16 +4437,16 @@
         <v>79</v>
       </c>
       <c r="P10" s="1">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="Q10" s="1">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="R10" s="1">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="S10" s="1">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="T10" s="1">
         <v>78</v>
@@ -4682,7 +4683,7 @@
         <v>50</v>
       </c>
       <c r="R13" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="S13" s="1">
         <v>80</v>
@@ -4916,19 +4917,19 @@
         <v>65</v>
       </c>
       <c r="P16" s="1">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="Q16" s="1">
         <v>40</v>
       </c>
       <c r="R16" s="1">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="S16" s="1">
         <v>80</v>
       </c>
       <c r="T16" s="1">
-        <v>145</v>
+        <v>75</v>
       </c>
       <c r="U16" s="1">
         <v>0</v>
@@ -5159,16 +5160,16 @@
         <v>80</v>
       </c>
       <c r="Q19" s="1">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R19" s="1">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="S19" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="T19" s="1">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="U19" s="1">
         <v>0</v>
@@ -5313,22 +5314,22 @@
         <v>0</v>
       </c>
       <c r="O21" s="1">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="P21" s="1">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="Q21" s="1">
+        <v>60</v>
+      </c>
+      <c r="R21" s="1">
+        <v>50</v>
+      </c>
+      <c r="S21" s="1">
         <v>70</v>
       </c>
-      <c r="R21" s="1">
-        <v>40</v>
-      </c>
-      <c r="S21" s="1">
-        <v>80</v>
-      </c>
       <c r="T21" s="1">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="U21" s="1">
         <v>0</v>
@@ -5636,7 +5637,7 @@
         <v>60</v>
       </c>
       <c r="P25" s="1">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="Q25" s="1">
         <v>69</v>
@@ -5719,13 +5720,13 @@
         <v>55</v>
       </c>
       <c r="Q26" s="1">
+        <v>30</v>
+      </c>
+      <c r="R26" s="1">
+        <v>50</v>
+      </c>
+      <c r="S26" s="1">
         <v>40</v>
-      </c>
-      <c r="R26" s="1">
-        <v>50</v>
-      </c>
-      <c r="S26" s="1">
-        <v>50</v>
       </c>
       <c r="T26" s="1">
         <v>90</v>
@@ -5796,19 +5797,19 @@
         <v>60</v>
       </c>
       <c r="P27" s="1">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q27" s="1">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="R27" s="1">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="S27" s="1">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="T27" s="1">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="U27" s="1">
         <v>0</v>
@@ -5879,13 +5880,13 @@
         <v>75</v>
       </c>
       <c r="Q28" s="1">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R28" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="S28" s="1">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="T28" s="1">
         <v>40</v>
@@ -5959,13 +5960,13 @@
         <v>100</v>
       </c>
       <c r="Q29" s="1">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="R29" s="1">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="S29" s="1">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="T29" s="1">
         <v>65</v>
@@ -6196,7 +6197,7 @@
         <v>90</v>
       </c>
       <c r="P32" s="1">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="Q32" s="1">
         <v>87</v>
@@ -6436,7 +6437,7 @@
         <v>81</v>
       </c>
       <c r="P35" s="1">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="Q35" s="1">
         <v>77</v>
@@ -6602,7 +6603,7 @@
         <v>73</v>
       </c>
       <c r="R37" s="1">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="S37" s="1">
         <v>90</v>
@@ -6756,7 +6757,7 @@
         <v>73</v>
       </c>
       <c r="P39" s="1">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="Q39" s="1">
         <v>75</v>
@@ -6768,7 +6769,7 @@
         <v>100</v>
       </c>
       <c r="T39" s="1">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="U39" s="1">
         <v>0</v>
@@ -6922,7 +6923,7 @@
         <v>45</v>
       </c>
       <c r="R41" s="1">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="S41" s="1">
         <v>50</v>
@@ -7322,7 +7323,7 @@
         <v>85</v>
       </c>
       <c r="R46" s="1">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="S46" s="1">
         <v>90</v>
@@ -7719,7 +7720,7 @@
         <v>55</v>
       </c>
       <c r="Q51" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R51" s="1">
         <v>35</v>
@@ -7728,7 +7729,7 @@
         <v>45</v>
       </c>
       <c r="T51" s="1">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="U51" s="1">
         <v>0</v>
@@ -7796,10 +7797,10 @@
         <v>35</v>
       </c>
       <c r="P52" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="Q52" s="1">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R52" s="1">
         <v>50</v>
@@ -7808,7 +7809,7 @@
         <v>70</v>
       </c>
       <c r="T52" s="1">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="U52" s="1">
         <v>0</v>
@@ -7876,13 +7877,13 @@
         <v>40</v>
       </c>
       <c r="P53" s="1">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Q53" s="1">
         <v>35</v>
       </c>
       <c r="R53" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="S53" s="1">
         <v>40</v>
@@ -7956,13 +7957,13 @@
         <v>65</v>
       </c>
       <c r="P54" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="Q54" s="1">
         <v>60</v>
       </c>
       <c r="R54" s="1">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="S54" s="1">
         <v>65</v>
@@ -8676,7 +8677,7 @@
         <v>90</v>
       </c>
       <c r="P63" s="1">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="Q63" s="1">
         <v>95</v>
@@ -8919,16 +8920,16 @@
         <v>50</v>
       </c>
       <c r="Q66" s="1">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="R66" s="1">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="S66" s="1">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="T66" s="1">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="U66" s="1">
         <v>0</v>
@@ -9405,7 +9406,7 @@
         <v>100</v>
       </c>
       <c r="S72" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="T72" s="1">
         <v>70</v>
@@ -9796,7 +9797,7 @@
         <v>80</v>
       </c>
       <c r="P77" s="1">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="Q77" s="1">
         <v>130</v>
@@ -10119,10 +10120,10 @@
         <v>75</v>
       </c>
       <c r="Q81" s="1">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="R81" s="1">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="S81" s="1">
         <v>80</v>
@@ -10356,7 +10357,7 @@
         <v>52</v>
       </c>
       <c r="P84" s="1">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="Q84" s="1">
         <v>55</v>
@@ -10528,7 +10529,7 @@
         <v>60</v>
       </c>
       <c r="T86" s="1">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="U86" s="1">
         <v>0</v>
@@ -11239,16 +11240,16 @@
         <v>65</v>
       </c>
       <c r="Q95" s="1">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="R95" s="1">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="S95" s="1">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="T95" s="1">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="U95" s="1">
         <v>0</v>
@@ -11808,7 +11809,7 @@
         <v>80</v>
       </c>
       <c r="T102" s="1">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="U102" s="1">
         <v>0</v>
@@ -11956,7 +11957,7 @@
         <v>95</v>
       </c>
       <c r="P104" s="1">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="Q104" s="1">
         <v>85</v>
@@ -11965,10 +11966,10 @@
         <v>125</v>
       </c>
       <c r="S104" s="1">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="T104" s="1">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="U104" s="1">
         <v>0</v>
@@ -12916,19 +12917,19 @@
         <v>105</v>
       </c>
       <c r="P116" s="1">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="Q116" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="R116" s="1">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="S116" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="T116" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="U116" s="1">
         <v>2</v>
@@ -13876,19 +13877,19 @@
         <v>65</v>
       </c>
       <c r="P128" s="1">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="Q128" s="1">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="R128" s="1">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="S128" s="1">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="T128" s="1">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="U128" s="1">
         <v>0</v>
@@ -14116,16 +14117,16 @@
         <v>95</v>
       </c>
       <c r="P131" s="1">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="Q131" s="1">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="R131" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="S131" s="1">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="T131" s="1">
         <v>81</v>
@@ -15076,19 +15077,19 @@
         <v>80</v>
       </c>
       <c r="P143" s="1">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="Q143" s="1">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="R143" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="S143" s="1">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="T143" s="1">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="U143" s="1">
         <v>0</v>
@@ -15716,19 +15717,19 @@
         <v>106</v>
       </c>
       <c r="P151" s="1">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="Q151" s="1">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="R151" s="1">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="S151" s="1">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="T151" s="1">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="U151" s="1">
         <v>0</v>
@@ -16842,7 +16843,7 @@
         <v>50</v>
       </c>
       <c r="R165" s="1">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="S165" s="1">
         <v>96</v>
@@ -17165,7 +17166,7 @@
         <v>60</v>
       </c>
       <c r="S169" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="T169" s="1">
         <v>40</v>
@@ -18196,19 +18197,19 @@
         <v>90</v>
       </c>
       <c r="P182" s="1">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="Q182" s="1">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="R182" s="1">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="S182" s="1">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="T182" s="1">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="U182" s="1">
         <v>0</v>
@@ -18279,7 +18280,7 @@
         <v>80</v>
       </c>
       <c r="Q183" s="1">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="R183" s="1">
         <v>90</v>
@@ -18442,7 +18443,7 @@
         <v>80</v>
       </c>
       <c r="R185" s="1">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="S185" s="1">
         <v>80</v>
@@ -18845,7 +18846,7 @@
         <v>55</v>
       </c>
       <c r="S190" s="1">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="T190" s="1">
         <v>110</v>
@@ -20356,16 +20357,16 @@
         <v>75</v>
       </c>
       <c r="P209" s="1">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="Q209" s="1">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="R209" s="1">
         <v>55</v>
       </c>
       <c r="S209" s="1">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="T209" s="1">
         <v>30</v>
@@ -20599,7 +20600,7 @@
         <v>95</v>
       </c>
       <c r="Q212" s="1">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="R212" s="1">
         <v>55</v>
@@ -20676,19 +20677,19 @@
         <v>70</v>
       </c>
       <c r="P213" s="1">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="Q213" s="1">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="R213" s="1">
+        <v>55</v>
+      </c>
+      <c r="S213" s="1">
+        <v>80</v>
+      </c>
+      <c r="T213" s="1">
         <v>65</v>
-      </c>
-      <c r="S213" s="1">
-        <v>100</v>
-      </c>
-      <c r="T213" s="1">
-        <v>75</v>
       </c>
       <c r="U213" s="1">
         <v>0</v>
@@ -20836,19 +20837,19 @@
         <v>80</v>
       </c>
       <c r="P215" s="1">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="Q215" s="1">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="R215" s="1">
         <v>40</v>
       </c>
       <c r="S215" s="1">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="T215" s="1">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="U215" s="1">
         <v>0</v>
@@ -21233,7 +21234,7 @@
         <v>0</v>
       </c>
       <c r="O220" s="1">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="P220" s="1">
         <v>50</v>
@@ -21242,7 +21243,7 @@
         <v>120</v>
       </c>
       <c r="R220" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="S220" s="1">
         <v>80</v>
@@ -21473,19 +21474,19 @@
         <v>0</v>
       </c>
       <c r="O223" s="1">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="P223" s="1">
         <v>55</v>
       </c>
       <c r="Q223" s="1">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="R223" s="1">
         <v>65</v>
       </c>
       <c r="S223" s="1">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="T223" s="1">
         <v>35</v>
@@ -21793,7 +21794,7 @@
         <v>0</v>
       </c>
       <c r="O227" s="1">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="P227" s="1">
         <v>40</v>
@@ -22039,16 +22040,16 @@
         <v>90</v>
       </c>
       <c r="Q230" s="1">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="R230" s="1">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="S230" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="T230" s="1">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="U230" s="1">
         <v>0</v>
@@ -23556,19 +23557,19 @@
         <v>100</v>
       </c>
       <c r="P249" s="1">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="Q249" s="1">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="R249" s="1">
         <v>95</v>
       </c>
       <c r="S249" s="1">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="T249" s="1">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="U249" s="1">
         <v>0</v>
@@ -24036,19 +24037,19 @@
         <v>70</v>
       </c>
       <c r="P255" s="1">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="Q255" s="1">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="R255" s="1">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="S255" s="1">
         <v>85</v>
       </c>
       <c r="T255" s="1">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="U255" s="1">
         <v>0</v>
@@ -24276,19 +24277,19 @@
         <v>80</v>
       </c>
       <c r="P258" s="1">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="Q258" s="1">
+        <v>70</v>
+      </c>
+      <c r="R258" s="1">
+        <v>110</v>
+      </c>
+      <c r="S258" s="1">
+        <v>70</v>
+      </c>
+      <c r="T258" s="1">
         <v>80</v>
-      </c>
-      <c r="R258" s="1">
-        <v>130</v>
-      </c>
-      <c r="S258" s="1">
-        <v>80</v>
-      </c>
-      <c r="T258" s="1">
-        <v>100</v>
       </c>
       <c r="U258" s="1">
         <v>0</v>
@@ -24516,19 +24517,19 @@
         <v>100</v>
       </c>
       <c r="P261" s="1">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="Q261" s="1">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="R261" s="1">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="S261" s="1">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="T261" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="U261" s="1">
         <v>0</v>
@@ -25082,7 +25083,7 @@
         <v>50</v>
       </c>
       <c r="R268" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="S268" s="1">
         <v>50</v>
@@ -25882,7 +25883,7 @@
         <v>60</v>
       </c>
       <c r="R278" s="1">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="S278" s="1">
         <v>50</v>
@@ -26042,7 +26043,7 @@
         <v>100</v>
       </c>
       <c r="R280" s="1">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="S280" s="1">
         <v>70</v>
@@ -26276,19 +26277,19 @@
         <v>68</v>
       </c>
       <c r="P283" s="1">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="Q283" s="1">
         <v>65</v>
       </c>
       <c r="R283" s="1">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="S283" s="1">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="T283" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="U283" s="1">
         <v>0</v>
@@ -26442,13 +26443,13 @@
         <v>62</v>
       </c>
       <c r="R285" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="S285" s="1">
         <v>82</v>
       </c>
       <c r="T285" s="1">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="U285" s="1">
         <v>0</v>
@@ -27325,7 +27326,7 @@
         <v>91</v>
       </c>
       <c r="S296" s="1">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="T296" s="1">
         <v>68</v>
@@ -27808,7 +27809,7 @@
         <v>55</v>
       </c>
       <c r="T302" s="1">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="U302" s="1">
         <v>1</v>
@@ -27876,19 +27877,19 @@
         <v>50</v>
       </c>
       <c r="P303" s="1">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="Q303" s="1">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="R303" s="1">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="S303" s="1">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="T303" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="U303" s="1">
         <v>0</v>
@@ -27956,16 +27957,16 @@
         <v>50</v>
       </c>
       <c r="P304" s="1">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="Q304" s="1">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="R304" s="1">
         <v>55</v>
       </c>
       <c r="S304" s="1">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="T304" s="1">
         <v>50</v>
@@ -28196,16 +28197,16 @@
         <v>70</v>
       </c>
       <c r="P307" s="1">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="Q307" s="1">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="R307" s="1">
         <v>60</v>
       </c>
       <c r="S307" s="1">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="T307" s="1">
         <v>50</v>
@@ -28356,19 +28357,19 @@
         <v>60</v>
       </c>
       <c r="P309" s="1">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="Q309" s="1">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="R309" s="1">
+        <v>60</v>
+      </c>
+      <c r="S309" s="1">
+        <v>75</v>
+      </c>
+      <c r="T309" s="1">
         <v>80</v>
-      </c>
-      <c r="S309" s="1">
-        <v>85</v>
-      </c>
-      <c r="T309" s="1">
-        <v>100</v>
       </c>
       <c r="U309" s="1">
         <v>0</v>
@@ -28519,16 +28520,16 @@
         <v>75</v>
       </c>
       <c r="Q311" s="1">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="R311" s="1">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="S311" s="1">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="T311" s="1">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="U311" s="1">
         <v>0</v>
@@ -28759,13 +28760,13 @@
         <v>73</v>
       </c>
       <c r="Q314" s="1">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="R314" s="1">
         <v>47</v>
       </c>
       <c r="S314" s="1">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="T314" s="1">
         <v>85</v>
@@ -28839,13 +28840,13 @@
         <v>47</v>
       </c>
       <c r="Q315" s="1">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="R315" s="1">
         <v>73</v>
       </c>
       <c r="S315" s="1">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="T315" s="1">
         <v>85</v>
@@ -29236,19 +29237,19 @@
         <v>70</v>
       </c>
       <c r="P320" s="1">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="Q320" s="1">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R320" s="1">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="S320" s="1">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="T320" s="1">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="U320" s="1">
         <v>0</v>
@@ -29556,19 +29557,19 @@
         <v>70</v>
       </c>
       <c r="P324" s="1">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="Q324" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R324" s="1">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="S324" s="1">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="T324" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="U324" s="1">
         <v>0</v>
@@ -30436,13 +30437,13 @@
         <v>75</v>
       </c>
       <c r="P335" s="1">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="Q335" s="1">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="R335" s="1">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="S335" s="1">
         <v>105</v>
@@ -30673,7 +30674,7 @@
         <v>0</v>
       </c>
       <c r="O338" s="1">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="P338" s="1">
         <v>55</v>
@@ -30753,7 +30754,7 @@
         <v>0</v>
       </c>
       <c r="O339" s="1">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="P339" s="1">
         <v>95</v>
@@ -32036,19 +32037,19 @@
         <v>64</v>
       </c>
       <c r="P355" s="1">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="Q355" s="1">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="R355" s="1">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="S355" s="1">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="T355" s="1">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="U355" s="1">
         <v>0</v>
@@ -32353,19 +32354,19 @@
         <v>0</v>
       </c>
       <c r="O359" s="1">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="P359" s="1">
         <v>50</v>
       </c>
       <c r="Q359" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="R359" s="1">
         <v>95</v>
       </c>
       <c r="S359" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="T359" s="1">
         <v>65</v>
@@ -32436,19 +32437,19 @@
         <v>65</v>
       </c>
       <c r="P360" s="1">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="Q360" s="1">
         <v>60</v>
       </c>
       <c r="R360" s="1">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="S360" s="1">
         <v>60</v>
       </c>
       <c r="T360" s="1">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="U360" s="1">
         <v>0</v>
@@ -32676,19 +32677,19 @@
         <v>80</v>
       </c>
       <c r="P363" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="Q363" s="1">
         <v>80</v>
       </c>
       <c r="R363" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="S363" s="1">
         <v>80</v>
       </c>
       <c r="T363" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="U363" s="1">
         <v>2</v>
@@ -33556,19 +33557,19 @@
         <v>95</v>
       </c>
       <c r="P374" s="1">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="Q374" s="1">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="R374" s="1">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="S374" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="T374" s="1">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="U374" s="1">
         <v>0</v>
@@ -33796,19 +33797,19 @@
         <v>80</v>
       </c>
       <c r="P377" s="1">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="Q377" s="1">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="R377" s="1">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="S377" s="1">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="T377" s="1">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="U377" s="1">
         <v>0</v>
@@ -34116,16 +34117,16 @@
         <v>80</v>
       </c>
       <c r="P381" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="Q381" s="1">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R381" s="1">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="S381" s="1">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="T381" s="1">
         <v>110</v>
@@ -34196,16 +34197,16 @@
         <v>80</v>
       </c>
       <c r="P382" s="1">
+        <v>90</v>
+      </c>
+      <c r="Q382" s="1">
+        <v>80</v>
+      </c>
+      <c r="R382" s="1">
         <v>130</v>
       </c>
-      <c r="Q382" s="1">
-        <v>100</v>
-      </c>
-      <c r="R382" s="1">
-        <v>160</v>
-      </c>
       <c r="S382" s="1">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="T382" s="1">
         <v>110</v>
@@ -34276,16 +34277,16 @@
         <v>100</v>
       </c>
       <c r="P383" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="Q383" s="1">
         <v>90</v>
       </c>
       <c r="R383" s="1">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="S383" s="1">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="T383" s="1">
         <v>90</v>
@@ -34356,13 +34357,13 @@
         <v>100</v>
       </c>
       <c r="P384" s="1">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="Q384" s="1">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="R384" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="S384" s="1">
         <v>90</v>
@@ -34436,19 +34437,19 @@
         <v>105</v>
       </c>
       <c r="P385" s="1">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="Q385" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="R385" s="1">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="S385" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="T385" s="1">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="U385" s="1">
         <v>0</v>
@@ -34596,19 +34597,19 @@
         <v>50</v>
       </c>
       <c r="P387" s="1">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="Q387" s="1">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="R387" s="1">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="S387" s="1">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="T387" s="1">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="U387" s="1">
         <v>0</v>
@@ -35565,7 +35566,7 @@
         <v>50</v>
       </c>
       <c r="S399" s="1">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="T399" s="1">
         <v>100</v>
@@ -36279,7 +36280,7 @@
         <v>70</v>
       </c>
       <c r="Q408" s="1">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="R408" s="1">
         <v>125</v>
@@ -36756,16 +36757,16 @@
         <v>60</v>
       </c>
       <c r="P414" s="1">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="Q414" s="1">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="R414" s="1">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="S414" s="1">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="T414" s="1">
         <v>36</v>
@@ -37956,10 +37957,10 @@
         <v>65</v>
       </c>
       <c r="P429" s="1">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="Q429" s="1">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="R429" s="1">
         <v>54</v>
@@ -37968,7 +37969,7 @@
         <v>96</v>
       </c>
       <c r="T429" s="1">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="U429" s="1">
         <v>0</v>
@@ -39316,19 +39317,19 @@
         <v>108</v>
       </c>
       <c r="P446" s="1">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="Q446" s="1">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="R446" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="S446" s="1">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="T446" s="1">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="U446" s="1">
         <v>0</v>
@@ -39556,19 +39557,19 @@
         <v>70</v>
       </c>
       <c r="P449" s="1">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="Q449" s="1">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="R449" s="1">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="S449" s="1">
         <v>70</v>
       </c>
       <c r="T449" s="1">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="U449" s="1">
         <v>0</v>
@@ -40516,19 +40517,19 @@
         <v>90</v>
       </c>
       <c r="P461" s="1">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="Q461" s="1">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="R461" s="1">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="S461" s="1">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="T461" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="U461" s="1">
         <v>0</v>
@@ -41716,10 +41717,10 @@
         <v>68</v>
       </c>
       <c r="P476" s="1">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="Q476" s="1">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="R476" s="1">
         <v>65</v>
@@ -41728,7 +41729,7 @@
         <v>115</v>
       </c>
       <c r="T476" s="1">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="U476" s="1">
         <v>0</v>
@@ -42036,19 +42037,19 @@
         <v>50</v>
       </c>
       <c r="P480" s="1">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="Q480" s="1">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="R480" s="1">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="S480" s="1">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="T480" s="1">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="U480" s="1">
         <v>0</v>
@@ -42676,16 +42677,16 @@
         <v>150</v>
       </c>
       <c r="P488" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q488" s="1">
         <v>120</v>
       </c>
-      <c r="Q488" s="1">
+      <c r="R488" s="1">
         <v>100</v>
       </c>
-      <c r="R488" s="1">
+      <c r="S488" s="1">
         <v>120</v>
-      </c>
-      <c r="S488" s="1">
-        <v>100</v>
       </c>
       <c r="T488" s="1">
         <v>90</v>
@@ -43076,19 +43077,19 @@
         <v>100</v>
       </c>
       <c r="P493" s="1">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q493" s="1">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R493" s="1">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="S493" s="1">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="T493" s="1">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="U493" s="1">
         <v>3</v>
